--- a/mappings/package_F12/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F12/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="838">
   <si>
     <t>Field</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.1-TDArc.1</t>
+    <t>2.1.1-TDAbeta.1</t>
   </si>
   <si>
     <r>
@@ -1561,7 +1561,7 @@
     <t>I.2.1</t>
   </si>
   <si>
-    <t>The contract involves joint procurement</t>
+    <t>The contest involves joint procurement</t>
   </si>
   <si>
     <t>CONTRACTING_BODY/JOINT_PROCUREMENT_INVOLVED</t>
@@ -3224,6 +3224,12 @@
     <t>EU Funds</t>
   </si>
   <si>
+    <t>II.2.13.1.1</t>
+  </si>
+  <si>
+    <t>The procurement is related to a project and/or programme financed by European Union funds (yes)</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/EU_PROGR_RELATED</t>
   </si>
   <si>
@@ -3256,6 +3262,12 @@
     </r>
   </si>
   <si>
+    <t>II.2.13.1.2</t>
+  </si>
+  <si>
+    <t>The procurement is related to a project and/or programme financed by European Union funds (no)</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED</t>
   </si>
   <si>
@@ -3344,29 +3356,83 @@
     <t>Criteria for the selection of participants: (in the case of a restricted contest)</t>
   </si>
   <si>
-    <t>BT-749; BT-750</t>
-  </si>
-  <si>
-    <t>Selection Criteria Name; 
-Selection Criteria Description</t>
-  </si>
-  <si>
-    <t>LEFTI/CRITERIA_SELECTION/P/FT</t>
+    <t>BT-750</t>
+  </si>
+  <si>
+    <t>Selection Criteria Description</t>
+  </si>
+  <si>
+    <t>LEFTI/CRITERIA_SELECTION/P</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:SelectionCriterion / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesSelectionCriterion / ccev:description ?value .</t>
+  </si>
+  <si>
+    <t>BT-751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:Lot / epo:SelectionCriterion / at-voc:selection-criterion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/selection-criterion/other</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <t>III.2.1</t>
+  </si>
+  <si>
+    <t>Information about a particular profession</t>
+  </si>
+  <si>
+    <t>III.2.1.1</t>
+  </si>
+  <si>
+    <t>Execution of the service is reserved to a particular profession</t>
+  </si>
+  <si>
+    <t>BT-747</t>
+  </si>
+  <si>
+    <t>LEFTI/PARTICULAR_PROFESSION</t>
+  </si>
+  <si>
+    <t>Not mappable properly to EPO v3.1.0.
+See the related comments in the "Mapping Remarks" sheet for more details.</t>
   </si>
   <si>
     <t>III.2.1.2</t>
   </si>
   <si>
-    <t>indicative profession</t>
+    <t>Indicate profession</t>
   </si>
   <si>
     <t>BT-79</t>
   </si>
   <si>
     <t>Performing Staff Qualification</t>
-  </si>
-  <si>
-    <t>LEFTI/PARTICULAR_PROFESSION/@CTYPE</t>
   </si>
   <si>
     <t>Section IV</t>
@@ -3497,12 +3563,6 @@
     <t>PROCEDURE/NB_PARTICIPANTS</t>
   </si>
   <si>
-    <t>epo:Procedure / epo:Lot / epo:MultipleStageProcedureTerm / xsd:integer</t>
-  </si>
-  <si>
-    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasMaximumNumberOfCandidates ?value .</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -3521,9 +3581,6 @@
     <t>PROCEDURE/NB_MIN_PARTICIPANTS</t>
   </si>
   <si>
-    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasMinimumNumberOfCandidates ?value .</t>
-  </si>
-  <si>
     <t>IV.1.2.2.3</t>
   </si>
   <si>
@@ -3552,9 +3609,6 @@
   </si>
   <si>
     <t>PROCEDURE/PARTICIPANT_NAME</t>
-  </si>
-  <si>
-    <t>?this epo:hasName ?value</t>
   </si>
   <si>
     <t>IV.1.9</t>
@@ -3803,45 +3857,39 @@
     <t>A prize/prizes will be awarded</t>
   </si>
   <si>
-    <t>BT-44</t>
-  </si>
-  <si>
-    <t>Prize Rank</t>
+    <t>IV.3.1.1.1</t>
+  </si>
+  <si>
+    <t>A prize/prizes will be awarded (yes)</t>
+  </si>
+  <si>
+    <t>PROCEDURE/PRIZE_AWARDED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:Procedure / epo:Lot / epo:DesignContestRegimeTerm / epo:Prize </t>
+  </si>
+  <si>
+    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:definesPrize ?value .</t>
+  </si>
+  <si>
+    <t>IV.3.1.1.2</t>
+  </si>
+  <si>
+    <t>A prize/prizes will be awarded (no)</t>
   </si>
   <si>
     <t>PROCEDURE/NO_PRIZE_AWARDED</t>
   </si>
   <si>
-    <t>epo:Procedure / epo:Lot / epo:DesignContestRegimeTerm / epo:Prize / xsd:integer</t>
-  </si>
-  <si>
-    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:definesPrice / epo:hasRankPrice ?value .</t>
-  </si>
-  <si>
-    <t>PROCEDURE/PRIZE_AWARDED</t>
-  </si>
-  <si>
     <t>IV.3.1.2</t>
   </si>
   <si>
     <t>Number and value of the prize(s) to be awarded</t>
   </si>
   <si>
-    <t>BT-644</t>
-  </si>
-  <si>
-    <t>Prize Value</t>
-  </si>
-  <si>
     <t>PROCEDURE/NUMBER_VALUE_PRIZE</t>
   </si>
   <si>
-    <t>epo:Procedure / epo:Lot / epo:DesignContestRegimeTerm / epo:Prize / epo:MonetaryValue / xsd:decimal</t>
-  </si>
-  <si>
-    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:definesPrice / epo:hasPrizeValue / epo:hasAmountValue ?value .</t>
-  </si>
-  <si>
     <t>IV.3.2</t>
   </si>
   <si>
@@ -3863,6 +3911,9 @@
     <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasParticipationPayment ?value .</t>
   </si>
   <si>
+    <t>&lt;P&gt; problem</t>
+  </si>
+  <si>
     <t>IV.3.3</t>
   </si>
   <si>
@@ -3881,15 +3932,33 @@
     <t>Following Contract</t>
   </si>
   <si>
+    <t>IV.3.3.1.1</t>
+  </si>
+  <si>
+    <t>Any service contract following the contest will be awarded to the winner or winners of the contest (yes)</t>
+  </si>
+  <si>
     <t>PROCEDURE/FOLLOW_UP_CONTRACTS</t>
   </si>
   <si>
-    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasFollowupContractInformation ?value .</t>
+    <t>epo:Procedure / epo:Lot / epo:DesignContestRegimeTerm / xsd:boolean</t>
+  </si>
+  <si>
+    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasFollowupContract true .</t>
+  </si>
+  <si>
+    <t>IV.3.3.1.2</t>
+  </si>
+  <si>
+    <t>Any service contract following the contest will be awarded to the winner or winners of the contest (no)</t>
   </si>
   <si>
     <t>PROCEDURE/NO_FOLLOW_UP_CONTRACTS</t>
   </si>
   <si>
+    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasFollowupContract false .</t>
+  </si>
+  <si>
     <t>IV.3.4</t>
   </si>
   <si>
@@ -3908,13 +3977,28 @@
     <t>Jury Decision Binding</t>
   </si>
   <si>
+    <t>IV.3.4.1.1</t>
+  </si>
+  <si>
+    <t>The decision of the jury is binding on the contracting authority/entity (yes)</t>
+  </si>
+  <si>
     <t>PROCEDURE/DECISION_BINDING_CONTRACTING</t>
   </si>
   <si>
-    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasJuryDecisionBinding ?value .</t>
+    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasJuryDecisionBinding true .</t>
+  </si>
+  <si>
+    <t>IV.3.4.1.2</t>
+  </si>
+  <si>
+    <t>The decision of the jury is binding on the contracting authority/entity (no)</t>
   </si>
   <si>
     <t>PROCEDURE/NO_DECISION_BINDING_CONTRACTING</t>
+  </si>
+  <si>
+    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasJuryDecisionBinding false .</t>
   </si>
   <si>
     <t>IV.3.5</t>
@@ -5453,7 +5537,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -5539,6 +5623,16 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
@@ -5590,7 +5684,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5661,6 +5755,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -5750,7 +5850,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="153">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6022,50 +6122,65 @@
     <xf borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="8" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="13" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6079,12 +6194,6 @@
     <xf quotePrefix="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf quotePrefix="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -6097,7 +6206,7 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="21" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6106,29 +6215,29 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6152,13 +6261,13 @@
     <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6170,23 +6279,23 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -10913,7 +11022,7 @@
       </c>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="40" t="s">
         <v>188</v>
       </c>
       <c r="F40" s="43"/>
@@ -12853,39 +12962,33 @@
       <c r="D103" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="E103" s="47" t="s">
-        <v>425</v>
-      </c>
+      <c r="E103" s="47"/>
       <c r="F103" s="35"/>
-      <c r="G103" s="47" t="s">
-        <v>426</v>
-      </c>
-      <c r="H103" s="92" t="s">
-        <v>427</v>
-      </c>
+      <c r="G103" s="47"/>
+      <c r="H103" s="36"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="64" t="s">
-        <v>421</v>
-      </c>
-      <c r="B104" s="65" t="s">
-        <v>422</v>
-      </c>
-      <c r="C104" s="93" t="s">
+      <c r="A104" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="B104" s="70" t="s">
+        <v>426</v>
+      </c>
+      <c r="C104" s="47" t="s">
         <v>423</v>
       </c>
-      <c r="D104" s="93" t="s">
+      <c r="D104" s="47" t="s">
         <v>424</v>
       </c>
       <c r="E104" s="47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F104" s="35"/>
       <c r="G104" s="47" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H104" s="92" t="s">
         <v>429</v>
@@ -12895,57 +12998,67 @@
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="51" t="s">
+      <c r="A105" s="69" t="s">
         <v>430</v>
       </c>
-      <c r="B105" s="52" t="s">
+      <c r="B105" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="C105" s="47" t="s">
+      <c r="C105" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E105" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="D105" s="47" t="s">
+      <c r="F105" s="35"/>
+      <c r="G105" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="H105" s="92" t="s">
         <v>433</v>
       </c>
-      <c r="E105" s="40" t="s">
-        <v>425</v>
-      </c>
-      <c r="F105" s="47"/>
-      <c r="G105" s="47" t="s">
-        <v>434</v>
-      </c>
-      <c r="H105" s="92" t="s">
-        <v>435</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="I105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="33" t="s">
+      <c r="A106" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="B106" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="C106" s="47" t="s">
         <v>436</v>
       </c>
-      <c r="B106" s="90" t="s">
+      <c r="D106" s="57" t="s">
         <v>437</v>
       </c>
-      <c r="C106" s="36"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="7"/>
+      <c r="E106" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="F106" s="57"/>
+      <c r="G106" s="57" t="s">
+        <v>438</v>
+      </c>
+      <c r="H106" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="B107" s="39" t="s">
-        <v>439</v>
+      <c r="A107" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="B107" s="90" t="s">
+        <v>441</v>
       </c>
       <c r="C107" s="36"/>
       <c r="D107" s="36"/>
@@ -12958,76 +13071,82 @@
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="94" t="s">
-        <v>440</v>
-      </c>
-      <c r="B108" s="95" t="s">
-        <v>441</v>
-      </c>
-      <c r="C108" s="96" t="s">
+      <c r="A108" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="D108" s="97" t="s">
+      <c r="B108" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="E108" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="47"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="98" t="s">
+      <c r="A109" s="94" t="s">
+        <v>444</v>
+      </c>
+      <c r="B109" s="95" t="s">
         <v>445</v>
       </c>
-      <c r="B109" s="99" t="s">
+      <c r="C109" s="96" t="s">
         <v>446</v>
       </c>
-      <c r="C109" s="97" t="s">
+      <c r="D109" s="97" t="s">
         <v>447</v>
       </c>
-      <c r="D109" s="100" t="s">
+      <c r="E109" s="97" t="s">
         <v>448</v>
       </c>
-      <c r="E109" s="100" t="s">
+      <c r="F109" s="7"/>
+      <c r="G109" s="98" t="s">
         <v>449</v>
       </c>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
+      <c r="H109" s="98" t="s">
+        <v>450</v>
+      </c>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="B110" s="90" t="s">
+      <c r="A110" s="94" t="s">
+        <v>444</v>
+      </c>
+      <c r="B110" s="95" t="s">
+        <v>445</v>
+      </c>
+      <c r="C110" s="96" t="s">
         <v>451</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="35" t="s">
+      <c r="D110" s="99" t="s">
+        <v>447</v>
+      </c>
+      <c r="E110" s="100" t="s">
+        <v>448</v>
+      </c>
+      <c r="F110" s="4"/>
+      <c r="G110" s="101" t="s">
         <v>452</v>
       </c>
-      <c r="F110" s="4"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
+      <c r="H110" s="102" t="s">
+        <v>453</v>
+      </c>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
     </row>
     <row r="111">
-      <c r="A111" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="B111" s="39" t="s">
-        <v>8</v>
+      <c r="A111" s="45" t="s">
+        <v>454</v>
+      </c>
+      <c r="B111" s="46" t="s">
+        <v>455</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -13040,395 +13159,373 @@
       <c r="K111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="45" t="s">
-        <v>454</v>
-      </c>
-      <c r="B112" s="46" t="s">
-        <v>455</v>
-      </c>
-      <c r="C112" s="56"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="57"/>
-      <c r="F112" s="57"/>
-      <c r="G112" s="56"/>
-      <c r="H112" s="56"/>
+      <c r="A112" s="51" t="s">
+        <v>456</v>
+      </c>
+      <c r="B112" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
+      <c r="K112" s="7" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="51" t="s">
-        <v>456</v>
-      </c>
-      <c r="B113" s="52" t="s">
-        <v>457</v>
-      </c>
-      <c r="C113" s="36" t="s">
-        <v>458</v>
-      </c>
-      <c r="D113" s="36" t="s">
+      <c r="A113" s="103" t="s">
+        <v>461</v>
+      </c>
+      <c r="B113" s="104" t="s">
+        <v>462</v>
+      </c>
+      <c r="C113" s="101" t="s">
+        <v>463</v>
+      </c>
+      <c r="D113" s="101" t="s">
+        <v>464</v>
+      </c>
+      <c r="E113" s="100" t="s">
         <v>459</v>
       </c>
-      <c r="E113" s="40" t="s">
-        <v>460</v>
-      </c>
-      <c r="F113" s="47"/>
-      <c r="G113" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="H113" s="91" t="s">
-        <v>462</v>
-      </c>
+      <c r="F113" s="4"/>
+      <c r="G113" s="101"/>
+      <c r="H113" s="105"/>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
     </row>
     <row r="114">
-      <c r="A114" s="51" t="s">
-        <v>463</v>
-      </c>
-      <c r="B114" s="52" t="s">
-        <v>464</v>
-      </c>
-      <c r="C114" s="36" t="s">
-        <v>458</v>
-      </c>
-      <c r="D114" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="E114" s="40" t="s">
+      <c r="A114" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="F114" s="47"/>
-      <c r="G114" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="H114" s="91" t="s">
+      <c r="B114" s="90" t="s">
         <v>466</v>
       </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="101" t="s">
-        <v>467</v>
-      </c>
-      <c r="B115" s="102" t="s">
+      <c r="A115" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>471</v>
-      </c>
+      <c r="B115" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="96" t="s">
-        <v>472</v>
-      </c>
-      <c r="H115" s="103" t="s">
-        <v>473</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>474</v>
-      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
     </row>
     <row r="116">
-      <c r="A116" s="101" t="s">
-        <v>475</v>
-      </c>
-      <c r="B116" s="102" t="s">
-        <v>476</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="F116" s="7"/>
-      <c r="G116" s="96" t="s">
-        <v>472</v>
-      </c>
-      <c r="H116" s="104" t="s">
-        <v>480</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>474</v>
-      </c>
+      <c r="A116" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="B116" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="C116" s="56"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="57"/>
+      <c r="F116" s="57"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
     <row r="117">
-      <c r="A117" s="101" t="s">
-        <v>481</v>
-      </c>
-      <c r="B117" s="102" t="s">
-        <v>482</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="F117" s="4"/>
-      <c r="G117" s="96" t="s">
+      <c r="A117" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="B117" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="H117" s="103" t="s">
+      <c r="C117" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="I117" s="7" t="s">
+      <c r="D117" s="36" t="s">
         <v>474</v>
       </c>
+      <c r="E117" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="F117" s="47"/>
+      <c r="G117" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H117" s="91" t="s">
+        <v>477</v>
+      </c>
+      <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="94" t="s">
-        <v>486</v>
-      </c>
-      <c r="B118" s="95" t="s">
-        <v>487</v>
-      </c>
-      <c r="C118" s="96" t="s">
-        <v>488</v>
-      </c>
-      <c r="D118" s="105" t="s">
-        <v>489</v>
-      </c>
-      <c r="E118" s="105" t="s">
-        <v>490</v>
-      </c>
-      <c r="F118" s="56"/>
-      <c r="G118" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="H118" s="105" t="s">
-        <v>491</v>
+      <c r="A118" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="B118" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="C118" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="D118" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="E118" s="89" t="s">
+        <v>480</v>
+      </c>
+      <c r="F118" s="57"/>
+      <c r="G118" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H118" s="32" t="s">
+        <v>481</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="45" t="s">
+      <c r="A119" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="B119" s="107" t="s">
+        <v>483</v>
+      </c>
+      <c r="C119" s="101" t="s">
+        <v>484</v>
+      </c>
+      <c r="D119" s="101" t="s">
+        <v>485</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F119" s="4"/>
+      <c r="G119" s="101"/>
+      <c r="H119" s="105"/>
+      <c r="I119" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="106" t="s">
+        <v>488</v>
+      </c>
+      <c r="B120" s="107" t="s">
+        <v>489</v>
+      </c>
+      <c r="C120" s="98" t="s">
+        <v>490</v>
+      </c>
+      <c r="D120" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B119" s="46" t="s">
-        <v>493</v>
-      </c>
-      <c r="C119" s="61" t="s">
-        <v>494</v>
-      </c>
-      <c r="D119" s="77"/>
-      <c r="E119" s="61" t="s">
-        <v>495</v>
-      </c>
-      <c r="F119" s="77"/>
-      <c r="G119" s="77"/>
-      <c r="H119" s="61"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="38" t="s">
-        <v>497</v>
-      </c>
-      <c r="B120" s="39" t="s">
-        <v>498</v>
-      </c>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="7"/>
+      <c r="G120" s="101"/>
+      <c r="H120" s="105"/>
+      <c r="I120" s="7" t="s">
+        <v>487</v>
+      </c>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="45" t="s">
+      <c r="A121" s="106" t="s">
+        <v>493</v>
+      </c>
+      <c r="B121" s="107" t="s">
+        <v>494</v>
+      </c>
+      <c r="C121" s="98" t="s">
+        <v>495</v>
+      </c>
+      <c r="D121" s="98" t="s">
+        <v>496</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="F121" s="4"/>
+      <c r="G121" s="101"/>
+      <c r="H121" s="105"/>
+      <c r="I121" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="94" t="s">
+        <v>498</v>
+      </c>
+      <c r="B122" s="95" t="s">
         <v>499</v>
       </c>
-      <c r="B121" s="46" t="s">
+      <c r="C122" s="108" t="s">
         <v>500</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="D121" s="7"/>
-      <c r="E121" s="35" t="s">
+      <c r="D122" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="F121" s="35" t="s">
+      <c r="E122" s="96" t="s">
         <v>502</v>
       </c>
-      <c r="G121" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="H121" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="72" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="45" t="s">
-        <v>506</v>
-      </c>
-      <c r="B122" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="D122" s="7"/>
-      <c r="E122" s="40" t="s">
-        <v>501</v>
-      </c>
-      <c r="F122" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="G122" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="H122" s="35" t="s">
-        <v>508</v>
-      </c>
+      <c r="F122" s="36"/>
+      <c r="G122" s="101"/>
+      <c r="H122" s="105"/>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
-      <c r="K122" s="72" t="s">
-        <v>509</v>
-      </c>
+      <c r="K122" s="7"/>
     </row>
     <row r="123">
       <c r="A123" s="45" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B123" s="46" t="s">
-        <v>511</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="D123" s="7"/>
-      <c r="E123" s="35" t="s">
-        <v>513</v>
-      </c>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="H123" s="35" t="s">
-        <v>515</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="C123" s="82" t="s">
+        <v>505</v>
+      </c>
+      <c r="D123" s="81"/>
+      <c r="E123" s="61" t="s">
+        <v>506</v>
+      </c>
+      <c r="F123" s="77"/>
+      <c r="G123" s="77"/>
+      <c r="H123" s="61"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
+      <c r="K123" s="7" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="106" t="s">
-        <v>516</v>
-      </c>
-      <c r="B124" s="107" t="s">
-        <v>517</v>
+      <c r="A124" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="B124" s="39" t="s">
+        <v>509</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="4"/>
-      <c r="F124" s="36"/>
+      <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-      <c r="H124" s="35"/>
+      <c r="H124" s="4"/>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="94" t="s">
-        <v>518</v>
-      </c>
-      <c r="B125" s="95" t="s">
-        <v>519</v>
-      </c>
-      <c r="C125" s="7"/>
+      <c r="A125" s="45" t="s">
+        <v>510</v>
+      </c>
+      <c r="B125" s="46" t="s">
+        <v>511</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>505</v>
+      </c>
       <c r="D125" s="7"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="36"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="35"/>
+      <c r="E125" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="F125" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="G125" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="H125" s="35" t="s">
+        <v>515</v>
+      </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
+      <c r="K125" s="72" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="98" t="s">
-        <v>520</v>
-      </c>
-      <c r="B126" s="99" t="s">
-        <v>521</v>
+      <c r="A126" s="45" t="s">
+        <v>517</v>
+      </c>
+      <c r="B126" s="46" t="s">
+        <v>511</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="D126" s="104" t="s">
-        <v>523</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="F126" s="56"/>
-      <c r="G126" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="H126" s="100" t="s">
-        <v>526</v>
+        <v>505</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="89" t="s">
+        <v>512</v>
+      </c>
+      <c r="F126" s="72" t="s">
+        <v>518</v>
+      </c>
+      <c r="G126" s="72" t="s">
+        <v>514</v>
+      </c>
+      <c r="H126" s="72" t="s">
+        <v>519</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
+      <c r="K126" s="72" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="98" t="s">
-        <v>520</v>
-      </c>
-      <c r="B127" s="99" t="s">
+      <c r="A127" s="45" t="s">
         <v>521</v>
       </c>
+      <c r="B127" s="46" t="s">
+        <v>522</v>
+      </c>
       <c r="C127" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="D127" s="104" t="s">
         <v>523</v>
       </c>
-      <c r="E127" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="F127" s="56"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="72" t="s">
+        <v>524</v>
+      </c>
+      <c r="F127" s="7"/>
       <c r="G127" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="H127" s="97" t="s">
+      <c r="H127" s="35" t="s">
         <v>526</v>
       </c>
       <c r="I127" s="7"/>
@@ -13436,504 +13533,438 @@
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="98" t="s">
+      <c r="A128" s="109" t="s">
+        <v>527</v>
+      </c>
+      <c r="B128" s="110" t="s">
         <v>528</v>
       </c>
-      <c r="B128" s="99" t="s">
-        <v>529</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="D128" s="104" t="s">
-        <v>531</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>532</v>
-      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="4"/>
       <c r="F128" s="36"/>
-      <c r="G128" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="H128" s="97" t="s">
-        <v>534</v>
-      </c>
+      <c r="G128" s="4"/>
+      <c r="H128" s="35"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
     </row>
     <row r="129">
       <c r="A129" s="94" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B129" s="95" t="s">
-        <v>536</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>539</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="4"/>
       <c r="F129" s="36"/>
-      <c r="G129" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="H129" s="97" t="s">
-        <v>541</v>
-      </c>
+      <c r="G129" s="4"/>
+      <c r="H129" s="35"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="94" t="s">
-        <v>542</v>
-      </c>
-      <c r="B130" s="95" t="s">
-        <v>543</v>
-      </c>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
+      <c r="A130" s="103" t="s">
+        <v>531</v>
+      </c>
+      <c r="B130" s="104" t="s">
+        <v>532</v>
+      </c>
+      <c r="C130" s="98"/>
+      <c r="D130" s="111"/>
       <c r="E130" s="4"/>
       <c r="F130" s="36"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="35"/>
+      <c r="G130" s="101"/>
+      <c r="H130" s="105"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="98" t="s">
-        <v>544</v>
-      </c>
-      <c r="B131" s="99" t="s">
-        <v>545</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>547</v>
-      </c>
+      <c r="A131" s="106" t="s">
+        <v>533</v>
+      </c>
+      <c r="B131" s="107" t="s">
+        <v>534</v>
+      </c>
+      <c r="C131" s="98"/>
+      <c r="D131" s="111"/>
       <c r="E131" s="7" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="F131" s="56"/>
-      <c r="G131" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="H131" s="100" t="s">
-        <v>549</v>
+      <c r="G131" s="98" t="s">
+        <v>536</v>
+      </c>
+      <c r="H131" s="111" t="s">
+        <v>537</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="98" t="s">
-        <v>544</v>
-      </c>
-      <c r="B132" s="99" t="s">
-        <v>545</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>547</v>
-      </c>
+      <c r="A132" s="106" t="s">
+        <v>538</v>
+      </c>
+      <c r="B132" s="107" t="s">
+        <v>539</v>
+      </c>
+      <c r="C132" s="98"/>
+      <c r="D132" s="111"/>
       <c r="E132" s="4" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="F132" s="36"/>
-      <c r="G132" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="H132" s="97" t="s">
-        <v>549</v>
-      </c>
+      <c r="G132" s="101"/>
+      <c r="H132" s="105"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="94" t="s">
-        <v>551</v>
-      </c>
-      <c r="B133" s="95" t="s">
-        <v>552</v>
-      </c>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="4"/>
+      <c r="A133" s="103" t="s">
+        <v>541</v>
+      </c>
+      <c r="B133" s="104" t="s">
+        <v>542</v>
+      </c>
+      <c r="C133" s="98"/>
+      <c r="D133" s="111"/>
+      <c r="E133" s="4" t="s">
+        <v>543</v>
+      </c>
       <c r="F133" s="36"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="35"/>
+      <c r="G133" s="101"/>
+      <c r="H133" s="105"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="98" t="s">
-        <v>553</v>
-      </c>
-      <c r="B134" s="99" t="s">
-        <v>554</v>
+      <c r="A134" s="94" t="s">
+        <v>544</v>
+      </c>
+      <c r="B134" s="95" t="s">
+        <v>545</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="D134" s="104" t="s">
-        <v>556</v>
+        <v>546</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F134" s="36"/>
       <c r="G134" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="H134" s="97" t="s">
-        <v>558</v>
+        <v>549</v>
+      </c>
+      <c r="H134" s="99" t="s">
+        <v>550</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
+      <c r="K134" s="7" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="98" t="s">
+      <c r="A135" s="94" t="s">
+        <v>552</v>
+      </c>
+      <c r="B135" s="95" t="s">
         <v>553</v>
       </c>
-      <c r="B135" s="99" t="s">
-        <v>554</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="D135" s="104" t="s">
-        <v>556</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>559</v>
-      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="4"/>
       <c r="F135" s="36"/>
-      <c r="G135" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="H135" s="97" t="s">
-        <v>558</v>
-      </c>
+      <c r="G135" s="4"/>
+      <c r="H135" s="35"/>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="94" t="s">
-        <v>560</v>
-      </c>
-      <c r="B136" s="95" t="s">
-        <v>561</v>
+      <c r="A136" s="103" t="s">
+        <v>554</v>
+      </c>
+      <c r="B136" s="104" t="s">
+        <v>555</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>564</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="E136" s="4"/>
       <c r="F136" s="36"/>
-      <c r="G136" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="H136" s="96" t="s">
-        <v>491</v>
-      </c>
+      <c r="G136" s="4"/>
+      <c r="H136" s="99"/>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="B137" s="34" t="s">
-        <v>566</v>
-      </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
+      <c r="A137" s="106" t="s">
+        <v>558</v>
+      </c>
+      <c r="B137" s="107" t="s">
+        <v>559</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="F137" s="36"/>
+      <c r="G137" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="H137" s="99" t="s">
+        <v>562</v>
+      </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="B138" s="39" t="s">
-        <v>568</v>
-      </c>
-      <c r="C138" s="57" t="s">
-        <v>569</v>
+      <c r="A138" s="106" t="s">
+        <v>563</v>
+      </c>
+      <c r="B138" s="107" t="s">
+        <v>564</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="E138" s="108" t="s">
-        <v>571</v>
-      </c>
-      <c r="F138" s="108"/>
-      <c r="G138" s="109" t="s">
-        <v>379</v>
-      </c>
-      <c r="H138" s="110" t="s">
-        <v>572</v>
-      </c>
-      <c r="I138" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="F138" s="112"/>
+      <c r="G138" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="H138" s="99" t="s">
+        <v>566</v>
+      </c>
+      <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="B139" s="39" t="s">
-        <v>574</v>
-      </c>
-      <c r="C139" s="111" t="s">
-        <v>575</v>
-      </c>
+      <c r="A139" s="94" t="s">
+        <v>567</v>
+      </c>
+      <c r="B139" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="C139" s="7"/>
       <c r="D139" s="7"/>
-      <c r="E139" s="112"/>
+      <c r="E139" s="18"/>
       <c r="F139" s="112"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
+      <c r="H139" s="35"/>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="B140" s="46" t="s">
-        <v>577</v>
-      </c>
-      <c r="C140" s="113" t="s">
-        <v>575</v>
-      </c>
-      <c r="D140" s="7"/>
-      <c r="E140" s="35" t="s">
-        <v>578</v>
-      </c>
+      <c r="A140" s="103" t="s">
+        <v>569</v>
+      </c>
+      <c r="B140" s="104" t="s">
+        <v>570</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D140" s="108" t="s">
+        <v>572</v>
+      </c>
+      <c r="E140" s="4"/>
       <c r="F140" s="36"/>
-      <c r="G140" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H140" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="G140" s="4"/>
+      <c r="H140" s="99"/>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="51" t="s">
-        <v>579</v>
-      </c>
-      <c r="B141" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C141" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D141" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="E141" s="36" t="s">
-        <v>580</v>
+      <c r="A141" s="106" t="s">
+        <v>573</v>
+      </c>
+      <c r="B141" s="107" t="s">
+        <v>574</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D141" s="108" t="s">
+        <v>572</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>575</v>
       </c>
       <c r="F141" s="36"/>
-      <c r="G141" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="H141" s="35" t="s">
-        <v>581</v>
-      </c>
-      <c r="I141" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="G141" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="H141" s="99" t="s">
+        <v>576</v>
+      </c>
+      <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="51" t="s">
-        <v>582</v>
-      </c>
-      <c r="B142" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C142" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="D142" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E142" s="36" t="s">
-        <v>583</v>
+      <c r="A142" s="106" t="s">
+        <v>577</v>
+      </c>
+      <c r="B142" s="107" t="s">
+        <v>578</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D142" s="108" t="s">
+        <v>572</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>579</v>
       </c>
       <c r="F142" s="56"/>
-      <c r="G142" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H142" s="35" t="s">
-        <v>584</v>
+      <c r="G142" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="H142" s="99" t="s">
+        <v>580</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="51" t="s">
+      <c r="A143" s="94" t="s">
+        <v>581</v>
+      </c>
+      <c r="B143" s="95" t="s">
+        <v>582</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="E143" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="B143" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C143" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="D143" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E143" s="36" t="s">
-        <v>586</v>
-      </c>
       <c r="F143" s="36"/>
-      <c r="G143" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H143" s="35" t="s">
-        <v>587</v>
-      </c>
+      <c r="G143" s="101"/>
+      <c r="H143" s="105"/>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="51" t="s">
-        <v>588</v>
-      </c>
-      <c r="B144" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C144" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D144" s="57" t="s">
-        <v>589</v>
-      </c>
-      <c r="E144" s="36" t="s">
-        <v>590</v>
-      </c>
-      <c r="F144" s="36"/>
-      <c r="G144" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H144" s="35" t="s">
-        <v>591</v>
-      </c>
+      <c r="A144" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="B144" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="51" t="s">
+      <c r="A145" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="B145" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="C145" s="57" t="s">
+        <v>590</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="E145" s="113" t="s">
         <v>592</v>
       </c>
-      <c r="B145" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="C145" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="D145" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="E145" s="36" t="s">
+      <c r="F145" s="113"/>
+      <c r="G145" s="114" t="s">
+        <v>379</v>
+      </c>
+      <c r="H145" s="115" t="s">
         <v>593</v>
       </c>
-      <c r="F145" s="36"/>
-      <c r="G145" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="H145" s="47" t="s">
-        <v>594</v>
-      </c>
-      <c r="I145" s="7"/>
+      <c r="I145" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="51" t="s">
+      <c r="A146" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="B146" s="39" t="s">
         <v>595</v>
       </c>
-      <c r="B146" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="C146" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="D146" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E146" s="36" t="s">
+      <c r="C146" s="116" t="s">
         <v>596</v>
       </c>
-      <c r="F146" s="36"/>
-      <c r="G146" s="47" t="s">
-        <v>597</v>
-      </c>
-      <c r="H146" s="47" t="s">
-        <v>598</v>
-      </c>
+      <c r="D146" s="7"/>
+      <c r="E146" s="112"/>
+      <c r="F146" s="112"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="51" t="s">
+      <c r="A147" s="45" t="s">
+        <v>597</v>
+      </c>
+      <c r="B147" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="C147" s="117" t="s">
+        <v>596</v>
+      </c>
+      <c r="D147" s="7"/>
+      <c r="E147" s="35" t="s">
         <v>599</v>
       </c>
-      <c r="B147" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C147" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="D147" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E147" s="36" t="s">
-        <v>600</v>
-      </c>
       <c r="F147" s="36"/>
-      <c r="G147" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="H147" s="47" t="s">
-        <v>602</v>
+      <c r="G147" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H147" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
@@ -13941,78 +13972,82 @@
     </row>
     <row r="148">
       <c r="A148" s="51" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B148" s="52" t="s">
-        <v>604</v>
+        <v>65</v>
       </c>
       <c r="C148" s="57" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="D148" s="57" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="E148" s="36" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F148" s="36"/>
-      <c r="G148" s="44" t="s">
-        <v>597</v>
-      </c>
-      <c r="H148" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="I148" s="7"/>
+      <c r="G148" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H148" s="35" t="s">
+        <v>602</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
       <c r="A149" s="51" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B149" s="52" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="C149" s="57" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D149" s="57" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E149" s="36" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F149" s="36"/>
-      <c r="G149" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="H149" s="47" t="s">
-        <v>609</v>
+      <c r="G149" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H149" s="35" t="s">
+        <v>605</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="45" t="s">
-        <v>610</v>
-      </c>
-      <c r="B150" s="46" t="s">
-        <v>611</v>
-      </c>
-      <c r="C150" s="114" t="s">
-        <v>575</v>
-      </c>
-      <c r="D150" s="115"/>
-      <c r="E150" s="35" t="s">
-        <v>612</v>
-      </c>
-      <c r="F150" s="47"/>
-      <c r="G150" s="36" t="s">
-        <v>613</v>
-      </c>
-      <c r="H150" s="36" t="s">
-        <v>61</v>
+      <c r="A150" s="51" t="s">
+        <v>606</v>
+      </c>
+      <c r="B150" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C150" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D150" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E150" s="36" t="s">
+        <v>607</v>
+      </c>
+      <c r="F150" s="36"/>
+      <c r="G150" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H150" s="35" t="s">
+        <v>608</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
@@ -14020,55 +14055,53 @@
     </row>
     <row r="151">
       <c r="A151" s="51" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B151" s="52" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="C151" s="57" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="D151" s="57" t="s">
-        <v>67</v>
+        <v>610</v>
       </c>
       <c r="E151" s="36" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F151" s="36"/>
       <c r="G151" s="35" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="H151" s="35" t="s">
-        <v>616</v>
-      </c>
-      <c r="I151" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
     </row>
     <row r="152">
       <c r="A152" s="51" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B152" s="52" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C152" s="57" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D152" s="57" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E152" s="36" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F152" s="36"/>
-      <c r="G152" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H152" s="35" t="s">
-        <v>619</v>
+      <c r="G152" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H152" s="47" t="s">
+        <v>615</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
@@ -14076,26 +14109,26 @@
     </row>
     <row r="153">
       <c r="A153" s="51" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B153" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C153" s="57" t="s">
-        <v>89</v>
+        <v>129</v>
+      </c>
+      <c r="C153" s="56" t="s">
+        <v>130</v>
       </c>
       <c r="D153" s="57" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="E153" s="36" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F153" s="36"/>
-      <c r="G153" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H153" s="35" t="s">
-        <v>622</v>
+      <c r="G153" s="47" t="s">
+        <v>618</v>
+      </c>
+      <c r="H153" s="47" t="s">
+        <v>619</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
@@ -14103,26 +14136,26 @@
     </row>
     <row r="154">
       <c r="A154" s="51" t="s">
+        <v>620</v>
+      </c>
+      <c r="B154" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C154" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D154" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E154" s="36" t="s">
+        <v>621</v>
+      </c>
+      <c r="F154" s="36"/>
+      <c r="G154" s="47" t="s">
+        <v>622</v>
+      </c>
+      <c r="H154" s="47" t="s">
         <v>623</v>
-      </c>
-      <c r="B154" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C154" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D154" s="57" t="s">
-        <v>589</v>
-      </c>
-      <c r="E154" s="36" t="s">
-        <v>624</v>
-      </c>
-      <c r="F154" s="36"/>
-      <c r="G154" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H154" s="35" t="s">
-        <v>625</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
@@ -14130,26 +14163,26 @@
     </row>
     <row r="155">
       <c r="A155" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="B155" s="52" t="s">
+        <v>625</v>
+      </c>
+      <c r="C155" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D155" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="E155" s="36" t="s">
         <v>626</v>
       </c>
-      <c r="B155" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="C155" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="D155" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="E155" s="36" t="s">
+      <c r="F155" s="36"/>
+      <c r="G155" s="44" t="s">
+        <v>618</v>
+      </c>
+      <c r="H155" s="44" t="s">
         <v>627</v>
-      </c>
-      <c r="F155" s="36"/>
-      <c r="G155" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="H155" s="35" t="s">
-        <v>628</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -14157,53 +14190,51 @@
     </row>
     <row r="156">
       <c r="A156" s="51" t="s">
+        <v>628</v>
+      </c>
+      <c r="B156" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C156" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="D156" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E156" s="56" t="s">
         <v>629</v>
-      </c>
-      <c r="B156" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="C156" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="D156" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E156" s="56" t="s">
-        <v>630</v>
       </c>
       <c r="F156" s="56"/>
       <c r="G156" s="47" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="H156" s="47" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="51" t="s">
+      <c r="A157" s="45" t="s">
         <v>631</v>
       </c>
-      <c r="B157" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C157" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="D157" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E157" s="36" t="s">
+      <c r="B157" s="46" t="s">
         <v>632</v>
       </c>
-      <c r="F157" s="36"/>
-      <c r="G157" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="H157" s="47" t="s">
-        <v>602</v>
+      <c r="C157" s="117" t="s">
+        <v>596</v>
+      </c>
+      <c r="D157" s="118"/>
+      <c r="E157" s="35" t="s">
+        <v>633</v>
+      </c>
+      <c r="F157" s="47"/>
+      <c r="G157" s="36" t="s">
+        <v>634</v>
+      </c>
+      <c r="H157" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
@@ -14211,103 +14242,109 @@
     </row>
     <row r="158">
       <c r="A158" s="51" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B158" s="52" t="s">
-        <v>604</v>
+        <v>65</v>
       </c>
       <c r="C158" s="57" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="D158" s="57" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="E158" s="36" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F158" s="36"/>
-      <c r="G158" s="44" t="s">
-        <v>597</v>
-      </c>
-      <c r="H158" s="44" t="s">
-        <v>635</v>
-      </c>
-      <c r="I158" s="7"/>
+      <c r="G158" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H158" s="35" t="s">
+        <v>637</v>
+      </c>
+      <c r="I158" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
     <row r="159">
       <c r="A159" s="51" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B159" s="52" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="C159" s="57" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D159" s="57" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E159" s="36" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F159" s="36"/>
-      <c r="G159" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="H159" s="47" t="s">
-        <v>609</v>
+      <c r="G159" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H159" s="35" t="s">
+        <v>640</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="45" t="s">
-        <v>638</v>
-      </c>
-      <c r="B160" s="46" t="s">
-        <v>639</v>
+      <c r="A160" s="51" t="s">
+        <v>641</v>
+      </c>
+      <c r="B160" s="52" t="s">
+        <v>88</v>
       </c>
       <c r="C160" s="57" t="s">
-        <v>640</v>
+        <v>89</v>
       </c>
       <c r="D160" s="57" t="s">
-        <v>641</v>
+        <v>90</v>
       </c>
       <c r="E160" s="36" t="s">
         <v>642</v>
       </c>
       <c r="F160" s="36"/>
       <c r="G160" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H160" s="35" t="s">
         <v>643</v>
-      </c>
-      <c r="H160" s="47" t="s">
-        <v>644</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="45" t="s">
+      <c r="A161" s="51" t="s">
+        <v>644</v>
+      </c>
+      <c r="B161" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C161" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D161" s="57" t="s">
+        <v>610</v>
+      </c>
+      <c r="E161" s="36" t="s">
         <v>645</v>
       </c>
-      <c r="B161" s="46" t="s">
+      <c r="F161" s="36"/>
+      <c r="G161" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H161" s="35" t="s">
         <v>646</v>
-      </c>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="35" t="s">
-        <v>647</v>
-      </c>
-      <c r="F161" s="47"/>
-      <c r="G161" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H161" s="36" t="s">
-        <v>61</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
@@ -14315,55 +14352,53 @@
     </row>
     <row r="162">
       <c r="A162" s="51" t="s">
+        <v>647</v>
+      </c>
+      <c r="B162" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C162" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D162" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E162" s="36" t="s">
         <v>648</v>
-      </c>
-      <c r="B162" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C162" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D162" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="E162" s="36" t="s">
-        <v>649</v>
       </c>
       <c r="F162" s="36"/>
       <c r="G162" s="35" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="H162" s="35" t="s">
-        <v>650</v>
-      </c>
-      <c r="I162" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
     <row r="163">
       <c r="A163" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="B163" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C163" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D163" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E163" s="56" t="s">
         <v>651</v>
       </c>
-      <c r="B163" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C163" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="D163" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E163" s="56" t="s">
-        <v>652</v>
-      </c>
       <c r="F163" s="56"/>
-      <c r="G163" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="H163" s="72" t="s">
-        <v>653</v>
+      <c r="G163" s="57" t="s">
+        <v>618</v>
+      </c>
+      <c r="H163" s="57" t="s">
+        <v>619</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
@@ -14371,26 +14406,26 @@
     </row>
     <row r="164">
       <c r="A164" s="51" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B164" s="52" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C164" s="57" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="D164" s="57" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E164" s="36" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F164" s="36"/>
-      <c r="G164" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H164" s="35" t="s">
-        <v>656</v>
+      <c r="G164" s="47" t="s">
+        <v>622</v>
+      </c>
+      <c r="H164" s="47" t="s">
+        <v>623</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
@@ -14398,26 +14433,26 @@
     </row>
     <row r="165">
       <c r="A165" s="51" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B165" s="52" t="s">
-        <v>102</v>
+        <v>625</v>
       </c>
       <c r="C165" s="57" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D165" s="57" t="s">
-        <v>589</v>
+        <v>146</v>
       </c>
       <c r="E165" s="56" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F165" s="56"/>
-      <c r="G165" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="H165" s="72" t="s">
-        <v>659</v>
+      <c r="G165" s="60" t="s">
+        <v>618</v>
+      </c>
+      <c r="H165" s="60" t="s">
+        <v>656</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
@@ -14425,80 +14460,76 @@
     </row>
     <row r="166">
       <c r="A166" s="51" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B166" s="52" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C166" s="47" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D166" s="47" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="E166" s="36" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F166" s="36"/>
       <c r="G166" s="47" t="s">
-        <v>113</v>
+        <v>622</v>
       </c>
       <c r="H166" s="47" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="51" t="s">
+      <c r="A167" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="B167" s="46" t="s">
+        <v>660</v>
+      </c>
+      <c r="C167" s="57" t="s">
+        <v>661</v>
+      </c>
+      <c r="D167" s="57" t="s">
+        <v>662</v>
+      </c>
+      <c r="E167" s="36" t="s">
         <v>663</v>
       </c>
-      <c r="B167" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="C167" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="D167" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E167" s="36" t="s">
+      <c r="F167" s="36"/>
+      <c r="G167" s="35" t="s">
         <v>664</v>
       </c>
-      <c r="F167" s="36"/>
-      <c r="G167" s="47" t="s">
-        <v>597</v>
-      </c>
       <c r="H167" s="47" t="s">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="51" t="s">
-        <v>665</v>
-      </c>
-      <c r="B168" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C168" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="D168" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E168" s="112" t="s">
+      <c r="A168" s="45" t="s">
         <v>666</v>
       </c>
-      <c r="F168" s="112"/>
-      <c r="G168" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="H168" s="47" t="s">
-        <v>602</v>
+      <c r="B168" s="46" t="s">
+        <v>667</v>
+      </c>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="84" t="s">
+        <v>668</v>
+      </c>
+      <c r="F168" s="113"/>
+      <c r="G168" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H168" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
@@ -14506,111 +14537,302 @@
     </row>
     <row r="169">
       <c r="A169" s="51" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B169" s="52" t="s">
-        <v>604</v>
+        <v>65</v>
       </c>
       <c r="C169" s="57" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="D169" s="57" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="E169" s="112" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F169" s="112"/>
-      <c r="G169" s="44" t="s">
-        <v>597</v>
-      </c>
-      <c r="H169" s="44" t="s">
-        <v>669</v>
-      </c>
-      <c r="I169" s="7"/>
+      <c r="G169" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H169" s="35" t="s">
+        <v>671</v>
+      </c>
+      <c r="I169" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
     </row>
     <row r="170">
       <c r="A170" s="51" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B170" s="52" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="C170" s="57" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D170" s="57" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E170" s="112" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F170" s="112"/>
-      <c r="G170" s="57" t="s">
-        <v>601</v>
-      </c>
-      <c r="H170" s="57" t="s">
-        <v>609</v>
+      <c r="G170" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="H170" s="72" t="s">
+        <v>674</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="38" t="s">
-        <v>672</v>
-      </c>
-      <c r="B171" s="39" t="s">
-        <v>673</v>
-      </c>
-      <c r="C171" s="116" t="s">
-        <v>674</v>
-      </c>
-      <c r="D171" s="117" t="s">
+      <c r="A171" s="51" t="s">
         <v>675</v>
       </c>
-      <c r="E171" s="118" t="s">
+      <c r="B171" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C171" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D171" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E171" s="112" t="s">
         <v>676</v>
       </c>
-      <c r="F171" s="118"/>
+      <c r="F171" s="112"/>
       <c r="G171" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H171" s="35" t="s">
         <v>677</v>
-      </c>
-      <c r="H171" s="119" t="s">
-        <v>678</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="51" t="s">
+        <v>678</v>
+      </c>
+      <c r="B172" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C172" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D172" s="47" t="s">
+        <v>610</v>
+      </c>
+      <c r="E172" s="112" t="s">
+        <v>679</v>
+      </c>
+      <c r="F172" s="112"/>
+      <c r="G172" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H172" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="51" t="s">
+        <v>681</v>
+      </c>
+      <c r="B173" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C173" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D173" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E173" s="112" t="s">
+        <v>682</v>
+      </c>
+      <c r="F173" s="112"/>
+      <c r="G173" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H173" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="51" t="s">
+        <v>684</v>
+      </c>
+      <c r="B174" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C174" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D174" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E174" s="112" t="s">
+        <v>685</v>
+      </c>
+      <c r="F174" s="112"/>
+      <c r="G174" s="47" t="s">
+        <v>618</v>
+      </c>
+      <c r="H174" s="47" t="s">
+        <v>619</v>
+      </c>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="51" t="s">
+        <v>686</v>
+      </c>
+      <c r="B175" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C175" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D175" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E175" s="112" t="s">
+        <v>687</v>
+      </c>
+      <c r="F175" s="112"/>
+      <c r="G175" s="47" t="s">
+        <v>622</v>
+      </c>
+      <c r="H175" s="47" t="s">
+        <v>623</v>
+      </c>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="51" t="s">
+        <v>688</v>
+      </c>
+      <c r="B176" s="52" t="s">
+        <v>625</v>
+      </c>
+      <c r="C176" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D176" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E176" s="112" t="s">
+        <v>689</v>
+      </c>
+      <c r="F176" s="112"/>
+      <c r="G176" s="44" t="s">
+        <v>618</v>
+      </c>
+      <c r="H176" s="44" t="s">
+        <v>690</v>
+      </c>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="51" t="s">
+        <v>691</v>
+      </c>
+      <c r="B177" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C177" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="D177" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E177" s="112" t="s">
+        <v>692</v>
+      </c>
+      <c r="F177" s="112"/>
+      <c r="G177" s="47" t="s">
+        <v>622</v>
+      </c>
+      <c r="H177" s="47" t="s">
+        <v>630</v>
+      </c>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="38" t="s">
+        <v>693</v>
+      </c>
+      <c r="B178" s="39" t="s">
+        <v>694</v>
+      </c>
+      <c r="C178" s="119" t="s">
+        <v>695</v>
+      </c>
+      <c r="D178" s="120" t="s">
+        <v>696</v>
+      </c>
+      <c r="E178" s="121" t="s">
+        <v>697</v>
+      </c>
+      <c r="F178" s="121"/>
+      <c r="G178" s="35" t="s">
+        <v>698</v>
+      </c>
+      <c r="H178" s="122" t="s">
+        <v>699</v>
+      </c>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:B171">
+  <conditionalFormatting sqref="A3:B178">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>REGEXMATCH($A3,"^[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B171">
+  <conditionalFormatting sqref="A3:B178">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B171">
+  <conditionalFormatting sqref="A3:B178">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B171">
+  <conditionalFormatting sqref="A3:B178">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B171">
+  <conditionalFormatting sqref="A3:B178">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
@@ -14621,9 +14843,9 @@
     <hyperlink r:id="rId3" ref="H76"/>
     <hyperlink r:id="rId4" ref="H77"/>
     <hyperlink r:id="rId5" ref="H78"/>
-    <hyperlink r:id="rId6" ref="H103"/>
-    <hyperlink r:id="rId7" ref="H104"/>
-    <hyperlink r:id="rId8" ref="H105"/>
+    <hyperlink r:id="rId6" ref="H104"/>
+    <hyperlink r:id="rId7" ref="H105"/>
+    <hyperlink r:id="rId8" ref="H110"/>
   </hyperlinks>
   <drawing r:id="rId9"/>
 </worksheet>
@@ -14647,7 +14869,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="123" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -14683,43 +14905,43 @@
         <v>399</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>679</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>680</v>
+        <v>701</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>681</v>
+        <v>702</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="D3" s="57"/>
       <c r="E3" s="35" t="s">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>684</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>680</v>
+        <v>701</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>681</v>
+        <v>702</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="D4" s="57"/>
       <c r="E4" s="35" t="s">
-        <v>685</v>
+        <v>706</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>686</v>
+        <v>707</v>
       </c>
     </row>
     <row r="5">
@@ -14739,211 +14961,211 @@
         <v>412</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>687</v>
-      </c>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
+        <v>708</v>
+      </c>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="124"/>
+      <c r="Z5" s="124"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>688</v>
+        <v>709</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>689</v>
+        <v>710</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
       <c r="F6" s="35"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="124"/>
+      <c r="U6" s="124"/>
+      <c r="V6" s="124"/>
+      <c r="W6" s="124"/>
+      <c r="X6" s="124"/>
+      <c r="Y6" s="124"/>
+      <c r="Z6" s="124"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>695</v>
+        <v>716</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>700</v>
+        <v>721</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="72" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="F8" s="72" t="s">
-        <v>702</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="82" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="D9" s="82"/>
       <c r="E9" s="82" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>702</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>706</v>
+        <v>727</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>707</v>
-      </c>
-      <c r="C10" s="122" t="s">
-        <v>708</v>
+        <v>728</v>
+      </c>
+      <c r="C10" s="125" t="s">
+        <v>729</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="72" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="F10" s="72" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>716</v>
+        <v>737</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="81" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>721</v>
-      </c>
-      <c r="F12" s="123" t="s">
-        <v>722</v>
+        <v>742</v>
+      </c>
+      <c r="F12" s="126" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="72" t="s">
-        <v>725</v>
-      </c>
-      <c r="F13" s="124" t="s">
-        <v>726</v>
+        <v>746</v>
+      </c>
+      <c r="F13" s="127" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="108" t="s">
-        <v>727</v>
+      <c r="A14" s="113" t="s">
+        <v>748</v>
       </c>
       <c r="B14" s="112"/>
       <c r="C14" s="112"/>
       <c r="D14" s="57" t="s">
-        <v>728</v>
+        <v>749</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>729</v>
-      </c>
-      <c r="F14" s="124" t="s">
-        <v>730</v>
+        <v>750</v>
+      </c>
+      <c r="F14" s="127" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="15">
@@ -18924,108 +19146,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="125" t="s">
-        <v>731</v>
-      </c>
-      <c r="B2" s="126" t="s">
-        <v>732</v>
+      <c r="A2" s="128" t="s">
+        <v>752</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="127" t="s">
-        <v>733</v>
-      </c>
-      <c r="B3" s="126" t="s">
-        <v>734</v>
+      <c r="A3" s="130" t="s">
+        <v>754</v>
+      </c>
+      <c r="B3" s="129" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="128" t="s">
-        <v>735</v>
+      <c r="A4" s="131" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="129" t="s">
-        <v>736</v>
-      </c>
-      <c r="B6" s="126" t="s">
-        <v>737</v>
+      <c r="A6" s="132" t="s">
+        <v>757</v>
+      </c>
+      <c r="B6" s="129" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="126" t="s">
-        <v>738</v>
+      <c r="B7" s="129" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="126"/>
+      <c r="B8" s="129"/>
     </row>
     <row r="9">
-      <c r="B9" s="126"/>
+      <c r="B9" s="129"/>
     </row>
     <row r="10">
-      <c r="A10" s="129" t="s">
-        <v>739</v>
+      <c r="A10" s="132" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="129" t="s">
-        <v>740</v>
-      </c>
-      <c r="B11" s="130" t="s">
-        <v>741</v>
+      <c r="A11" s="132" t="s">
+        <v>761</v>
+      </c>
+      <c r="B11" s="133" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="131" t="s">
-        <v>742</v>
+      <c r="B12" s="134" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="132"/>
-      <c r="B13" s="133" t="s">
-        <v>743</v>
+      <c r="A13" s="135"/>
+      <c r="B13" s="136" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="134" t="s">
-        <v>744</v>
+      <c r="B14" s="137" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="135" t="s">
-        <v>745</v>
+      <c r="B15" s="138" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="136" t="s">
-        <v>746</v>
+      <c r="B16" s="139" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="129"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="129" t="s">
-        <v>747</v>
-      </c>
-      <c r="B18" s="137" t="s">
-        <v>748</v>
+      <c r="A18" s="132" t="s">
+        <v>768</v>
+      </c>
+      <c r="B18" s="140" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="B19" s="138"/>
+        <v>770</v>
+      </c>
+      <c r="B19" s="141"/>
     </row>
     <row r="21">
-      <c r="A21" s="129" t="s">
-        <v>750</v>
-      </c>
-      <c r="B21" s="139" t="s">
-        <v>751</v>
+      <c r="A21" s="132" t="s">
+        <v>771</v>
+      </c>
+      <c r="B21" s="142" t="s">
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -19050,48 +19272,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="129" t="s">
-        <v>752</v>
+      <c r="A1" s="132" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="140" t="s">
-        <v>753</v>
+      <c r="A2" s="143" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="126" t="s">
-        <v>754</v>
+      <c r="A3" s="129" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="140" t="s">
-        <v>755</v>
+      <c r="A4" s="143" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="126" t="s">
-        <v>756</v>
+      <c r="A5" s="129" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="126" t="s">
-        <v>757</v>
+      <c r="A6" s="129" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="126" t="s">
-        <v>758</v>
+      <c r="A7" s="129" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="140" t="s">
-        <v>759</v>
+      <c r="A8" s="143" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="126" t="s">
-        <v>760</v>
+      <c r="A9" s="129" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -19117,48 +19339,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="B1" s="141" t="s">
-        <v>761</v>
+        <v>773</v>
+      </c>
+      <c r="B1" s="144" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="142" t="s">
-        <v>762</v>
+      <c r="A2" s="145" t="s">
+        <v>783</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -19177,7 +19399,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="130"/>
+      <c r="A1" s="133"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -19201,40 +19423,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="143" t="s">
-        <v>770</v>
-      </c>
-      <c r="C1" s="143" t="s">
-        <v>771</v>
-      </c>
-      <c r="E1" s="144" t="s">
+      <c r="A1" s="146" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1" s="146" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1" s="147" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -19244,13 +19466,13 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19260,287 +19482,287 @@
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>781</v>
+        <v>802</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>785</v>
+        <v>806</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>786</v>
+        <v>807</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>787</v>
+        <v>808</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>788</v>
+        <v>809</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>789</v>
+        <v>810</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>790</v>
+        <v>811</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>791</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>792</v>
+        <v>813</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>794</v>
+        <v>815</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>795</v>
+        <v>816</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="145" t="s">
-        <v>796</v>
-      </c>
-      <c r="B9" s="146" t="s">
-        <v>797</v>
-      </c>
-      <c r="C9" s="146" t="s">
-        <v>778</v>
-      </c>
-      <c r="D9" s="146" t="s">
-        <v>798</v>
-      </c>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="146"/>
-      <c r="R9" s="146"/>
-      <c r="S9" s="146"/>
-      <c r="T9" s="146"/>
-      <c r="U9" s="146"/>
-      <c r="V9" s="146"/>
-      <c r="W9" s="146"/>
-      <c r="X9" s="146"/>
-      <c r="Y9" s="146"/>
-      <c r="Z9" s="146"/>
+      <c r="A9" s="148" t="s">
+        <v>817</v>
+      </c>
+      <c r="B9" s="149" t="s">
+        <v>818</v>
+      </c>
+      <c r="C9" s="149" t="s">
+        <v>799</v>
+      </c>
+      <c r="D9" s="149" t="s">
+        <v>819</v>
+      </c>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="149"/>
+      <c r="O9" s="149"/>
+      <c r="P9" s="149"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="149"/>
+      <c r="S9" s="149"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="149"/>
+      <c r="V9" s="149"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="149"/>
+      <c r="Z9" s="149"/>
     </row>
     <row r="10">
-      <c r="A10" s="145" t="s">
+      <c r="A10" s="148" t="s">
+        <v>820</v>
+      </c>
+      <c r="B10" s="149" t="s">
+        <v>818</v>
+      </c>
+      <c r="C10" s="149" t="s">
         <v>799</v>
       </c>
-      <c r="B10" s="146" t="s">
-        <v>797</v>
-      </c>
-      <c r="C10" s="146" t="s">
-        <v>778</v>
-      </c>
-      <c r="D10" s="146" t="s">
-        <v>800</v>
-      </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
+      <c r="D10" s="149" t="s">
+        <v>821</v>
+      </c>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="150"/>
     </row>
     <row r="11">
-      <c r="A11" s="145" t="s">
-        <v>801</v>
-      </c>
-      <c r="B11" s="146" t="s">
+      <c r="A11" s="148" t="s">
+        <v>822</v>
+      </c>
+      <c r="B11" s="149" t="s">
+        <v>823</v>
+      </c>
+      <c r="C11" s="149" t="s">
+        <v>799</v>
+      </c>
+      <c r="D11" s="149" t="s">
+        <v>824</v>
+      </c>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="150"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="150"/>
+      <c r="X11" s="150"/>
+      <c r="Y11" s="150"/>
+      <c r="Z11" s="150"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="148" t="s">
+        <v>825</v>
+      </c>
+      <c r="B12" s="149" t="s">
+        <v>823</v>
+      </c>
+      <c r="C12" s="149" t="s">
+        <v>799</v>
+      </c>
+      <c r="D12" s="149" t="s">
+        <v>826</v>
+      </c>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="150"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="150"/>
+      <c r="V12" s="150"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="150"/>
+      <c r="Z12" s="150"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="148" t="s">
+        <v>827</v>
+      </c>
+      <c r="B13" s="148" t="s">
         <v>802</v>
       </c>
-      <c r="C11" s="146" t="s">
-        <v>778</v>
-      </c>
-      <c r="D11" s="146" t="s">
-        <v>803</v>
-      </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="147"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="145" t="s">
-        <v>804</v>
-      </c>
-      <c r="B12" s="146" t="s">
+      <c r="C13" s="149" t="s">
+        <v>799</v>
+      </c>
+      <c r="D13" s="149" t="s">
+        <v>828</v>
+      </c>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="150"/>
+      <c r="V13" s="150"/>
+      <c r="W13" s="150"/>
+      <c r="X13" s="150"/>
+      <c r="Y13" s="150"/>
+      <c r="Z13" s="150"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="148" t="s">
+        <v>829</v>
+      </c>
+      <c r="B14" s="148" t="s">
         <v>802</v>
       </c>
-      <c r="C12" s="146" t="s">
-        <v>778</v>
-      </c>
-      <c r="D12" s="146" t="s">
-        <v>805</v>
-      </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="145" t="s">
-        <v>806</v>
-      </c>
-      <c r="B13" s="145" t="s">
-        <v>781</v>
-      </c>
-      <c r="C13" s="146" t="s">
-        <v>778</v>
-      </c>
-      <c r="D13" s="146" t="s">
-        <v>807</v>
-      </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="147"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="145" t="s">
-        <v>808</v>
-      </c>
-      <c r="B14" s="145" t="s">
-        <v>781</v>
-      </c>
-      <c r="C14" s="146" t="s">
-        <v>778</v>
-      </c>
-      <c r="D14" s="146" t="s">
-        <v>809</v>
-      </c>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="147"/>
-      <c r="W14" s="147"/>
-      <c r="X14" s="147"/>
-      <c r="Y14" s="147"/>
-      <c r="Z14" s="147"/>
+      <c r="C14" s="149" t="s">
+        <v>799</v>
+      </c>
+      <c r="D14" s="149" t="s">
+        <v>830</v>
+      </c>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="150"/>
+      <c r="U14" s="150"/>
+      <c r="V14" s="150"/>
+      <c r="W14" s="150"/>
+      <c r="X14" s="150"/>
+      <c r="Y14" s="150"/>
+      <c r="Z14" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19568,52 +19790,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="148" t="s">
-        <v>770</v>
+      <c r="A1" s="151" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="129" t="s">
-        <v>772</v>
-      </c>
-      <c r="B2" s="129" t="s">
-        <v>773</v>
-      </c>
-      <c r="C2" s="129" t="s">
-        <v>774</v>
-      </c>
-      <c r="D2" s="129" t="s">
-        <v>775</v>
+      <c r="A2" s="132" t="s">
+        <v>793</v>
+      </c>
+      <c r="B2" s="132" t="s">
+        <v>794</v>
+      </c>
+      <c r="C2" s="132" t="s">
+        <v>795</v>
+      </c>
+      <c r="D2" s="132" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="126" t="s">
-        <v>810</v>
-      </c>
-      <c r="B3" s="126" t="s">
-        <v>811</v>
+      <c r="A3" s="129" t="s">
+        <v>831</v>
+      </c>
+      <c r="B3" s="129" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="126" t="s">
-        <v>812</v>
-      </c>
-      <c r="B4" s="126" t="s">
-        <v>813</v>
+      <c r="A4" s="129" t="s">
+        <v>833</v>
+      </c>
+      <c r="B4" s="129" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="126" t="s">
-        <v>814</v>
-      </c>
-      <c r="B5" s="126" t="s">
-        <v>815</v>
-      </c>
-      <c r="C5" s="149" t="s">
-        <v>813</v>
-      </c>
-      <c r="D5" s="126" t="s">
-        <v>816</v>
+      <c r="A5" s="129" t="s">
+        <v>835</v>
+      </c>
+      <c r="B5" s="129" t="s">
+        <v>836</v>
+      </c>
+      <c r="C5" s="152" t="s">
+        <v>834</v>
+      </c>
+      <c r="D5" s="129" t="s">
+        <v>837</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F12/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F12/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.1-TDAbeta.1</t>
+    <t>2.1.2-alpha.1</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F12/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F12/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="847">
   <si>
     <t>Field</t>
   </si>
@@ -670,9 +670,6 @@
     <t>BT-502</t>
   </si>
   <si>
-    <t>Organisation Contact Point</t>
-  </si>
-  <si>
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/CONTACT_POINT</t>
   </si>
   <si>
@@ -1300,6 +1297,9 @@
     </r>
   </si>
   <si>
+    <t>Organisation Contact Point</t>
+  </si>
+  <si>
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/CONTACT_POINT</t>
   </si>
   <si>
@@ -3135,12 +3135,6 @@
     <t>OBJECT_CONTRACT</t>
   </si>
   <si>
-    <t>epo:Notice / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:refersToLot ?value .</t>
-  </si>
-  <si>
     <t>II.2.2</t>
   </si>
   <si>
@@ -3371,36 +3365,19 @@
     <t>?this epo:specifiesSelectionCriterion / ccev:description ?value .</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:ParticipationConditionsSummary / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesProcurementCriteriaSummary / epo:describesObjectiveParticipationRules ?value .</t>
+  </si>
+  <si>
+    <t>Should not be mapped to EPO 3.1.0, as the information is provided for Procedure in Standard forms. Only in eForms it is provided per lot
+Check EPO 4.0.0 class and instance diagrams for mappings.</t>
+  </si>
+  <si>
     <t>BT-751</t>
   </si>
   <si>
-    <t xml:space="preserve">epo:Lot / epo:SelectionCriterion / at-voc:selection-criterion </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>http://publications.europa.eu/resource/authority/selection-criterion/other</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>&gt; .</t>
-    </r>
-  </si>
-  <si>
     <t>III.2.1</t>
   </si>
   <si>
@@ -3417,6 +3394,12 @@
   </si>
   <si>
     <t>LEFTI/PARTICULAR_PROFESSION</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:ProfessionalSuitabilitySummary / xsd:boolean</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesProcurementCriteriaSummary / epo:hasServiceReservedToParticularProfession true .</t>
   </si>
   <si>
     <t>Not mappable properly to EPO v3.1.0.
@@ -3435,6 +3418,12 @@
     <t>Performing Staff Qualification</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:ProfessionalSuitabilitySummary / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesProcurementCriteriaSummary / epo:describesProfession ?value</t>
+  </si>
+  <si>
     <t>Section IV</t>
   </si>
   <si>
@@ -3566,6 +3555,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t xml:space="preserve">We likely need a dedicated property for this, in EPO 4.0.0
+</t>
+  </si>
+  <si>
     <t>IV.1.2.2.2</t>
   </si>
   <si>
@@ -3609,6 +3602,9 @@
   </si>
   <si>
     <t>PROCEDURE/PARTICIPANT_NAME</t>
+  </si>
+  <si>
+    <t>Should we use the epo:SelectedCandidateList for the Design Contests as well (in EPO 4.0.0)?</t>
   </si>
   <si>
     <t>IV.1.9</t>
@@ -3719,6 +3715,10 @@
     <t>IV.2.3</t>
   </si>
   <si>
+    <t>PROCEDURE/DATE_RECEIPT_TENDERS
+PROCEDURE/TIME_RECEIPT_TENDERS</t>
+  </si>
+  <si>
     <t>if(../NOTICE/@TYPE='PRI_CALL_COMPETITION' or ../NOTICE/@TYPE='PER_CALL_COMPETITION')</t>
   </si>
   <si>
@@ -3890,6 +3890,10 @@
     <t>PROCEDURE/NUMBER_VALUE_PRIZE</t>
   </si>
   <si>
+    <t>In XML we have a text (potentially with multiple paragraphs), describing the prizes, including their rank and value.
+Proposal: add dct:description on epo:Prize in (EPO 4.0.0)</t>
+  </si>
+  <si>
     <t>IV.3.2</t>
   </si>
   <si>
@@ -3989,6 +3993,9 @@
     <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasJuryDecisionBinding true .</t>
   </si>
   <si>
+    <t>in EPO 4.0.0 is changed to epo:isJuryDecisionBinding</t>
+  </si>
+  <si>
     <t>IV.3.4.1.2</t>
   </si>
   <si>
@@ -4014,6 +4021,10 @@
   </si>
   <si>
     <t>PROCEDURE/MEMBER_NAME</t>
+  </si>
+  <si>
+    <t>Should be mapped to JuryMemeber, which is playedBy Personin EPO 4.0.0
+The link of the JuryMember to the rest of notice, should be worked out properly in the future.</t>
   </si>
   <si>
     <t>Section VI</t>
@@ -5537,7 +5548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -5632,11 +5643,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color rgb="FF231F20"/>
       <name val="Arial"/>
     </font>
@@ -5684,7 +5690,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5759,8 +5765,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -5850,7 +5868,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5923,11 +5941,11 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -5937,6 +5955,9 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -5957,6 +5978,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -6059,9 +6083,6 @@
     <xf borderId="0" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -6070,6 +6091,9 @@
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6140,17 +6164,20 @@
     <xf borderId="0" fillId="13" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="14" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6158,8 +6185,8 @@
     <xf borderId="0" fillId="9" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="14" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6170,13 +6197,16 @@
     <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -6206,7 +6236,7 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="21" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6215,29 +6245,32 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6261,13 +6294,13 @@
     <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6279,23 +6312,23 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -9748,25 +9781,25 @@
       <c r="D2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="31" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="33" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="28"/>
@@ -9786,27 +9819,27 @@
       <c r="Z2" s="28"/>
     </row>
     <row r="3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="36" t="s">
         <v>49</v>
       </c>
       <c r="L3" s="28"/>
@@ -9818,25 +9851,25 @@
       <c r="R3" s="28"/>
     </row>
     <row r="4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="7" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="39" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="28"/>
@@ -9848,20 +9881,20 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="7"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -9872,20 +9905,20 @@
       <c r="R5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
       <c r="K6" s="7"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -9896,26 +9929,26 @@
       <c r="R6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="36"/>
+      <c r="G7" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
       <c r="K7" s="7"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -9926,26 +9959,26 @@
       <c r="R7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="7"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -9956,32 +9989,32 @@
       <c r="R8" s="28"/>
     </row>
     <row r="9">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43" t="s">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="7"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -9992,32 +10025,32 @@
       <c r="R9" s="28"/>
     </row>
     <row r="10">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="36"/>
       <c r="K10" s="7"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
@@ -10028,10 +10061,10 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -10040,18 +10073,18 @@
       <c r="D11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="36"/>
+      <c r="G11" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
       <c r="K11" s="7"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
@@ -10062,10 +10095,10 @@
       <c r="R11" s="28"/>
     </row>
     <row r="12">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="48" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -10074,18 +10107,18 @@
       <c r="D12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="7"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
@@ -10096,32 +10129,32 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="7"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -10132,10 +10165,10 @@
       <c r="R13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="48" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -10144,18 +10177,18 @@
       <c r="D14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="36"/>
+      <c r="G14" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="7"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -10166,30 +10199,30 @@
       <c r="R14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="45"/>
+      <c r="G15" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="7"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
@@ -10200,32 +10233,32 @@
       <c r="R15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="36" t="s">
+      <c r="H16" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="7"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -10236,30 +10269,30 @@
       <c r="R16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="C17" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="7"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
@@ -10270,30 +10303,30 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="C18" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="36"/>
+      <c r="G18" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="36" t="s">
+      <c r="H18" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="7"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
@@ -10304,30 +10337,30 @@
       <c r="R18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="C19" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="36"/>
+      <c r="G19" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
       <c r="K19" s="7"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
@@ -10338,20 +10371,20 @@
       <c r="R19" s="28"/>
     </row>
     <row r="20">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>141</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>142</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
       <c r="K20" s="7"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -10362,30 +10395,30 @@
       <c r="R20" s="28"/>
     </row>
     <row r="21">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="C21" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="D21" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="E21" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="F21" s="45"/>
+      <c r="G21" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
       <c r="K21" s="7"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
@@ -10396,30 +10429,30 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="C22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="36"/>
+      <c r="G22" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
       <c r="K22" s="7"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -10430,103 +10463,103 @@
       <c r="R22" s="28"/>
     </row>
     <row r="23">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
     </row>
     <row r="24">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="43" t="s">
+      <c r="F25" s="45"/>
+      <c r="G25" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="55"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
@@ -10536,33 +10569,33 @@
       <c r="R25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="55"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="57"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
@@ -10572,10 +10605,10 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -10584,18 +10617,18 @@
       <c r="D27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
       <c r="K27" s="7"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
@@ -10606,10 +10639,10 @@
       <c r="R27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="48" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -10618,18 +10651,18 @@
       <c r="D28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
       <c r="K28" s="7"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
@@ -10640,54 +10673,54 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
     <row r="30">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="48" t="s">
         <v>102</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -10696,18 +10729,18 @@
       <c r="D30" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
       <c r="K30" s="7"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
@@ -10718,31 +10751,31 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="H31" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="55"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="57"/>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
@@ -10752,32 +10785,32 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="47" t="s">
+      <c r="F32" s="36"/>
+      <c r="G32" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="36"/>
       <c r="K32" s="7"/>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
@@ -10788,30 +10821,30 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="C33" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="H33" s="48" t="s">
+      <c r="F33" s="36"/>
+      <c r="G33" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
       <c r="K33" s="7"/>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -10822,30 +10855,30 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="C34" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="H34" s="47" t="s">
+      <c r="F34" s="36"/>
+      <c r="G34" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
       <c r="K34" s="7"/>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
@@ -10856,62 +10889,62 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="C35" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="H35" s="57" t="s">
+      <c r="F35" s="36"/>
+      <c r="G35" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
     </row>
     <row r="36">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="48" t="s">
         <v>141</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>142</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
       <c r="K36" s="7"/>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
@@ -10922,31 +10955,31 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="C37" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="D37" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="H37" s="60" t="s">
+      <c r="F37" s="61"/>
+      <c r="G37" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="55"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="57"/>
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
@@ -10956,29 +10989,29 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="C38" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H38" s="47" t="s">
+      <c r="F38" s="36"/>
+      <c r="G38" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="I38" s="7"/>
+      <c r="I38" s="39"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="28"/>
@@ -10990,10 +11023,10 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="41" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="4"/>
@@ -11002,7 +11035,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="7"/>
+      <c r="I39" s="39"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="28"/>
@@ -11014,67 +11047,67 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="40" t="s">
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="36" t="s">
+      <c r="F40" s="45"/>
+      <c r="G40" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="H40" s="47" t="s">
+      <c r="H40" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="I40" s="7"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
     </row>
     <row r="41">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36" t="s">
+      <c r="F41" s="37"/>
+      <c r="G41" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="H41" s="47" t="s">
+      <c r="H41" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="39" t="s">
         <v>198</v>
       </c>
       <c r="J41" s="7"/>
@@ -11088,25 +11121,25 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44" t="s">
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="4" t="s">
+      <c r="F42" s="45"/>
+      <c r="G42" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="H42" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="I42" s="7"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="28"/>
@@ -11118,24 +11151,24 @@
       <c r="R42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="41" t="s">
         <v>205</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="61" t="s">
+      <c r="E43" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="G43" s="61" t="s">
+      <c r="G43" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="H43" s="61" t="s">
+      <c r="H43" s="63" t="s">
         <v>209</v>
       </c>
       <c r="I43" s="7"/>
@@ -11150,24 +11183,24 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47" t="s">
+      <c r="D44" s="49"/>
+      <c r="E44" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47" t="s">
+      <c r="F44" s="49"/>
+      <c r="G44" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="H44" s="47" t="s">
+      <c r="H44" s="49" t="s">
         <v>215</v>
       </c>
       <c r="I44" s="7"/>
@@ -11182,26 +11215,26 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47" t="s">
+      <c r="D45" s="49"/>
+      <c r="E45" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="47" t="s">
+      <c r="F45" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="G45" s="47" t="s">
+      <c r="G45" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="H45" s="47" t="s">
+      <c r="H45" s="49" t="s">
         <v>222</v>
       </c>
       <c r="I45" s="7"/>
@@ -11216,24 +11249,24 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57" t="s">
+      <c r="D46" s="59"/>
+      <c r="E46" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57" t="s">
+      <c r="F46" s="59"/>
+      <c r="G46" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="H46" s="63" t="s">
+      <c r="H46" s="65" t="s">
         <v>226</v>
       </c>
       <c r="I46" s="7"/>
@@ -11248,26 +11281,26 @@
       <c r="R46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="40" t="s">
+      <c r="D47" s="49"/>
+      <c r="E47" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="G47" s="47" t="s">
+      <c r="G47" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="H47" s="47" t="s">
+      <c r="H47" s="49" t="s">
         <v>231</v>
       </c>
       <c r="I47" s="4"/>
@@ -11282,16 +11315,16 @@
       <c r="R47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -11306,10 +11339,10 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="54" t="s">
         <v>235</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -11320,50 +11353,50 @@
         <v>237</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="61" t="s">
+      <c r="G49" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="H49" s="61" t="s">
+      <c r="H49" s="63" t="s">
         <v>61</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="54"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="54"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="54"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
     </row>
     <row r="50">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67" t="s">
+      <c r="D50" s="68"/>
+      <c r="E50" s="69" t="s">
         <v>237</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="61" t="s">
+      <c r="G50" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="H50" s="61" t="s">
+      <c r="H50" s="63" t="s">
         <v>239</v>
       </c>
       <c r="I50" s="7"/>
@@ -11378,10 +11411,10 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="54" t="s">
         <v>241</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -11392,15 +11425,15 @@
         <v>242</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="68" t="s">
+      <c r="G51" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="68" t="s">
+      <c r="H51" s="70" t="s">
         <v>61</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="55"/>
+      <c r="K51" s="57"/>
       <c r="L51" s="28"/>
       <c r="M51" s="28"/>
       <c r="N51" s="28"/>
@@ -11410,10 +11443,10 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="B52" s="70" t="s">
+      <c r="B52" s="72" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -11426,13 +11459,13 @@
         <v>244</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="68" t="s">
+      <c r="G52" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="71" t="s">
+      <c r="H52" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="I52" s="72" t="s">
+      <c r="I52" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J52" s="7"/>
@@ -11446,29 +11479,29 @@
       <c r="R52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="71" t="s">
         <v>246</v>
       </c>
-      <c r="B53" s="70" t="s">
+      <c r="B53" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="57" t="s">
+      <c r="D53" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="47" t="s">
+      <c r="E53" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="F53" s="47"/>
-      <c r="G53" s="68" t="s">
+      <c r="F53" s="49"/>
+      <c r="G53" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="H53" s="71" t="s">
+      <c r="H53" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="I53" s="72" t="s">
+      <c r="I53" s="39" t="s">
         <v>79</v>
       </c>
       <c r="J53" s="7"/>
@@ -11482,10 +11515,10 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="69" t="s">
+      <c r="A54" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="B54" s="70" t="s">
+      <c r="B54" s="72" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -11498,10 +11531,10 @@
         <v>250</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="73" t="s">
+      <c r="G54" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="74" t="s">
+      <c r="H54" s="75" t="s">
         <v>251</v>
       </c>
       <c r="I54" s="7"/>
@@ -11516,10 +11549,10 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="69" t="s">
+      <c r="A55" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="72" t="s">
         <v>88</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -11532,10 +11565,10 @@
         <v>253</v>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="73" t="s">
+      <c r="G55" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="H55" s="74" t="s">
+      <c r="H55" s="75" t="s">
         <v>254</v>
       </c>
       <c r="I55" s="7"/>
@@ -11550,28 +11583,28 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="69" t="s">
+      <c r="A56" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="B56" s="70" t="s">
+      <c r="B56" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="F56" s="35" t="s">
+      <c r="F56" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="G56" s="68" t="s">
+      <c r="G56" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="71" t="s">
+      <c r="H56" s="73" t="s">
         <v>258</v>
       </c>
       <c r="I56" s="7"/>
@@ -11586,10 +11619,10 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="72" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -11602,10 +11635,10 @@
         <v>260</v>
       </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="68" t="s">
+      <c r="G57" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="H57" s="71" t="s">
+      <c r="H57" s="73" t="s">
         <v>261</v>
       </c>
       <c r="I57" s="7"/>
@@ -11620,10 +11653,10 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="69" t="s">
+      <c r="A58" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="B58" s="70" t="s">
+      <c r="B58" s="72" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -11636,10 +11669,10 @@
         <v>263</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="68" t="s">
+      <c r="G58" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="H58" s="71" t="s">
+      <c r="H58" s="73" t="s">
         <v>264</v>
       </c>
       <c r="I58" s="7"/>
@@ -11654,29 +11687,29 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="69" t="s">
+      <c r="A59" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="B59" s="70" t="s">
+      <c r="B59" s="72" t="s">
         <v>116</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>266</v>
       </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="H59" s="71" t="s">
+      <c r="G59" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="I59" s="72" t="s">
+      <c r="I59" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J59" s="7"/>
@@ -11690,26 +11723,26 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="69" t="s">
+      <c r="A60" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>269</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="H60" s="71" t="s">
+      <c r="G60" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="H60" s="73" t="s">
         <v>270</v>
       </c>
       <c r="I60" s="7"/>
@@ -11724,26 +11757,26 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="69" t="s">
+      <c r="A61" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>272</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="H61" s="71" t="s">
+      <c r="G61" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61" s="73" t="s">
         <v>273</v>
       </c>
       <c r="I61" s="7"/>
@@ -11758,26 +11791,26 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="B62" s="70" t="s">
+      <c r="B62" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>275</v>
       </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="H62" s="71" t="s">
+      <c r="G62" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" s="73" t="s">
         <v>276</v>
       </c>
       <c r="I62" s="7"/>
@@ -11792,11 +11825,11 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="69" t="s">
+      <c r="A63" s="71" t="s">
         <v>277</v>
       </c>
-      <c r="B63" s="70" t="s">
-        <v>142</v>
+      <c r="B63" s="72" t="s">
+        <v>141</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -11816,31 +11849,31 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="D64" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E64" s="43" t="s">
+      <c r="E64" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="F64" s="43"/>
-      <c r="G64" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="H64" s="76" t="s">
+      <c r="F64" s="77"/>
+      <c r="G64" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="H64" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
       <c r="N64" s="28"/>
@@ -11850,10 +11883,10 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="48" t="s">
         <v>282</v>
       </c>
       <c r="C65" s="4"/>
@@ -11874,24 +11907,24 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="54" t="s">
         <v>284</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>285</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="61" t="s">
+      <c r="E66" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="F66" s="77"/>
-      <c r="G66" s="61" t="s">
+      <c r="F66" s="79"/>
+      <c r="G66" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="H66" s="61" t="s">
+      <c r="H66" s="63" t="s">
         <v>288</v>
       </c>
       <c r="I66" s="7"/>
@@ -11906,24 +11939,24 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="51" t="s">
+      <c r="A67" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="B67" s="52" t="s">
+      <c r="B67" s="54" t="s">
         <v>290</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="61" t="s">
+      <c r="E67" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="F67" s="77"/>
-      <c r="G67" s="61" t="s">
+      <c r="F67" s="79"/>
+      <c r="G67" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="H67" s="61" t="s">
+      <c r="H67" s="63" t="s">
         <v>61</v>
       </c>
       <c r="I67" s="7"/>
@@ -11938,27 +11971,27 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="78" t="s">
+      <c r="A68" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="B68" s="79" t="s">
+      <c r="B68" s="81" t="s">
         <v>290</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="80" t="s">
+      <c r="E68" s="82" t="s">
         <v>292</v>
       </c>
-      <c r="F68" s="81"/>
-      <c r="G68" s="82" t="s">
+      <c r="F68" s="83"/>
+      <c r="G68" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="H68" s="82" t="s">
+      <c r="H68" s="84" t="s">
         <v>239</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="72" t="s">
+      <c r="K68" s="39" t="s">
         <v>293</v>
       </c>
       <c r="L68" s="28"/>
@@ -11970,24 +12003,24 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="54" t="s">
         <v>295</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D69" s="4"/>
-      <c r="E69" s="61" t="s">
+      <c r="E69" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="F69" s="77"/>
-      <c r="G69" s="61" t="s">
+      <c r="F69" s="79"/>
+      <c r="G69" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="H69" s="61" t="s">
+      <c r="H69" s="63" t="s">
         <v>61</v>
       </c>
       <c r="I69" s="7"/>
@@ -12002,29 +12035,29 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="69" t="s">
+      <c r="A70" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="B70" s="70" t="s">
+      <c r="B70" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="E70" s="61" t="s">
+      <c r="E70" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="F70" s="77"/>
-      <c r="G70" s="61" t="s">
+      <c r="F70" s="79"/>
+      <c r="G70" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="H70" s="61" t="s">
+      <c r="H70" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="I70" s="72" t="s">
+      <c r="I70" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J70" s="7"/>
@@ -12038,29 +12071,29 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="69" t="s">
+      <c r="A71" s="71" t="s">
         <v>300</v>
       </c>
-      <c r="B71" s="70" t="s">
+      <c r="B71" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="61" t="s">
+      <c r="E71" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="F71" s="77"/>
-      <c r="G71" s="61" t="s">
+      <c r="F71" s="79"/>
+      <c r="G71" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="H71" s="61" t="s">
+      <c r="H71" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="I71" s="72" t="s">
+      <c r="I71" s="39" t="s">
         <v>79</v>
       </c>
       <c r="J71" s="7"/>
@@ -12074,26 +12107,26 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="69" t="s">
+      <c r="A72" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="72" t="s">
+      <c r="C72" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="72" t="s">
+      <c r="D72" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="61" t="s">
+      <c r="E72" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="F72" s="81"/>
-      <c r="G72" s="61" t="s">
+      <c r="F72" s="83"/>
+      <c r="G72" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H72" s="61" t="s">
+      <c r="H72" s="63" t="s">
         <v>305</v>
       </c>
       <c r="I72" s="7"/>
@@ -12108,26 +12141,26 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="69" t="s">
+      <c r="A73" s="71" t="s">
         <v>306</v>
       </c>
-      <c r="B73" s="70" t="s">
+      <c r="B73" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E73" s="61" t="s">
+      <c r="E73" s="63" t="s">
         <v>307</v>
       </c>
-      <c r="F73" s="81"/>
-      <c r="G73" s="61" t="s">
+      <c r="F73" s="83"/>
+      <c r="G73" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H73" s="83" t="s">
+      <c r="H73" s="85" t="s">
         <v>308</v>
       </c>
       <c r="I73" s="7"/>
@@ -12142,28 +12175,28 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="69" t="s">
+      <c r="A74" s="71" t="s">
         <v>309</v>
       </c>
-      <c r="B74" s="70" t="s">
+      <c r="B74" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="61" t="s">
+      <c r="E74" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="F74" s="61" t="s">
+      <c r="F74" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="G74" s="61" t="s">
+      <c r="G74" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="H74" s="83" t="s">
+      <c r="H74" s="85" t="s">
         <v>312</v>
       </c>
       <c r="I74" s="7"/>
@@ -12178,26 +12211,26 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="69" t="s">
+      <c r="A75" s="71" t="s">
         <v>313</v>
       </c>
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="61" t="s">
+      <c r="E75" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="F75" s="77"/>
-      <c r="G75" s="61" t="s">
+      <c r="F75" s="79"/>
+      <c r="G75" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="H75" s="61" t="s">
+      <c r="H75" s="63" t="s">
         <v>315</v>
       </c>
       <c r="I75" s="7"/>
@@ -12212,26 +12245,26 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="71" t="s">
         <v>316</v>
       </c>
-      <c r="B76" s="70" t="s">
+      <c r="B76" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="E76" s="61" t="s">
+      <c r="E76" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="F76" s="77"/>
-      <c r="G76" s="61" t="s">
+      <c r="F76" s="79"/>
+      <c r="G76" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="H76" s="83" t="s">
+      <c r="H76" s="85" t="s">
         <v>318</v>
       </c>
       <c r="I76" s="7"/>
@@ -12246,29 +12279,29 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="69" t="s">
+      <c r="A77" s="71" t="s">
         <v>319</v>
       </c>
-      <c r="B77" s="70" t="s">
+      <c r="B77" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E77" s="61" t="s">
+      <c r="D77" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E77" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="F77" s="81"/>
-      <c r="G77" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="H77" s="83" t="s">
+      <c r="F77" s="83"/>
+      <c r="G77" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H77" s="85" t="s">
         <v>321</v>
       </c>
-      <c r="I77" s="72" t="s">
+      <c r="I77" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J77" s="7"/>
@@ -12282,26 +12315,26 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="69" t="s">
+      <c r="A78" s="71" t="s">
         <v>322</v>
       </c>
-      <c r="B78" s="70" t="s">
+      <c r="B78" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="D78" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D78" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="E78" s="61" t="s">
+      <c r="E78" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="F78" s="77"/>
-      <c r="G78" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="H78" s="83" t="s">
+      <c r="F78" s="79"/>
+      <c r="G78" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H78" s="85" t="s">
         <v>324</v>
       </c>
       <c r="I78" s="7"/>
@@ -12316,26 +12349,26 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="69" t="s">
+      <c r="A79" s="71" t="s">
         <v>325</v>
       </c>
-      <c r="B79" s="70" t="s">
+      <c r="B79" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="D79" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D79" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" s="61" t="s">
+      <c r="E79" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="F79" s="77"/>
-      <c r="G79" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="H79" s="61" t="s">
+      <c r="F79" s="79"/>
+      <c r="G79" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="H79" s="63" t="s">
         <v>327</v>
       </c>
       <c r="I79" s="7"/>
@@ -12350,26 +12383,26 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="69" t="s">
+      <c r="A80" s="71" t="s">
         <v>328</v>
       </c>
-      <c r="B80" s="70" t="s">
+      <c r="B80" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="D80" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D80" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E80" s="61" t="s">
+      <c r="E80" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="F80" s="77"/>
-      <c r="G80" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="H80" s="61" t="s">
+      <c r="F80" s="79"/>
+      <c r="G80" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H80" s="63" t="s">
         <v>330</v>
       </c>
       <c r="I80" s="7"/>
@@ -12384,18 +12417,18 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="69" t="s">
+      <c r="A81" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="B81" s="70" t="s">
-        <v>142</v>
+      <c r="B81" s="72" t="s">
+        <v>141</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="81"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="63"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -12408,26 +12441,26 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="84" t="s">
+      <c r="A82" s="86" t="s">
         <v>332</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="D82" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D82" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="E82" s="61" t="s">
+      <c r="E82" s="63" t="s">
         <v>333</v>
       </c>
-      <c r="F82" s="77"/>
-      <c r="G82" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="H82" s="61" t="s">
+      <c r="F82" s="79"/>
+      <c r="G82" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="H82" s="63" t="s">
         <v>334</v>
       </c>
       <c r="I82" s="7"/>
@@ -12442,24 +12475,24 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="45" t="s">
+      <c r="A83" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="C83" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47" t="s">
+      <c r="D83" s="49"/>
+      <c r="E83" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="F83" s="57"/>
-      <c r="G83" s="47" t="s">
+      <c r="F83" s="59"/>
+      <c r="G83" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="H83" s="47" t="s">
+      <c r="H83" s="49" t="s">
         <v>340</v>
       </c>
       <c r="I83" s="7"/>
@@ -12474,24 +12507,24 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="85" t="s">
+      <c r="A84" s="87" t="s">
         <v>335</v>
       </c>
-      <c r="B84" s="86" t="s">
+      <c r="B84" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="C84" s="87" t="s">
+      <c r="C84" s="89" t="s">
         <v>337</v>
       </c>
-      <c r="D84" s="87"/>
-      <c r="E84" s="88" t="s">
+      <c r="D84" s="89"/>
+      <c r="E84" s="90" t="s">
         <v>338</v>
       </c>
-      <c r="F84" s="87"/>
-      <c r="G84" s="87" t="s">
+      <c r="F84" s="37"/>
+      <c r="G84" s="89" t="s">
         <v>341</v>
       </c>
-      <c r="H84" s="87" t="s">
+      <c r="H84" s="89" t="s">
         <v>342</v>
       </c>
       <c r="I84" s="7"/>
@@ -12506,10 +12539,10 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="41" t="s">
         <v>344</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -12518,19 +12551,19 @@
       <c r="D85" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="E85" s="40" t="s">
+      <c r="E85" s="42" t="s">
         <v>347</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H85" s="35" t="s">
+      <c r="H85" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7" t="s">
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39" t="s">
         <v>350</v>
       </c>
       <c r="L85" s="28"/>
@@ -12542,20 +12575,20 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="B86" s="46"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4" t="s">
+      <c r="F86" s="36"/>
+      <c r="G86" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="H86" s="35" t="s">
+      <c r="H86" s="36" t="s">
         <v>354</v>
       </c>
       <c r="I86" s="7"/>
@@ -12570,10 +12603,10 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="38" t="s">
+      <c r="A87" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="41" t="s">
         <v>356</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -12582,37 +12615,37 @@
       <c r="D87" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E87" s="89" t="s">
+      <c r="E87" s="91" t="s">
         <v>359</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H87" s="72" t="s">
+      <c r="H87" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7" t="s">
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="39" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="B88" s="46"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4" t="s">
+      <c r="F88" s="36"/>
+      <c r="G88" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="H88" s="35" t="s">
+      <c r="H88" s="36" t="s">
         <v>364</v>
       </c>
       <c r="I88" s="7"/>
@@ -12620,10 +12653,10 @@
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="38" t="s">
+      <c r="A89" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="41" t="s">
         <v>366</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -12632,46 +12665,46 @@
       <c r="D89" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E89" s="40" t="s">
+      <c r="E89" s="42" t="s">
         <v>367</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="H89" s="35" t="s">
+      <c r="H89" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="45" t="s">
+      <c r="A90" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="B90" s="46"/>
+      <c r="B90" s="48"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="36" t="s">
         <v>370</v>
       </c>
       <c r="F90" s="4"/>
-      <c r="G90" s="4" t="s">
+      <c r="G90" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="H90" s="35" t="s">
+      <c r="H90" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="B91" s="90" t="s">
+      <c r="B91" s="92" t="s">
         <v>373</v>
       </c>
       <c r="C91" s="7"/>
@@ -12685,27 +12718,27 @@
       <c r="K91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="41" t="s">
         <v>375</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="72"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="45" t="s">
+      <c r="A93" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -12714,56 +12747,56 @@
       <c r="D93" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7" t="s">
+      <c r="F93" s="39"/>
+      <c r="G93" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="H93" s="72" t="s">
+      <c r="H93" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="I93" s="7" t="s">
+      <c r="I93" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="39"/>
     </row>
     <row r="94">
-      <c r="A94" s="49" t="s">
+      <c r="A94" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="B94" s="50" t="s">
+      <c r="B94" s="52" t="s">
         <v>382</v>
       </c>
-      <c r="C94" s="44" t="s">
+      <c r="C94" s="46" t="s">
         <v>383</v>
       </c>
-      <c r="D94" s="44" t="s">
+      <c r="D94" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="E94" s="44" t="s">
+      <c r="E94" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44" t="s">
+      <c r="F94" s="46"/>
+      <c r="G94" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="H94" s="44" t="s">
+      <c r="H94" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="I94" s="59" t="s">
+      <c r="I94" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="J94" s="55"/>
+      <c r="J94" s="57"/>
       <c r="K94" s="7"/>
     </row>
     <row r="95">
-      <c r="A95" s="45" t="s">
+      <c r="A95" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="B95" s="46" t="s">
+      <c r="B95" s="48" t="s">
         <v>389</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -12772,14 +12805,14 @@
       <c r="D95" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4" t="s">
+      <c r="F95" s="36"/>
+      <c r="G95" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="H95" s="61" t="s">
+      <c r="H95" s="63" t="s">
         <v>394</v>
       </c>
       <c r="I95" s="7"/>
@@ -12787,10 +12820,10 @@
       <c r="K95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="51" t="s">
+      <c r="A96" s="53" t="s">
         <v>395</v>
       </c>
-      <c r="B96" s="52" t="s">
+      <c r="B96" s="54" t="s">
         <v>396</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -12799,47 +12832,43 @@
       <c r="D96" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="35"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="7" t="s">
+      <c r="K96" s="39" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="38" t="s">
+      <c r="A97" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="B97" s="39" t="s">
+      <c r="B97" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="40" t="s">
+      <c r="E97" s="42" t="s">
         <v>402</v>
       </c>
       <c r="F97" s="4"/>
-      <c r="G97" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="H97" s="35" t="s">
-        <v>404</v>
-      </c>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="B98" s="46" t="s">
-        <v>406</v>
+      <c r="A98" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="B98" s="48" t="s">
+        <v>404</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -12852,10 +12881,10 @@
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="B99" s="52" t="s">
+      <c r="A99" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="B99" s="54" t="s">
         <v>389</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -12864,25 +12893,25 @@
       <c r="D99" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="H99" s="36" t="s">
         <v>408</v>
-      </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="H99" s="35" t="s">
-        <v>410</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="51" t="s">
-        <v>411</v>
-      </c>
-      <c r="B100" s="52" t="s">
+      <c r="A100" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="B100" s="54" t="s">
         <v>396</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -12891,53 +12920,53 @@
       <c r="D100" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="35"/>
+      <c r="E100" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
-      <c r="K100" s="7" t="s">
+      <c r="K100" s="39" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="45" t="s">
+      <c r="A101" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="B101" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="C101" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="B101" s="46" t="s">
+      <c r="D101" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="F101" s="36"/>
+      <c r="G101" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="D101" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="4" t="s">
+      <c r="H101" s="93" t="s">
         <v>416</v>
       </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H101" s="91" t="s">
-        <v>418</v>
-      </c>
-      <c r="I101" s="7" t="s">
+      <c r="I101" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
     </row>
     <row r="102">
-      <c r="A102" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="B102" s="46" t="s">
-        <v>420</v>
+      <c r="A102" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="B102" s="48" t="s">
+        <v>418</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -12950,203 +12979,205 @@
       <c r="K102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="51" t="s">
+      <c r="A103" s="53" t="s">
+        <v>419</v>
+      </c>
+      <c r="B103" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="C103" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="B103" s="52" t="s">
+      <c r="D103" s="49" t="s">
         <v>422</v>
       </c>
-      <c r="C103" s="47" t="s">
-        <v>423</v>
-      </c>
-      <c r="D103" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="E103" s="47"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="36"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="69" t="s">
+      <c r="A104" s="71" t="s">
+        <v>423</v>
+      </c>
+      <c r="B104" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="C104" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="D104" s="49" t="s">
+        <v>422</v>
+      </c>
+      <c r="E104" s="37" t="s">
         <v>425</v>
       </c>
-      <c r="B104" s="70" t="s">
+      <c r="F104" s="36"/>
+      <c r="G104" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="C104" s="47" t="s">
-        <v>423</v>
-      </c>
-      <c r="D104" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="E104" s="47" t="s">
+      <c r="H104" s="94" t="s">
         <v>427</v>
-      </c>
-      <c r="F104" s="35"/>
-      <c r="G104" s="47" t="s">
-        <v>428</v>
-      </c>
-      <c r="H104" s="92" t="s">
-        <v>429</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="69" t="s">
+      <c r="A105" s="71" t="s">
+        <v>428</v>
+      </c>
+      <c r="B105" s="72" t="s">
+        <v>429</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E105" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="B105" s="70" t="s">
+      <c r="F105" s="36"/>
+      <c r="G105" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="H105" s="94" t="s">
         <v>431</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E105" s="47" t="s">
-        <v>432</v>
-      </c>
-      <c r="F105" s="35"/>
-      <c r="G105" s="47" t="s">
-        <v>428</v>
-      </c>
-      <c r="H105" s="92" t="s">
-        <v>433</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="51" t="s">
+      <c r="A106" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="B106" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="C106" s="49" t="s">
         <v>434</v>
       </c>
-      <c r="B106" s="52" t="s">
+      <c r="D106" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="C106" s="47" t="s">
+      <c r="E106" s="91" t="s">
+        <v>425</v>
+      </c>
+      <c r="F106" s="58"/>
+      <c r="G106" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="D106" s="57" t="s">
+      <c r="H106" s="95" t="s">
         <v>437</v>
       </c>
-      <c r="E106" s="89" t="s">
-        <v>427</v>
-      </c>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57" t="s">
-        <v>438</v>
-      </c>
-      <c r="H106" s="93" t="s">
-        <v>439</v>
-      </c>
-      <c r="I106" s="7" t="s">
+      <c r="I106" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="B107" s="90" t="s">
-        <v>441</v>
-      </c>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
+      <c r="A107" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="B107" s="92" t="s">
+        <v>439</v>
+      </c>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="49"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="B108" s="39" t="s">
-        <v>443</v>
-      </c>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="47"/>
+      <c r="A108" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="B108" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="49"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="94" t="s">
+      <c r="A109" s="96" t="s">
+        <v>442</v>
+      </c>
+      <c r="B109" s="97" t="s">
+        <v>443</v>
+      </c>
+      <c r="C109" s="98" t="s">
         <v>444</v>
       </c>
-      <c r="B109" s="95" t="s">
+      <c r="D109" s="99" t="s">
         <v>445</v>
       </c>
-      <c r="C109" s="96" t="s">
+      <c r="E109" s="99" t="s">
         <v>446</v>
       </c>
-      <c r="D109" s="97" t="s">
+      <c r="F109" s="7"/>
+      <c r="G109" s="100" t="s">
         <v>447</v>
       </c>
-      <c r="E109" s="97" t="s">
+      <c r="H109" s="100" t="s">
         <v>448</v>
       </c>
-      <c r="F109" s="7"/>
-      <c r="G109" s="98" t="s">
+      <c r="I109" s="101" t="s">
         <v>449</v>
       </c>
-      <c r="H109" s="98" t="s">
+      <c r="J109" s="101" t="s">
         <v>450</v>
       </c>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
+      <c r="K109" s="102" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="94" t="s">
-        <v>444</v>
-      </c>
-      <c r="B110" s="95" t="s">
+      <c r="A110" s="96" t="s">
+        <v>442</v>
+      </c>
+      <c r="B110" s="97" t="s">
+        <v>443</v>
+      </c>
+      <c r="C110" s="98" t="s">
+        <v>452</v>
+      </c>
+      <c r="D110" s="103" t="s">
         <v>445</v>
       </c>
-      <c r="C110" s="96" t="s">
-        <v>451</v>
-      </c>
-      <c r="D110" s="99" t="s">
-        <v>447</v>
-      </c>
-      <c r="E110" s="100" t="s">
-        <v>448</v>
+      <c r="E110" s="104" t="s">
+        <v>446</v>
       </c>
       <c r="F110" s="4"/>
-      <c r="G110" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="H110" s="102" t="s">
+      <c r="G110" s="105"/>
+      <c r="H110" s="105"/>
+      <c r="I110" s="99"/>
+      <c r="J110" s="99"/>
+      <c r="K110" s="102"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="47" t="s">
         <v>453</v>
       </c>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="45" t="s">
+      <c r="B111" s="48" t="s">
         <v>454</v>
-      </c>
-      <c r="B111" s="46" t="s">
-        <v>455</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -13159,75 +13190,85 @@
       <c r="K111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="51" t="s">
+      <c r="A112" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="B112" s="54" t="s">
         <v>456</v>
       </c>
-      <c r="B112" s="52" t="s">
+      <c r="C112" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7" t="s">
+      <c r="I112" s="101" t="s">
+        <v>459</v>
+      </c>
+      <c r="J112" s="101" t="s">
         <v>460</v>
       </c>
+      <c r="K112" s="39" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="103" t="s">
-        <v>461</v>
-      </c>
-      <c r="B113" s="104" t="s">
+      <c r="A113" s="106" t="s">
         <v>462</v>
       </c>
-      <c r="C113" s="101" t="s">
+      <c r="B113" s="107" t="s">
         <v>463</v>
       </c>
-      <c r="D113" s="101" t="s">
+      <c r="C113" s="108" t="s">
         <v>464</v>
       </c>
-      <c r="E113" s="100" t="s">
-        <v>459</v>
+      <c r="D113" s="108" t="s">
+        <v>465</v>
+      </c>
+      <c r="E113" s="104" t="s">
+        <v>458</v>
       </c>
       <c r="F113" s="4"/>
-      <c r="G113" s="101"/>
+      <c r="G113" s="105"/>
       <c r="H113" s="105"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
+      <c r="I113" s="101" t="s">
+        <v>466</v>
+      </c>
+      <c r="J113" s="101" t="s">
+        <v>467</v>
+      </c>
+      <c r="K113" s="102" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="B114" s="90" t="s">
-        <v>466</v>
+      <c r="A114" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="B114" s="92" t="s">
+        <v>469</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="35" t="s">
-        <v>467</v>
+      <c r="E114" s="36" t="s">
+        <v>470</v>
       </c>
       <c r="F114" s="4"/>
-      <c r="G114" s="77"/>
-      <c r="H114" s="77"/>
+      <c r="G114" s="79"/>
+      <c r="H114" s="79"/>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="B115" s="39" t="s">
+      <c r="A115" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="B115" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="4"/>
@@ -13241,203 +13282,211 @@
       <c r="K115" s="7"/>
     </row>
     <row r="116">
-      <c r="A116" s="45" t="s">
-        <v>469</v>
-      </c>
-      <c r="B116" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="C116" s="56"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="57"/>
-      <c r="F116" s="57"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="56"/>
+      <c r="A116" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="B116" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="C116" s="59"/>
+      <c r="D116" s="59"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="58"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
     <row r="117">
-      <c r="A117" s="51" t="s">
-        <v>471</v>
-      </c>
-      <c r="B117" s="52" t="s">
-        <v>472</v>
-      </c>
-      <c r="C117" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="D117" s="36" t="s">
+      <c r="A117" s="53" t="s">
         <v>474</v>
       </c>
-      <c r="E117" s="40" t="s">
+      <c r="B117" s="54" t="s">
         <v>475</v>
       </c>
-      <c r="F117" s="47"/>
-      <c r="G117" s="4" t="s">
+      <c r="C117" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="H117" s="91" t="s">
+      <c r="D117" s="49" t="s">
         <v>477</v>
+      </c>
+      <c r="E117" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="F117" s="37"/>
+      <c r="G117" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="H117" s="93" t="s">
+        <v>480</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="51" t="s">
-        <v>478</v>
-      </c>
-      <c r="B118" s="52" t="s">
+      <c r="A118" s="53" t="s">
+        <v>481</v>
+      </c>
+      <c r="B118" s="54" t="s">
+        <v>482</v>
+      </c>
+      <c r="C118" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="D118" s="59" t="s">
+        <v>477</v>
+      </c>
+      <c r="E118" s="91" t="s">
+        <v>483</v>
+      </c>
+      <c r="F118" s="58"/>
+      <c r="G118" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="C118" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="D118" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="E118" s="89" t="s">
-        <v>480</v>
-      </c>
-      <c r="F118" s="57"/>
-      <c r="G118" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="H118" s="32" t="s">
-        <v>481</v>
+      <c r="H118" s="33" t="s">
+        <v>484</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="106" t="s">
-        <v>482</v>
-      </c>
-      <c r="B119" s="107" t="s">
-        <v>483</v>
-      </c>
-      <c r="C119" s="101" t="s">
-        <v>484</v>
-      </c>
-      <c r="D119" s="101" t="s">
+      <c r="A119" s="109" t="s">
         <v>485</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="B119" s="110" t="s">
         <v>486</v>
       </c>
+      <c r="C119" s="108" t="s">
+        <v>487</v>
+      </c>
+      <c r="D119" s="108" t="s">
+        <v>488</v>
+      </c>
+      <c r="E119" s="103" t="s">
+        <v>489</v>
+      </c>
       <c r="F119" s="4"/>
-      <c r="G119" s="101"/>
+      <c r="G119" s="105"/>
       <c r="H119" s="105"/>
-      <c r="I119" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
+      <c r="I119" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="J119" s="58"/>
+      <c r="K119" s="102" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="106" t="s">
-        <v>488</v>
-      </c>
-      <c r="B120" s="107" t="s">
-        <v>489</v>
-      </c>
-      <c r="C120" s="98" t="s">
+      <c r="A120" s="109" t="s">
+        <v>492</v>
+      </c>
+      <c r="B120" s="110" t="s">
+        <v>493</v>
+      </c>
+      <c r="C120" s="101" t="s">
+        <v>494</v>
+      </c>
+      <c r="D120" s="101" t="s">
+        <v>495</v>
+      </c>
+      <c r="E120" s="103" t="s">
+        <v>496</v>
+      </c>
+      <c r="F120" s="4"/>
+      <c r="G120" s="105"/>
+      <c r="H120" s="105"/>
+      <c r="I120" s="111" t="s">
         <v>490</v>
       </c>
-      <c r="D120" s="98" t="s">
+      <c r="J120" s="58"/>
+      <c r="K120" s="102" t="s">
         <v>491</v>
       </c>
-      <c r="E120" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="F120" s="4"/>
-      <c r="G120" s="101"/>
-      <c r="H120" s="105"/>
-      <c r="I120" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="106" t="s">
-        <v>493</v>
-      </c>
-      <c r="B121" s="107" t="s">
-        <v>494</v>
-      </c>
-      <c r="C121" s="98" t="s">
-        <v>495</v>
-      </c>
-      <c r="D121" s="98" t="s">
-        <v>496</v>
-      </c>
-      <c r="E121" s="4" t="s">
+      <c r="A121" s="109" t="s">
         <v>497</v>
       </c>
+      <c r="B121" s="110" t="s">
+        <v>498</v>
+      </c>
+      <c r="C121" s="101" t="s">
+        <v>499</v>
+      </c>
+      <c r="D121" s="101" t="s">
+        <v>500</v>
+      </c>
+      <c r="E121" s="103" t="s">
+        <v>501</v>
+      </c>
       <c r="F121" s="4"/>
-      <c r="G121" s="101"/>
+      <c r="G121" s="105"/>
       <c r="H121" s="105"/>
-      <c r="I121" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
+      <c r="I121" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="J121" s="58"/>
+      <c r="K121" s="102" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="94" t="s">
-        <v>498</v>
-      </c>
-      <c r="B122" s="95" t="s">
-        <v>499</v>
-      </c>
-      <c r="C122" s="108" t="s">
-        <v>500</v>
-      </c>
-      <c r="D122" s="108" t="s">
-        <v>501</v>
-      </c>
-      <c r="E122" s="96" t="s">
+      <c r="A122" s="96" t="s">
         <v>502</v>
       </c>
-      <c r="F122" s="36"/>
-      <c r="G122" s="101"/>
+      <c r="B122" s="97" t="s">
+        <v>503</v>
+      </c>
+      <c r="C122" s="111" t="s">
+        <v>504</v>
+      </c>
+      <c r="D122" s="111" t="s">
+        <v>505</v>
+      </c>
+      <c r="E122" s="98" t="s">
+        <v>506</v>
+      </c>
+      <c r="F122" s="37"/>
+      <c r="G122" s="105"/>
       <c r="H122" s="105"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
+      <c r="I122" s="58"/>
+      <c r="J122" s="58"/>
+      <c r="K122" s="112" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="45" t="s">
-        <v>503</v>
-      </c>
-      <c r="B123" s="46" t="s">
-        <v>504</v>
-      </c>
-      <c r="C123" s="82" t="s">
-        <v>505</v>
-      </c>
-      <c r="D123" s="81"/>
-      <c r="E123" s="61" t="s">
-        <v>506</v>
-      </c>
-      <c r="F123" s="77"/>
-      <c r="G123" s="77"/>
-      <c r="H123" s="61"/>
+      <c r="A123" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="B123" s="48" t="s">
+        <v>509</v>
+      </c>
+      <c r="C123" s="84" t="s">
+        <v>510</v>
+      </c>
+      <c r="D123" s="83"/>
+      <c r="E123" s="63" t="s">
+        <v>511</v>
+      </c>
+      <c r="F123" s="79"/>
+      <c r="G123" s="79"/>
+      <c r="H123" s="63"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
-      <c r="K123" s="7" t="s">
-        <v>507</v>
+      <c r="K123" s="39" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="B124" s="39" t="s">
-        <v>509</v>
+      <c r="A124" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="B124" s="41" t="s">
+        <v>514</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -13450,442 +13499,450 @@
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="45" t="s">
+      <c r="A125" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="B125" s="48" t="s">
+        <v>516</v>
+      </c>
+      <c r="C125" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="B125" s="46" t="s">
-        <v>511</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>505</v>
-      </c>
       <c r="D125" s="7"/>
-      <c r="E125" s="35" t="s">
-        <v>512</v>
-      </c>
-      <c r="F125" s="35" t="s">
-        <v>513</v>
-      </c>
-      <c r="G125" s="35" t="s">
-        <v>514</v>
-      </c>
-      <c r="H125" s="35" t="s">
-        <v>515</v>
+      <c r="E125" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="F125" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="G125" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="H125" s="36" t="s">
+        <v>520</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
-      <c r="K125" s="72" t="s">
+      <c r="K125" s="39" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="B126" s="48" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="45" t="s">
-        <v>517</v>
-      </c>
-      <c r="B126" s="46" t="s">
-        <v>511</v>
-      </c>
       <c r="C126" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D126" s="7"/>
-      <c r="E126" s="89" t="s">
-        <v>512</v>
-      </c>
-      <c r="F126" s="72" t="s">
-        <v>518</v>
-      </c>
-      <c r="G126" s="72" t="s">
-        <v>514</v>
-      </c>
-      <c r="H126" s="72" t="s">
+      <c r="E126" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="F126" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="G126" s="39" t="s">
         <v>519</v>
+      </c>
+      <c r="H126" s="39" t="s">
+        <v>525</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
-      <c r="K126" s="72" t="s">
-        <v>520</v>
+      <c r="K126" s="39" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="45" t="s">
-        <v>521</v>
-      </c>
-      <c r="B127" s="46" t="s">
-        <v>522</v>
+      <c r="A127" s="47" t="s">
+        <v>527</v>
+      </c>
+      <c r="B127" s="48" t="s">
+        <v>528</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D127" s="7"/>
-      <c r="E127" s="72" t="s">
-        <v>524</v>
+      <c r="E127" s="39" t="s">
+        <v>530</v>
       </c>
       <c r="F127" s="7"/>
       <c r="G127" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="H127" s="35" t="s">
-        <v>526</v>
+        <v>531</v>
+      </c>
+      <c r="H127" s="36" t="s">
+        <v>532</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="109" t="s">
-        <v>527</v>
-      </c>
-      <c r="B128" s="110" t="s">
-        <v>528</v>
+      <c r="A128" s="113" t="s">
+        <v>533</v>
+      </c>
+      <c r="B128" s="114" t="s">
+        <v>534</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="35"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="58"/>
+      <c r="J128" s="58"/>
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="94" t="s">
-        <v>529</v>
-      </c>
-      <c r="B129" s="95" t="s">
-        <v>530</v>
+      <c r="A129" s="96" t="s">
+        <v>535</v>
+      </c>
+      <c r="B129" s="97" t="s">
+        <v>536</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="36"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="35"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
+      <c r="F129" s="37"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="58"/>
+      <c r="J129" s="58"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="103" t="s">
-        <v>531</v>
-      </c>
-      <c r="B130" s="104" t="s">
-        <v>532</v>
-      </c>
-      <c r="C130" s="98"/>
-      <c r="D130" s="111"/>
+      <c r="A130" s="106" t="s">
+        <v>537</v>
+      </c>
+      <c r="B130" s="107" t="s">
+        <v>538</v>
+      </c>
+      <c r="C130" s="101"/>
+      <c r="D130" s="115"/>
       <c r="E130" s="4"/>
-      <c r="F130" s="36"/>
-      <c r="G130" s="101"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="105"/>
       <c r="H130" s="105"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
+      <c r="I130" s="58"/>
+      <c r="J130" s="58"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="106" t="s">
-        <v>533</v>
-      </c>
-      <c r="B131" s="107" t="s">
-        <v>534</v>
-      </c>
-      <c r="C131" s="98"/>
-      <c r="D131" s="111"/>
+      <c r="A131" s="109" t="s">
+        <v>539</v>
+      </c>
+      <c r="B131" s="110" t="s">
+        <v>540</v>
+      </c>
+      <c r="C131" s="101"/>
+      <c r="D131" s="115"/>
       <c r="E131" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="F131" s="56"/>
-      <c r="G131" s="98" t="s">
-        <v>536</v>
-      </c>
-      <c r="H131" s="111" t="s">
-        <v>537</v>
-      </c>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
+        <v>541</v>
+      </c>
+      <c r="F131" s="58"/>
+      <c r="G131" s="112" t="s">
+        <v>542</v>
+      </c>
+      <c r="H131" s="112" t="s">
+        <v>543</v>
+      </c>
+      <c r="I131" s="58"/>
+      <c r="J131" s="58"/>
       <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="106" t="s">
-        <v>538</v>
-      </c>
-      <c r="B132" s="107" t="s">
-        <v>539</v>
-      </c>
-      <c r="C132" s="98"/>
-      <c r="D132" s="111"/>
+      <c r="A132" s="109" t="s">
+        <v>544</v>
+      </c>
+      <c r="B132" s="110" t="s">
+        <v>545</v>
+      </c>
+      <c r="C132" s="101"/>
+      <c r="D132" s="115"/>
       <c r="E132" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="F132" s="36"/>
-      <c r="G132" s="101"/>
+        <v>546</v>
+      </c>
+      <c r="F132" s="37"/>
+      <c r="G132" s="105"/>
       <c r="H132" s="105"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
+      <c r="I132" s="58"/>
+      <c r="J132" s="58"/>
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="103" t="s">
-        <v>541</v>
-      </c>
-      <c r="B133" s="104" t="s">
-        <v>542</v>
-      </c>
-      <c r="C133" s="98"/>
-      <c r="D133" s="111"/>
+      <c r="A133" s="106" t="s">
+        <v>547</v>
+      </c>
+      <c r="B133" s="107" t="s">
+        <v>548</v>
+      </c>
+      <c r="C133" s="101"/>
+      <c r="D133" s="115"/>
       <c r="E133" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="F133" s="36"/>
-      <c r="G133" s="101"/>
+        <v>549</v>
+      </c>
+      <c r="F133" s="37"/>
+      <c r="G133" s="105"/>
       <c r="H133" s="105"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
-      <c r="K133" s="7"/>
+      <c r="I133" s="58"/>
+      <c r="J133" s="58"/>
+      <c r="K133" s="102" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="94" t="s">
-        <v>544</v>
-      </c>
-      <c r="B134" s="95" t="s">
-        <v>545</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>547</v>
+      <c r="A134" s="96" t="s">
+        <v>551</v>
+      </c>
+      <c r="B134" s="97" t="s">
+        <v>552</v>
+      </c>
+      <c r="C134" s="99" t="s">
+        <v>553</v>
+      </c>
+      <c r="D134" s="99" t="s">
+        <v>554</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="F134" s="36"/>
-      <c r="G134" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="H134" s="99" t="s">
-        <v>550</v>
-      </c>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
+      </c>
+      <c r="F134" s="37"/>
+      <c r="G134" s="103" t="s">
+        <v>556</v>
+      </c>
+      <c r="H134" s="103" t="s">
+        <v>557</v>
+      </c>
+      <c r="I134" s="58"/>
+      <c r="J134" s="58"/>
+      <c r="K134" s="39" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="94" t="s">
-        <v>552</v>
-      </c>
-      <c r="B135" s="95" t="s">
-        <v>553</v>
+      <c r="A135" s="96" t="s">
+        <v>559</v>
+      </c>
+      <c r="B135" s="97" t="s">
+        <v>560</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="4"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="35"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
+      <c r="F135" s="37"/>
+      <c r="G135" s="36"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="58"/>
+      <c r="J135" s="58"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="103" t="s">
-        <v>554</v>
-      </c>
-      <c r="B136" s="104" t="s">
-        <v>555</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>557</v>
+      <c r="A136" s="106" t="s">
+        <v>561</v>
+      </c>
+      <c r="B136" s="107" t="s">
+        <v>562</v>
+      </c>
+      <c r="C136" s="99" t="s">
+        <v>563</v>
+      </c>
+      <c r="D136" s="99" t="s">
+        <v>564</v>
       </c>
       <c r="E136" s="4"/>
-      <c r="F136" s="36"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="99"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="103"/>
+      <c r="H136" s="103"/>
+      <c r="I136" s="58"/>
+      <c r="J136" s="58"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="106" t="s">
-        <v>558</v>
-      </c>
-      <c r="B137" s="107" t="s">
-        <v>559</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>557</v>
+      <c r="A137" s="109" t="s">
+        <v>565</v>
+      </c>
+      <c r="B137" s="110" t="s">
+        <v>566</v>
+      </c>
+      <c r="C137" s="99" t="s">
+        <v>563</v>
+      </c>
+      <c r="D137" s="99" t="s">
+        <v>564</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="F137" s="36"/>
-      <c r="G137" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="H137" s="99" t="s">
-        <v>562</v>
-      </c>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
+        <v>567</v>
+      </c>
+      <c r="F137" s="37"/>
+      <c r="G137" s="98" t="s">
+        <v>568</v>
+      </c>
+      <c r="H137" s="98" t="s">
+        <v>569</v>
+      </c>
+      <c r="I137" s="58"/>
+      <c r="J137" s="58"/>
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="106" t="s">
+      <c r="A138" s="109" t="s">
+        <v>570</v>
+      </c>
+      <c r="B138" s="110" t="s">
+        <v>571</v>
+      </c>
+      <c r="C138" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="B138" s="107" t="s">
+      <c r="D138" s="99" t="s">
         <v>564</v>
       </c>
-      <c r="C138" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>557</v>
-      </c>
       <c r="E138" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="F138" s="112"/>
-      <c r="G138" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="H138" s="99" t="s">
-        <v>566</v>
-      </c>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
+        <v>572</v>
+      </c>
+      <c r="F138" s="116"/>
+      <c r="G138" s="98" t="s">
+        <v>568</v>
+      </c>
+      <c r="H138" s="98" t="s">
+        <v>573</v>
+      </c>
+      <c r="I138" s="58"/>
+      <c r="J138" s="58"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="94" t="s">
-        <v>567</v>
-      </c>
-      <c r="B139" s="95" t="s">
-        <v>568</v>
+      <c r="A139" s="96" t="s">
+        <v>574</v>
+      </c>
+      <c r="B139" s="97" t="s">
+        <v>575</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="18"/>
-      <c r="F139" s="112"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="35"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
+      <c r="F139" s="116"/>
+      <c r="G139" s="36"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="58"/>
+      <c r="J139" s="58"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="103" t="s">
-        <v>569</v>
-      </c>
-      <c r="B140" s="104" t="s">
-        <v>570</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="D140" s="108" t="s">
-        <v>572</v>
+      <c r="A140" s="106" t="s">
+        <v>576</v>
+      </c>
+      <c r="B140" s="107" t="s">
+        <v>577</v>
+      </c>
+      <c r="C140" s="99" t="s">
+        <v>578</v>
+      </c>
+      <c r="D140" s="111" t="s">
+        <v>579</v>
       </c>
       <c r="E140" s="4"/>
-      <c r="F140" s="36"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="99"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="103"/>
+      <c r="H140" s="103"/>
+      <c r="I140" s="58"/>
+      <c r="J140" s="58"/>
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="106" t="s">
-        <v>573</v>
-      </c>
-      <c r="B141" s="107" t="s">
-        <v>574</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="D141" s="108" t="s">
-        <v>572</v>
+      <c r="A141" s="109" t="s">
+        <v>580</v>
+      </c>
+      <c r="B141" s="110" t="s">
+        <v>581</v>
+      </c>
+      <c r="C141" s="103" t="s">
+        <v>578</v>
+      </c>
+      <c r="D141" s="111" t="s">
+        <v>579</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="F141" s="36"/>
-      <c r="G141" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="H141" s="99" t="s">
-        <v>576</v>
-      </c>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
+        <v>582</v>
+      </c>
+      <c r="F141" s="37"/>
+      <c r="G141" s="98" t="s">
+        <v>568</v>
+      </c>
+      <c r="H141" s="98" t="s">
+        <v>583</v>
+      </c>
+      <c r="I141" s="58"/>
+      <c r="J141" s="58"/>
+      <c r="K141" s="39" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" s="106" t="s">
-        <v>577</v>
-      </c>
-      <c r="B142" s="107" t="s">
+      <c r="A142" s="109" t="s">
+        <v>585</v>
+      </c>
+      <c r="B142" s="110" t="s">
+        <v>586</v>
+      </c>
+      <c r="C142" s="99" t="s">
         <v>578</v>
       </c>
-      <c r="C142" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="D142" s="108" t="s">
-        <v>572</v>
+      <c r="D142" s="111" t="s">
+        <v>579</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="F142" s="56"/>
-      <c r="G142" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="H142" s="99" t="s">
-        <v>580</v>
-      </c>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
+        <v>587</v>
+      </c>
+      <c r="F142" s="58"/>
+      <c r="G142" s="98" t="s">
+        <v>568</v>
+      </c>
+      <c r="H142" s="98" t="s">
+        <v>588</v>
+      </c>
+      <c r="I142" s="58"/>
+      <c r="J142" s="58"/>
+      <c r="K142" s="39" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" s="94" t="s">
-        <v>581</v>
-      </c>
-      <c r="B143" s="95" t="s">
-        <v>582</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>584</v>
+      <c r="A143" s="96" t="s">
+        <v>589</v>
+      </c>
+      <c r="B143" s="97" t="s">
+        <v>590</v>
+      </c>
+      <c r="C143" s="99" t="s">
+        <v>591</v>
+      </c>
+      <c r="D143" s="99" t="s">
+        <v>592</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="F143" s="36"/>
-      <c r="G143" s="101"/>
+        <v>593</v>
+      </c>
+      <c r="F143" s="37"/>
+      <c r="G143" s="105"/>
       <c r="H143" s="105"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
+      <c r="I143" s="58"/>
+      <c r="J143" s="58"/>
+      <c r="K143" s="102" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="B144" s="34" t="s">
-        <v>587</v>
+      <c r="A144" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="B144" s="35" t="s">
+        <v>596</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -13898,47 +13955,47 @@
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="38" t="s">
-        <v>588</v>
-      </c>
-      <c r="B145" s="39" t="s">
-        <v>589</v>
-      </c>
-      <c r="C145" s="57" t="s">
-        <v>590</v>
+      <c r="A145" s="40" t="s">
+        <v>597</v>
+      </c>
+      <c r="B145" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="C145" s="59" t="s">
+        <v>599</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="E145" s="113" t="s">
-        <v>592</v>
-      </c>
-      <c r="F145" s="113"/>
-      <c r="G145" s="114" t="s">
+        <v>600</v>
+      </c>
+      <c r="E145" s="117" t="s">
+        <v>601</v>
+      </c>
+      <c r="F145" s="117"/>
+      <c r="G145" s="118" t="s">
         <v>379</v>
       </c>
-      <c r="H145" s="115" t="s">
-        <v>593</v>
-      </c>
-      <c r="I145" s="7" t="s">
+      <c r="H145" s="119" t="s">
+        <v>602</v>
+      </c>
+      <c r="I145" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="B146" s="39" t="s">
-        <v>595</v>
-      </c>
-      <c r="C146" s="116" t="s">
-        <v>596</v>
+      <c r="A146" s="40" t="s">
+        <v>603</v>
+      </c>
+      <c r="B146" s="41" t="s">
+        <v>604</v>
+      </c>
+      <c r="C146" s="120" t="s">
+        <v>605</v>
       </c>
       <c r="D146" s="7"/>
-      <c r="E146" s="112"/>
-      <c r="F146" s="112"/>
+      <c r="E146" s="116"/>
+      <c r="F146" s="116"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="7"/>
@@ -13946,24 +14003,24 @@
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="45" t="s">
-        <v>597</v>
-      </c>
-      <c r="B147" s="46" t="s">
-        <v>598</v>
-      </c>
-      <c r="C147" s="117" t="s">
-        <v>596</v>
+      <c r="A147" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="B147" s="48" t="s">
+        <v>607</v>
+      </c>
+      <c r="C147" s="121" t="s">
+        <v>605</v>
       </c>
       <c r="D147" s="7"/>
-      <c r="E147" s="35" t="s">
-        <v>599</v>
-      </c>
-      <c r="F147" s="36"/>
-      <c r="G147" s="36" t="s">
+      <c r="E147" s="36" t="s">
+        <v>608</v>
+      </c>
+      <c r="F147" s="37"/>
+      <c r="G147" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H147" s="36" t="s">
+      <c r="H147" s="37" t="s">
         <v>61</v>
       </c>
       <c r="I147" s="7"/>
@@ -13971,269 +14028,269 @@
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="51" t="s">
-        <v>600</v>
-      </c>
-      <c r="B148" s="52" t="s">
+      <c r="A148" s="53" t="s">
+        <v>609</v>
+      </c>
+      <c r="B148" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C148" s="57" t="s">
+      <c r="C148" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="D148" s="57" t="s">
+      <c r="D148" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="E148" s="36" t="s">
-        <v>601</v>
-      </c>
-      <c r="F148" s="36"/>
-      <c r="G148" s="35" t="s">
+      <c r="E148" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="F148" s="37"/>
+      <c r="G148" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H148" s="35" t="s">
-        <v>602</v>
-      </c>
-      <c r="I148" s="7" t="s">
+      <c r="H148" s="36" t="s">
+        <v>611</v>
+      </c>
+      <c r="I148" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="51" t="s">
-        <v>603</v>
-      </c>
-      <c r="B149" s="52" t="s">
+      <c r="A149" s="53" t="s">
+        <v>612</v>
+      </c>
+      <c r="B149" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C149" s="57" t="s">
+      <c r="C149" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D149" s="57" t="s">
+      <c r="D149" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="E149" s="36" t="s">
-        <v>604</v>
-      </c>
-      <c r="F149" s="36"/>
-      <c r="G149" s="35" t="s">
+      <c r="E149" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="F149" s="37"/>
+      <c r="G149" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H149" s="35" t="s">
-        <v>605</v>
+      <c r="H149" s="36" t="s">
+        <v>614</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="51" t="s">
-        <v>606</v>
-      </c>
-      <c r="B150" s="52" t="s">
+      <c r="A150" s="53" t="s">
+        <v>615</v>
+      </c>
+      <c r="B150" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C150" s="47" t="s">
+      <c r="C150" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D150" s="57" t="s">
+      <c r="D150" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="E150" s="36" t="s">
-        <v>607</v>
-      </c>
-      <c r="F150" s="36"/>
-      <c r="G150" s="35" t="s">
+      <c r="E150" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="F150" s="37"/>
+      <c r="G150" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H150" s="35" t="s">
-        <v>608</v>
+      <c r="H150" s="36" t="s">
+        <v>617</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="51" t="s">
-        <v>609</v>
-      </c>
-      <c r="B151" s="52" t="s">
+      <c r="A151" s="53" t="s">
+        <v>618</v>
+      </c>
+      <c r="B151" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="C151" s="57" t="s">
+      <c r="C151" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D151" s="57" t="s">
-        <v>610</v>
-      </c>
-      <c r="E151" s="36" t="s">
-        <v>611</v>
-      </c>
-      <c r="F151" s="36"/>
-      <c r="G151" s="35" t="s">
+      <c r="D151" s="59" t="s">
+        <v>619</v>
+      </c>
+      <c r="E151" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="F151" s="37"/>
+      <c r="G151" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H151" s="35" t="s">
-        <v>612</v>
+      <c r="H151" s="36" t="s">
+        <v>621</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="51" t="s">
-        <v>613</v>
-      </c>
-      <c r="B152" s="52" t="s">
+      <c r="A152" s="53" t="s">
+        <v>622</v>
+      </c>
+      <c r="B152" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C152" s="57" t="s">
+      <c r="C152" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="D152" s="57" t="s">
+      <c r="D152" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="E152" s="36" t="s">
-        <v>614</v>
-      </c>
-      <c r="F152" s="36"/>
-      <c r="G152" s="47" t="s">
+      <c r="E152" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="F152" s="37"/>
+      <c r="G152" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H152" s="47" t="s">
-        <v>615</v>
+      <c r="H152" s="49" t="s">
+        <v>624</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="51" t="s">
-        <v>616</v>
-      </c>
-      <c r="B153" s="52" t="s">
+      <c r="A153" s="53" t="s">
+        <v>625</v>
+      </c>
+      <c r="B153" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C153" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C153" s="56" t="s">
+      <c r="D153" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D153" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E153" s="36" t="s">
-        <v>617</v>
-      </c>
-      <c r="F153" s="36"/>
-      <c r="G153" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="H153" s="47" t="s">
-        <v>619</v>
+      <c r="E153" s="37" t="s">
+        <v>626</v>
+      </c>
+      <c r="F153" s="37"/>
+      <c r="G153" s="49" t="s">
+        <v>627</v>
+      </c>
+      <c r="H153" s="49" t="s">
+        <v>628</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="51" t="s">
-        <v>620</v>
-      </c>
-      <c r="B154" s="52" t="s">
+      <c r="A154" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="B154" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C154" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="C154" s="57" t="s">
+      <c r="D154" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="D154" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E154" s="36" t="s">
-        <v>621</v>
-      </c>
-      <c r="F154" s="36"/>
-      <c r="G154" s="47" t="s">
-        <v>622</v>
-      </c>
-      <c r="H154" s="47" t="s">
-        <v>623</v>
+      <c r="E154" s="37" t="s">
+        <v>630</v>
+      </c>
+      <c r="F154" s="37"/>
+      <c r="G154" s="49" t="s">
+        <v>631</v>
+      </c>
+      <c r="H154" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="51" t="s">
-        <v>624</v>
-      </c>
-      <c r="B155" s="52" t="s">
-        <v>625</v>
-      </c>
-      <c r="C155" s="57" t="s">
+      <c r="A155" s="53" t="s">
+        <v>633</v>
+      </c>
+      <c r="B155" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="C155" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D155" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="D155" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="E155" s="36" t="s">
-        <v>626</v>
-      </c>
-      <c r="F155" s="36"/>
-      <c r="G155" s="44" t="s">
-        <v>618</v>
-      </c>
-      <c r="H155" s="44" t="s">
+      <c r="E155" s="37" t="s">
+        <v>635</v>
+      </c>
+      <c r="F155" s="37"/>
+      <c r="G155" s="46" t="s">
         <v>627</v>
+      </c>
+      <c r="H155" s="46" t="s">
+        <v>636</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="51" t="s">
-        <v>628</v>
-      </c>
-      <c r="B156" s="52" t="s">
+      <c r="A156" s="53" t="s">
+        <v>637</v>
+      </c>
+      <c r="B156" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C156" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="C156" s="57" t="s">
+      <c r="D156" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="D156" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="E156" s="56" t="s">
-        <v>629</v>
-      </c>
-      <c r="F156" s="56"/>
-      <c r="G156" s="47" t="s">
-        <v>622</v>
-      </c>
-      <c r="H156" s="47" t="s">
-        <v>630</v>
+      <c r="E156" s="58" t="s">
+        <v>638</v>
+      </c>
+      <c r="F156" s="58"/>
+      <c r="G156" s="49" t="s">
+        <v>631</v>
+      </c>
+      <c r="H156" s="49" t="s">
+        <v>639</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="B157" s="46" t="s">
-        <v>632</v>
-      </c>
-      <c r="C157" s="117" t="s">
-        <v>596</v>
-      </c>
-      <c r="D157" s="118"/>
-      <c r="E157" s="35" t="s">
-        <v>633</v>
-      </c>
-      <c r="F157" s="47"/>
-      <c r="G157" s="36" t="s">
-        <v>634</v>
-      </c>
-      <c r="H157" s="36" t="s">
+      <c r="A157" s="47" t="s">
+        <v>640</v>
+      </c>
+      <c r="B157" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="C157" s="121" t="s">
+        <v>605</v>
+      </c>
+      <c r="D157" s="122"/>
+      <c r="E157" s="36" t="s">
+        <v>642</v>
+      </c>
+      <c r="F157" s="37"/>
+      <c r="G157" s="37" t="s">
+        <v>643</v>
+      </c>
+      <c r="H157" s="37" t="s">
         <v>61</v>
       </c>
       <c r="I157" s="7"/>
@@ -14241,294 +14298,294 @@
       <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="51" t="s">
-        <v>635</v>
-      </c>
-      <c r="B158" s="52" t="s">
+      <c r="A158" s="53" t="s">
+        <v>644</v>
+      </c>
+      <c r="B158" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C158" s="57" t="s">
+      <c r="C158" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="D158" s="57" t="s">
+      <c r="D158" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="E158" s="36" t="s">
-        <v>636</v>
-      </c>
-      <c r="F158" s="36"/>
-      <c r="G158" s="35" t="s">
+      <c r="E158" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="F158" s="37"/>
+      <c r="G158" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H158" s="35" t="s">
-        <v>637</v>
-      </c>
-      <c r="I158" s="7" t="s">
+      <c r="H158" s="36" t="s">
+        <v>646</v>
+      </c>
+      <c r="I158" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="51" t="s">
-        <v>638</v>
-      </c>
-      <c r="B159" s="52" t="s">
+      <c r="A159" s="53" t="s">
+        <v>647</v>
+      </c>
+      <c r="B159" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C159" s="57" t="s">
+      <c r="C159" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D159" s="57" t="s">
+      <c r="D159" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="E159" s="36" t="s">
-        <v>639</v>
-      </c>
-      <c r="F159" s="36"/>
-      <c r="G159" s="35" t="s">
+      <c r="E159" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="F159" s="37"/>
+      <c r="G159" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H159" s="35" t="s">
-        <v>640</v>
+      <c r="H159" s="36" t="s">
+        <v>649</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="51" t="s">
-        <v>641</v>
-      </c>
-      <c r="B160" s="52" t="s">
+      <c r="A160" s="53" t="s">
+        <v>650</v>
+      </c>
+      <c r="B160" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C160" s="57" t="s">
+      <c r="C160" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="D160" s="57" t="s">
+      <c r="D160" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="E160" s="36" t="s">
-        <v>642</v>
-      </c>
-      <c r="F160" s="36"/>
-      <c r="G160" s="35" t="s">
+      <c r="E160" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="F160" s="37"/>
+      <c r="G160" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H160" s="35" t="s">
-        <v>643</v>
+      <c r="H160" s="36" t="s">
+        <v>652</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="51" t="s">
-        <v>644</v>
-      </c>
-      <c r="B161" s="52" t="s">
+      <c r="A161" s="53" t="s">
+        <v>653</v>
+      </c>
+      <c r="B161" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="C161" s="57" t="s">
+      <c r="C161" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D161" s="57" t="s">
-        <v>610</v>
-      </c>
-      <c r="E161" s="36" t="s">
-        <v>645</v>
-      </c>
-      <c r="F161" s="36"/>
-      <c r="G161" s="35" t="s">
+      <c r="D161" s="59" t="s">
+        <v>619</v>
+      </c>
+      <c r="E161" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="F161" s="37"/>
+      <c r="G161" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H161" s="35" t="s">
-        <v>646</v>
+      <c r="H161" s="36" t="s">
+        <v>655</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="51" t="s">
-        <v>647</v>
-      </c>
-      <c r="B162" s="52" t="s">
+      <c r="A162" s="53" t="s">
+        <v>656</v>
+      </c>
+      <c r="B162" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C162" s="57" t="s">
+      <c r="C162" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="D162" s="57" t="s">
+      <c r="D162" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="E162" s="36" t="s">
-        <v>648</v>
-      </c>
-      <c r="F162" s="36"/>
-      <c r="G162" s="35" t="s">
+      <c r="E162" s="37" t="s">
+        <v>657</v>
+      </c>
+      <c r="F162" s="37"/>
+      <c r="G162" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="H162" s="35" t="s">
-        <v>649</v>
+      <c r="H162" s="36" t="s">
+        <v>658</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="51" t="s">
-        <v>650</v>
-      </c>
-      <c r="B163" s="52" t="s">
+      <c r="A163" s="53" t="s">
+        <v>659</v>
+      </c>
+      <c r="B163" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C163" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C163" s="56" t="s">
+      <c r="D163" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D163" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E163" s="56" t="s">
-        <v>651</v>
-      </c>
-      <c r="F163" s="56"/>
-      <c r="G163" s="57" t="s">
-        <v>618</v>
-      </c>
-      <c r="H163" s="57" t="s">
-        <v>619</v>
+      <c r="E163" s="58" t="s">
+        <v>660</v>
+      </c>
+      <c r="F163" s="58"/>
+      <c r="G163" s="59" t="s">
+        <v>627</v>
+      </c>
+      <c r="H163" s="59" t="s">
+        <v>628</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="51" t="s">
-        <v>652</v>
-      </c>
-      <c r="B164" s="52" t="s">
+      <c r="A164" s="53" t="s">
+        <v>661</v>
+      </c>
+      <c r="B164" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C164" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="C164" s="57" t="s">
+      <c r="D164" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="D164" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E164" s="36" t="s">
-        <v>653</v>
-      </c>
-      <c r="F164" s="36"/>
-      <c r="G164" s="47" t="s">
-        <v>622</v>
-      </c>
-      <c r="H164" s="47" t="s">
-        <v>623</v>
+      <c r="E164" s="37" t="s">
+        <v>662</v>
+      </c>
+      <c r="F164" s="37"/>
+      <c r="G164" s="49" t="s">
+        <v>631</v>
+      </c>
+      <c r="H164" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="51" t="s">
-        <v>654</v>
-      </c>
-      <c r="B165" s="52" t="s">
-        <v>625</v>
-      </c>
-      <c r="C165" s="57" t="s">
+      <c r="A165" s="53" t="s">
+        <v>663</v>
+      </c>
+      <c r="B165" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="C165" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D165" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="D165" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="E165" s="56" t="s">
-        <v>655</v>
-      </c>
-      <c r="F165" s="56"/>
-      <c r="G165" s="60" t="s">
-        <v>618</v>
-      </c>
-      <c r="H165" s="60" t="s">
-        <v>656</v>
+      <c r="E165" s="58" t="s">
+        <v>664</v>
+      </c>
+      <c r="F165" s="58"/>
+      <c r="G165" s="62" t="s">
+        <v>627</v>
+      </c>
+      <c r="H165" s="62" t="s">
+        <v>665</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="51" t="s">
-        <v>657</v>
-      </c>
-      <c r="B166" s="52" t="s">
+      <c r="A166" s="53" t="s">
+        <v>666</v>
+      </c>
+      <c r="B166" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C166" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C166" s="47" t="s">
+      <c r="D166" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D166" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E166" s="36" t="s">
-        <v>658</v>
-      </c>
-      <c r="F166" s="36"/>
-      <c r="G166" s="47" t="s">
-        <v>622</v>
-      </c>
-      <c r="H166" s="47" t="s">
-        <v>630</v>
+      <c r="E166" s="37" t="s">
+        <v>667</v>
+      </c>
+      <c r="F166" s="37"/>
+      <c r="G166" s="49" t="s">
+        <v>631</v>
+      </c>
+      <c r="H166" s="49" t="s">
+        <v>639</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="B167" s="46" t="s">
-        <v>660</v>
-      </c>
-      <c r="C167" s="57" t="s">
-        <v>661</v>
-      </c>
-      <c r="D167" s="57" t="s">
-        <v>662</v>
-      </c>
-      <c r="E167" s="36" t="s">
-        <v>663</v>
-      </c>
-      <c r="F167" s="36"/>
-      <c r="G167" s="35" t="s">
-        <v>664</v>
-      </c>
-      <c r="H167" s="47" t="s">
-        <v>665</v>
+      <c r="A167" s="47" t="s">
+        <v>668</v>
+      </c>
+      <c r="B167" s="48" t="s">
+        <v>669</v>
+      </c>
+      <c r="C167" s="59" t="s">
+        <v>670</v>
+      </c>
+      <c r="D167" s="59" t="s">
+        <v>671</v>
+      </c>
+      <c r="E167" s="37" t="s">
+        <v>672</v>
+      </c>
+      <c r="F167" s="37"/>
+      <c r="G167" s="36" t="s">
+        <v>673</v>
+      </c>
+      <c r="H167" s="49" t="s">
+        <v>674</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="45" t="s">
-        <v>666</v>
-      </c>
-      <c r="B168" s="46" t="s">
-        <v>667</v>
+      <c r="A168" s="47" t="s">
+        <v>675</v>
+      </c>
+      <c r="B168" s="48" t="s">
+        <v>676</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
-      <c r="E168" s="84" t="s">
-        <v>668</v>
-      </c>
-      <c r="F168" s="113"/>
-      <c r="G168" s="36" t="s">
+      <c r="E168" s="86" t="s">
+        <v>677</v>
+      </c>
+      <c r="F168" s="116"/>
+      <c r="G168" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H168" s="36" t="s">
+      <c r="H168" s="37" t="s">
         <v>61</v>
       </c>
       <c r="I168" s="7"/>
@@ -14536,272 +14593,272 @@
       <c r="K168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="51" t="s">
-        <v>669</v>
-      </c>
-      <c r="B169" s="52" t="s">
+      <c r="A169" s="53" t="s">
+        <v>678</v>
+      </c>
+      <c r="B169" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C169" s="57" t="s">
+      <c r="C169" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="D169" s="57" t="s">
+      <c r="D169" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="E169" s="112" t="s">
-        <v>670</v>
-      </c>
-      <c r="F169" s="112"/>
-      <c r="G169" s="35" t="s">
+      <c r="E169" s="116" t="s">
+        <v>679</v>
+      </c>
+      <c r="F169" s="116"/>
+      <c r="G169" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H169" s="35" t="s">
-        <v>671</v>
-      </c>
-      <c r="I169" s="7" t="s">
+      <c r="H169" s="36" t="s">
+        <v>680</v>
+      </c>
+      <c r="I169" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="51" t="s">
-        <v>672</v>
-      </c>
-      <c r="B170" s="52" t="s">
+      <c r="A170" s="53" t="s">
+        <v>681</v>
+      </c>
+      <c r="B170" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C170" s="57" t="s">
+      <c r="C170" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D170" s="57" t="s">
+      <c r="D170" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="E170" s="112" t="s">
-        <v>673</v>
-      </c>
-      <c r="F170" s="112"/>
-      <c r="G170" s="72" t="s">
+      <c r="E170" s="116" t="s">
+        <v>682</v>
+      </c>
+      <c r="F170" s="116"/>
+      <c r="G170" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="H170" s="72" t="s">
-        <v>674</v>
+      <c r="H170" s="39" t="s">
+        <v>683</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="51" t="s">
-        <v>675</v>
-      </c>
-      <c r="B171" s="52" t="s">
+      <c r="A171" s="53" t="s">
+        <v>684</v>
+      </c>
+      <c r="B171" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C171" s="57" t="s">
+      <c r="C171" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="D171" s="47" t="s">
+      <c r="D171" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="E171" s="112" t="s">
-        <v>676</v>
-      </c>
-      <c r="F171" s="112"/>
-      <c r="G171" s="35" t="s">
+      <c r="E171" s="116" t="s">
+        <v>685</v>
+      </c>
+      <c r="F171" s="116"/>
+      <c r="G171" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H171" s="35" t="s">
-        <v>677</v>
+      <c r="H171" s="36" t="s">
+        <v>686</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
     </row>
     <row r="172">
-      <c r="A172" s="51" t="s">
-        <v>678</v>
-      </c>
-      <c r="B172" s="52" t="s">
+      <c r="A172" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="B172" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="C172" s="57" t="s">
+      <c r="C172" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D172" s="47" t="s">
-        <v>610</v>
-      </c>
-      <c r="E172" s="112" t="s">
-        <v>679</v>
-      </c>
-      <c r="F172" s="112"/>
-      <c r="G172" s="35" t="s">
+      <c r="D172" s="49" t="s">
+        <v>619</v>
+      </c>
+      <c r="E172" s="116" t="s">
+        <v>688</v>
+      </c>
+      <c r="F172" s="116"/>
+      <c r="G172" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H172" s="35" t="s">
-        <v>680</v>
+      <c r="H172" s="36" t="s">
+        <v>689</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="51" t="s">
-        <v>681</v>
-      </c>
-      <c r="B173" s="52" t="s">
+      <c r="A173" s="53" t="s">
+        <v>690</v>
+      </c>
+      <c r="B173" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C173" s="57" t="s">
+      <c r="C173" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="D173" s="47" t="s">
+      <c r="D173" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E173" s="112" t="s">
-        <v>682</v>
-      </c>
-      <c r="F173" s="112"/>
-      <c r="G173" s="47" t="s">
+      <c r="E173" s="116" t="s">
+        <v>691</v>
+      </c>
+      <c r="F173" s="116"/>
+      <c r="G173" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H173" s="47" t="s">
-        <v>683</v>
+      <c r="H173" s="49" t="s">
+        <v>692</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="51" t="s">
-        <v>684</v>
-      </c>
-      <c r="B174" s="52" t="s">
+      <c r="A174" s="53" t="s">
+        <v>693</v>
+      </c>
+      <c r="B174" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C174" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C174" s="56" t="s">
+      <c r="D174" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D174" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E174" s="112" t="s">
-        <v>685</v>
-      </c>
-      <c r="F174" s="112"/>
-      <c r="G174" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="H174" s="47" t="s">
-        <v>619</v>
+      <c r="E174" s="116" t="s">
+        <v>694</v>
+      </c>
+      <c r="F174" s="116"/>
+      <c r="G174" s="49" t="s">
+        <v>627</v>
+      </c>
+      <c r="H174" s="49" t="s">
+        <v>628</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="51" t="s">
-        <v>686</v>
-      </c>
-      <c r="B175" s="52" t="s">
+      <c r="A175" s="53" t="s">
+        <v>695</v>
+      </c>
+      <c r="B175" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C175" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="C175" s="57" t="s">
+      <c r="D175" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="D175" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="E175" s="112" t="s">
-        <v>687</v>
-      </c>
-      <c r="F175" s="112"/>
-      <c r="G175" s="47" t="s">
-        <v>622</v>
-      </c>
-      <c r="H175" s="47" t="s">
-        <v>623</v>
+      <c r="E175" s="116" t="s">
+        <v>696</v>
+      </c>
+      <c r="F175" s="116"/>
+      <c r="G175" s="49" t="s">
+        <v>631</v>
+      </c>
+      <c r="H175" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="51" t="s">
-        <v>688</v>
-      </c>
-      <c r="B176" s="52" t="s">
-        <v>625</v>
-      </c>
-      <c r="C176" s="57" t="s">
+      <c r="A176" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="B176" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="C176" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D176" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D176" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="E176" s="112" t="s">
-        <v>689</v>
-      </c>
-      <c r="F176" s="112"/>
-      <c r="G176" s="44" t="s">
-        <v>618</v>
-      </c>
-      <c r="H176" s="44" t="s">
-        <v>690</v>
+      <c r="E176" s="116" t="s">
+        <v>698</v>
+      </c>
+      <c r="F176" s="116"/>
+      <c r="G176" s="46" t="s">
+        <v>627</v>
+      </c>
+      <c r="H176" s="46" t="s">
+        <v>699</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
     </row>
     <row r="177">
-      <c r="A177" s="51" t="s">
-        <v>691</v>
-      </c>
-      <c r="B177" s="52" t="s">
+      <c r="A177" s="53" t="s">
+        <v>700</v>
+      </c>
+      <c r="B177" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C177" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="C177" s="57" t="s">
+      <c r="D177" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D177" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E177" s="112" t="s">
-        <v>692</v>
-      </c>
-      <c r="F177" s="112"/>
-      <c r="G177" s="47" t="s">
-        <v>622</v>
-      </c>
-      <c r="H177" s="47" t="s">
-        <v>630</v>
+      <c r="E177" s="116" t="s">
+        <v>701</v>
+      </c>
+      <c r="F177" s="116"/>
+      <c r="G177" s="49" t="s">
+        <v>631</v>
+      </c>
+      <c r="H177" s="49" t="s">
+        <v>639</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="38" t="s">
-        <v>693</v>
-      </c>
-      <c r="B178" s="39" t="s">
-        <v>694</v>
-      </c>
-      <c r="C178" s="119" t="s">
-        <v>695</v>
-      </c>
-      <c r="D178" s="120" t="s">
-        <v>696</v>
-      </c>
-      <c r="E178" s="121" t="s">
-        <v>697</v>
-      </c>
-      <c r="F178" s="121"/>
-      <c r="G178" s="35" t="s">
-        <v>698</v>
-      </c>
-      <c r="H178" s="122" t="s">
-        <v>699</v>
+      <c r="A178" s="40" t="s">
+        <v>702</v>
+      </c>
+      <c r="B178" s="41" t="s">
+        <v>703</v>
+      </c>
+      <c r="C178" s="123" t="s">
+        <v>704</v>
+      </c>
+      <c r="D178" s="124" t="s">
+        <v>705</v>
+      </c>
+      <c r="E178" s="125" t="s">
+        <v>706</v>
+      </c>
+      <c r="F178" s="125"/>
+      <c r="G178" s="36" t="s">
+        <v>707</v>
+      </c>
+      <c r="H178" s="126" t="s">
+        <v>708</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
@@ -14845,9 +14902,8 @@
     <hyperlink r:id="rId5" ref="H78"/>
     <hyperlink r:id="rId6" ref="H104"/>
     <hyperlink r:id="rId7" ref="H105"/>
-    <hyperlink r:id="rId8" ref="H110"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -14869,22 +14925,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="128" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14895,277 +14951,277 @@
       <c r="B2" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="39" t="s">
         <v>398</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>700</v>
+      <c r="F2" s="36" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>701</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>702</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>703</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="35" t="s">
-        <v>704</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>705</v>
+        <v>710</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>711</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>712</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="36" t="s">
+        <v>713</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>701</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>702</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>703</v>
-      </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="35" t="s">
-        <v>706</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>707</v>
+        <v>710</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>711</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>712</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="36" t="s">
+        <v>715</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="39" t="s">
         <v>398</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>708</v>
-      </c>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="124"/>
-      <c r="X5" s="124"/>
-      <c r="Y5" s="124"/>
-      <c r="Z5" s="124"/>
+        <v>410</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>717</v>
+      </c>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>709</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>710</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>711</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>712</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>713</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
+        <v>718</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>719</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>720</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>721</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>722</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>714</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>715</v>
+        <v>723</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>724</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>718</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>719</v>
+        <v>726</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>727</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>505</v>
+        <v>730</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>510</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="72" t="s">
-        <v>722</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>723</v>
+      <c r="E8" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="82" t="s">
-        <v>724</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>725</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>505</v>
-      </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82" t="s">
-        <v>726</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>723</v>
+      <c r="A9" s="84" t="s">
+        <v>733</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>734</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>510</v>
+      </c>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84" t="s">
+        <v>735</v>
+      </c>
+      <c r="F9" s="84" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>728</v>
-      </c>
-      <c r="C10" s="125" t="s">
-        <v>729</v>
+        <v>736</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>737</v>
+      </c>
+      <c r="C10" s="130" t="s">
+        <v>738</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="72" t="s">
-        <v>730</v>
-      </c>
-      <c r="F10" s="72" t="s">
-        <v>731</v>
+      <c r="E10" s="39" t="s">
+        <v>739</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>733</v>
+        <v>741</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>742</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="E11" s="72" t="s">
-        <v>736</v>
-      </c>
-      <c r="F11" s="72" t="s">
-        <v>737</v>
+        <v>744</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>745</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="81" t="s">
-        <v>738</v>
-      </c>
-      <c r="B12" s="82" t="s">
-        <v>739</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>740</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>741</v>
-      </c>
-      <c r="E12" s="82" t="s">
-        <v>742</v>
-      </c>
-      <c r="F12" s="126" t="s">
-        <v>743</v>
+      <c r="A12" s="83" t="s">
+        <v>747</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>748</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>749</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>750</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>751</v>
+      </c>
+      <c r="F12" s="131" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>744</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>745</v>
+        <v>753</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>754</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="72" t="s">
-        <v>746</v>
-      </c>
-      <c r="F13" s="127" t="s">
-        <v>747</v>
+      <c r="E13" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="F13" s="132" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="113" t="s">
-        <v>748</v>
-      </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="57" t="s">
-        <v>749</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>750</v>
-      </c>
-      <c r="F14" s="127" t="s">
-        <v>751</v>
+      <c r="A14" s="117" t="s">
+        <v>757</v>
+      </c>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="59" t="s">
+        <v>758</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="F14" s="132" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="15">
@@ -19146,108 +19202,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="128" t="s">
-        <v>752</v>
-      </c>
-      <c r="B2" s="129" t="s">
-        <v>753</v>
+      <c r="A2" s="133" t="s">
+        <v>761</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="130" t="s">
-        <v>754</v>
-      </c>
-      <c r="B3" s="129" t="s">
-        <v>755</v>
+      <c r="A3" s="135" t="s">
+        <v>763</v>
+      </c>
+      <c r="B3" s="134" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="131" t="s">
-        <v>756</v>
+      <c r="A4" s="136" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="132" t="s">
-        <v>757</v>
-      </c>
-      <c r="B6" s="129" t="s">
-        <v>758</v>
+      <c r="A6" s="137" t="s">
+        <v>766</v>
+      </c>
+      <c r="B6" s="134" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="129" t="s">
-        <v>759</v>
+      <c r="B7" s="134" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="129"/>
+      <c r="B8" s="134"/>
     </row>
     <row r="9">
-      <c r="B9" s="129"/>
+      <c r="B9" s="134"/>
     </row>
     <row r="10">
-      <c r="A10" s="132" t="s">
-        <v>760</v>
+      <c r="A10" s="137" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="132" t="s">
-        <v>761</v>
-      </c>
-      <c r="B11" s="133" t="s">
-        <v>762</v>
+      <c r="A11" s="137" t="s">
+        <v>770</v>
+      </c>
+      <c r="B11" s="138" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="134" t="s">
-        <v>763</v>
+      <c r="B12" s="139" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="135"/>
-      <c r="B13" s="136" t="s">
-        <v>764</v>
+      <c r="A13" s="140"/>
+      <c r="B13" s="141" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="137" t="s">
-        <v>765</v>
+      <c r="B14" s="142" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="138" t="s">
-        <v>766</v>
+      <c r="B15" s="143" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="139" t="s">
-        <v>767</v>
+      <c r="B16" s="144" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="132"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="132" t="s">
-        <v>768</v>
-      </c>
-      <c r="B18" s="140" t="s">
-        <v>769</v>
+      <c r="A18" s="137" t="s">
+        <v>777</v>
+      </c>
+      <c r="B18" s="145" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="B19" s="141"/>
+        <v>779</v>
+      </c>
+      <c r="B19" s="146"/>
     </row>
     <row r="21">
-      <c r="A21" s="132" t="s">
-        <v>771</v>
-      </c>
-      <c r="B21" s="142" t="s">
-        <v>772</v>
+      <c r="A21" s="137" t="s">
+        <v>780</v>
+      </c>
+      <c r="B21" s="147" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -19272,48 +19328,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="132" t="s">
-        <v>773</v>
+      <c r="A1" s="137" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="143" t="s">
-        <v>774</v>
+      <c r="A2" s="148" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="129" t="s">
-        <v>775</v>
+      <c r="A3" s="134" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="143" t="s">
-        <v>776</v>
+      <c r="A4" s="148" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="129" t="s">
-        <v>777</v>
+      <c r="A5" s="134" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="129" t="s">
-        <v>778</v>
+      <c r="A6" s="134" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="129" t="s">
-        <v>779</v>
+      <c r="A7" s="134" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="143" t="s">
-        <v>780</v>
+      <c r="A8" s="148" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="129" t="s">
-        <v>781</v>
+      <c r="A9" s="134" t="s">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -19339,48 +19395,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B1" s="144" t="s">
         <v>782</v>
       </c>
+      <c r="B1" s="149" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="145" t="s">
-        <v>783</v>
+      <c r="A2" s="150" t="s">
+        <v>792</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -19399,7 +19455,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="133"/>
+      <c r="A1" s="138"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -19423,40 +19479,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="146" t="s">
-        <v>791</v>
-      </c>
-      <c r="C1" s="146" t="s">
-        <v>792</v>
-      </c>
-      <c r="E1" s="147" t="s">
+      <c r="A1" s="151" t="s">
+        <v>800</v>
+      </c>
+      <c r="C1" s="151" t="s">
+        <v>801</v>
+      </c>
+      <c r="E1" s="152" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="35" t="s">
-        <v>797</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>798</v>
+      <c r="A3" s="36" t="s">
+        <v>806</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>807</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -19465,14 +19521,14 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="35" t="s">
-        <v>800</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>798</v>
+      <c r="A4" s="36" t="s">
+        <v>809</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>807</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19481,288 +19537,288 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="35" t="s">
-        <v>801</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>802</v>
+      <c r="A5" s="36" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>811</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>803</v>
+        <v>808</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>812</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="148" t="s">
-        <v>817</v>
-      </c>
-      <c r="B9" s="149" t="s">
-        <v>818</v>
-      </c>
-      <c r="C9" s="149" t="s">
-        <v>799</v>
-      </c>
-      <c r="D9" s="149" t="s">
-        <v>819</v>
-      </c>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="149"/>
-      <c r="L9" s="149"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="149"/>
-      <c r="O9" s="149"/>
-      <c r="P9" s="149"/>
-      <c r="Q9" s="149"/>
-      <c r="R9" s="149"/>
-      <c r="S9" s="149"/>
-      <c r="T9" s="149"/>
-      <c r="U9" s="149"/>
-      <c r="V9" s="149"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="149"/>
-      <c r="Y9" s="149"/>
-      <c r="Z9" s="149"/>
+      <c r="A9" s="153" t="s">
+        <v>826</v>
+      </c>
+      <c r="B9" s="154" t="s">
+        <v>827</v>
+      </c>
+      <c r="C9" s="154" t="s">
+        <v>808</v>
+      </c>
+      <c r="D9" s="154" t="s">
+        <v>828</v>
+      </c>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="154"/>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="154"/>
+      <c r="S9" s="154"/>
+      <c r="T9" s="154"/>
+      <c r="U9" s="154"/>
+      <c r="V9" s="154"/>
+      <c r="W9" s="154"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="154"/>
+      <c r="Z9" s="154"/>
     </row>
     <row r="10">
-      <c r="A10" s="148" t="s">
-        <v>820</v>
-      </c>
-      <c r="B10" s="149" t="s">
-        <v>818</v>
-      </c>
-      <c r="C10" s="149" t="s">
-        <v>799</v>
-      </c>
-      <c r="D10" s="149" t="s">
-        <v>821</v>
-      </c>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="150"/>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="150"/>
-      <c r="S10" s="150"/>
-      <c r="T10" s="150"/>
-      <c r="U10" s="150"/>
-      <c r="V10" s="150"/>
-      <c r="W10" s="150"/>
-      <c r="X10" s="150"/>
-      <c r="Y10" s="150"/>
-      <c r="Z10" s="150"/>
+      <c r="A10" s="153" t="s">
+        <v>829</v>
+      </c>
+      <c r="B10" s="154" t="s">
+        <v>827</v>
+      </c>
+      <c r="C10" s="154" t="s">
+        <v>808</v>
+      </c>
+      <c r="D10" s="154" t="s">
+        <v>830</v>
+      </c>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="155"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="155"/>
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="155"/>
     </row>
     <row r="11">
-      <c r="A11" s="148" t="s">
-        <v>822</v>
-      </c>
-      <c r="B11" s="149" t="s">
-        <v>823</v>
-      </c>
-      <c r="C11" s="149" t="s">
-        <v>799</v>
-      </c>
-      <c r="D11" s="149" t="s">
-        <v>824</v>
-      </c>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="150"/>
-      <c r="Q11" s="150"/>
-      <c r="R11" s="150"/>
-      <c r="S11" s="150"/>
-      <c r="T11" s="150"/>
-      <c r="U11" s="150"/>
-      <c r="V11" s="150"/>
-      <c r="W11" s="150"/>
-      <c r="X11" s="150"/>
-      <c r="Y11" s="150"/>
-      <c r="Z11" s="150"/>
+      <c r="A11" s="153" t="s">
+        <v>831</v>
+      </c>
+      <c r="B11" s="154" t="s">
+        <v>832</v>
+      </c>
+      <c r="C11" s="154" t="s">
+        <v>808</v>
+      </c>
+      <c r="D11" s="154" t="s">
+        <v>833</v>
+      </c>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="155"/>
+      <c r="S11" s="155"/>
+      <c r="T11" s="155"/>
+      <c r="U11" s="155"/>
+      <c r="V11" s="155"/>
+      <c r="W11" s="155"/>
+      <c r="X11" s="155"/>
+      <c r="Y11" s="155"/>
+      <c r="Z11" s="155"/>
     </row>
     <row r="12">
-      <c r="A12" s="148" t="s">
-        <v>825</v>
-      </c>
-      <c r="B12" s="149" t="s">
-        <v>823</v>
-      </c>
-      <c r="C12" s="149" t="s">
-        <v>799</v>
-      </c>
-      <c r="D12" s="149" t="s">
-        <v>826</v>
-      </c>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="150"/>
-      <c r="Q12" s="150"/>
-      <c r="R12" s="150"/>
-      <c r="S12" s="150"/>
-      <c r="T12" s="150"/>
-      <c r="U12" s="150"/>
-      <c r="V12" s="150"/>
-      <c r="W12" s="150"/>
-      <c r="X12" s="150"/>
-      <c r="Y12" s="150"/>
-      <c r="Z12" s="150"/>
+      <c r="A12" s="153" t="s">
+        <v>834</v>
+      </c>
+      <c r="B12" s="154" t="s">
+        <v>832</v>
+      </c>
+      <c r="C12" s="154" t="s">
+        <v>808</v>
+      </c>
+      <c r="D12" s="154" t="s">
+        <v>835</v>
+      </c>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="155"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="155"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="155"/>
+      <c r="S12" s="155"/>
+      <c r="T12" s="155"/>
+      <c r="U12" s="155"/>
+      <c r="V12" s="155"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="155"/>
+      <c r="Z12" s="155"/>
     </row>
     <row r="13">
-      <c r="A13" s="148" t="s">
-        <v>827</v>
-      </c>
-      <c r="B13" s="148" t="s">
-        <v>802</v>
-      </c>
-      <c r="C13" s="149" t="s">
-        <v>799</v>
-      </c>
-      <c r="D13" s="149" t="s">
-        <v>828</v>
-      </c>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150"/>
-      <c r="O13" s="150"/>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="150"/>
-      <c r="S13" s="150"/>
-      <c r="T13" s="150"/>
-      <c r="U13" s="150"/>
-      <c r="V13" s="150"/>
-      <c r="W13" s="150"/>
-      <c r="X13" s="150"/>
-      <c r="Y13" s="150"/>
-      <c r="Z13" s="150"/>
+      <c r="A13" s="153" t="s">
+        <v>836</v>
+      </c>
+      <c r="B13" s="153" t="s">
+        <v>811</v>
+      </c>
+      <c r="C13" s="154" t="s">
+        <v>808</v>
+      </c>
+      <c r="D13" s="154" t="s">
+        <v>837</v>
+      </c>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="155"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="155"/>
+      <c r="T13" s="155"/>
+      <c r="U13" s="155"/>
+      <c r="V13" s="155"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="155"/>
+      <c r="Z13" s="155"/>
     </row>
     <row r="14">
-      <c r="A14" s="148" t="s">
-        <v>829</v>
-      </c>
-      <c r="B14" s="148" t="s">
-        <v>802</v>
-      </c>
-      <c r="C14" s="149" t="s">
-        <v>799</v>
-      </c>
-      <c r="D14" s="149" t="s">
-        <v>830</v>
-      </c>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="150"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="150"/>
-      <c r="U14" s="150"/>
-      <c r="V14" s="150"/>
-      <c r="W14" s="150"/>
-      <c r="X14" s="150"/>
-      <c r="Y14" s="150"/>
-      <c r="Z14" s="150"/>
+      <c r="A14" s="153" t="s">
+        <v>838</v>
+      </c>
+      <c r="B14" s="153" t="s">
+        <v>811</v>
+      </c>
+      <c r="C14" s="154" t="s">
+        <v>808</v>
+      </c>
+      <c r="D14" s="154" t="s">
+        <v>839</v>
+      </c>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="155"/>
+      <c r="T14" s="155"/>
+      <c r="U14" s="155"/>
+      <c r="V14" s="155"/>
+      <c r="W14" s="155"/>
+      <c r="X14" s="155"/>
+      <c r="Y14" s="155"/>
+      <c r="Z14" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19790,52 +19846,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="151" t="s">
-        <v>791</v>
+      <c r="A1" s="156" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="132" t="s">
-        <v>793</v>
-      </c>
-      <c r="B2" s="132" t="s">
-        <v>794</v>
-      </c>
-      <c r="C2" s="132" t="s">
-        <v>795</v>
-      </c>
-      <c r="D2" s="132" t="s">
-        <v>796</v>
+      <c r="A2" s="137" t="s">
+        <v>802</v>
+      </c>
+      <c r="B2" s="137" t="s">
+        <v>803</v>
+      </c>
+      <c r="C2" s="137" t="s">
+        <v>804</v>
+      </c>
+      <c r="D2" s="137" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="129" t="s">
-        <v>831</v>
-      </c>
-      <c r="B3" s="129" t="s">
-        <v>832</v>
+      <c r="A3" s="134" t="s">
+        <v>840</v>
+      </c>
+      <c r="B3" s="134" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="129" t="s">
-        <v>833</v>
-      </c>
-      <c r="B4" s="129" t="s">
-        <v>834</v>
+      <c r="A4" s="134" t="s">
+        <v>842</v>
+      </c>
+      <c r="B4" s="134" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="129" t="s">
-        <v>835</v>
-      </c>
-      <c r="B5" s="129" t="s">
-        <v>836</v>
-      </c>
-      <c r="C5" s="152" t="s">
-        <v>834</v>
-      </c>
-      <c r="D5" s="129" t="s">
-        <v>837</v>
+      <c r="A5" s="134" t="s">
+        <v>844</v>
+      </c>
+      <c r="B5" s="134" t="s">
+        <v>845</v>
+      </c>
+      <c r="C5" s="157" t="s">
+        <v>843</v>
+      </c>
+      <c r="D5" s="134" t="s">
+        <v>846</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F12/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F12/transformation/conceptual_mappings.xlsx
@@ -3362,7 +3362,7 @@
     <t>epo:Lot / epo:SelectionCriterion / rdf:langString</t>
   </si>
   <si>
-    <t>?this epo:specifiesSelectionCriterion / ccev:description ?value .</t>
+    <t>?this epo:specifiesSelectionCriterion / cccev:description ?value .</t>
   </si>
   <si>
     <t>epo:Procedure / epo:ParticipationConditionsSummary / rdf:langString</t>
@@ -5868,7 +5868,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="157">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5944,8 +5944,8 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -5955,9 +5955,6 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -9781,25 +9778,25 @@
       <c r="D2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="28"/>
@@ -9819,27 +9816,27 @@
       <c r="Z2" s="28"/>
     </row>
     <row r="3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35" t="s">
         <v>49</v>
       </c>
       <c r="L3" s="28"/>
@@ -9851,25 +9848,25 @@
       <c r="R3" s="28"/>
     </row>
     <row r="4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="39" t="s">
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="38" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="28"/>
@@ -9881,20 +9878,20 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="7"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -9905,20 +9902,20 @@
       <c r="R5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="7"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -9929,26 +9926,26 @@
       <c r="R6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="7"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -9959,26 +9956,26 @@
       <c r="R7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="7"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -9989,32 +9986,32 @@
       <c r="R8" s="28"/>
     </row>
     <row r="9">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45" t="s">
+      <c r="F9" s="44"/>
+      <c r="G9" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="36"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="7"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -10025,32 +10022,32 @@
       <c r="R9" s="28"/>
     </row>
     <row r="10">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46" t="s">
+      <c r="F10" s="45"/>
+      <c r="G10" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="36"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="7"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
@@ -10061,10 +10058,10 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -10073,18 +10070,18 @@
       <c r="D11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="7"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
@@ -10095,10 +10092,10 @@
       <c r="R11" s="28"/>
     </row>
     <row r="12">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -10107,18 +10104,18 @@
       <c r="D12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="7"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
@@ -10129,32 +10126,32 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="7"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -10165,10 +10162,10 @@
       <c r="R13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -10177,18 +10174,18 @@
       <c r="D14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="7"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -10199,30 +10196,30 @@
       <c r="R14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="7"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
@@ -10233,32 +10230,32 @@
       <c r="R15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="36"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="7"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -10269,10 +10266,10 @@
       <c r="R16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>122</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -10281,18 +10278,18 @@
       <c r="D17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37" t="s">
+      <c r="F17" s="35"/>
+      <c r="G17" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="7"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
@@ -10303,10 +10300,10 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -10315,18 +10312,18 @@
       <c r="D18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="7"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
@@ -10337,10 +10334,10 @@
       <c r="R18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>135</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -10349,18 +10346,18 @@
       <c r="D19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37" t="s">
+      <c r="F19" s="35"/>
+      <c r="G19" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="7"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
@@ -10371,20 +10368,20 @@
       <c r="R19" s="28"/>
     </row>
     <row r="20">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>141</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="7"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -10395,30 +10392,30 @@
       <c r="R20" s="28"/>
     </row>
     <row r="21">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="7"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
@@ -10429,10 +10426,10 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="53" t="s">
         <v>149</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -10441,18 +10438,18 @@
       <c r="D22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36" t="s">
+      <c r="F22" s="35"/>
+      <c r="G22" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="7"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -10463,103 +10460,103 @@
       <c r="R22" s="28"/>
     </row>
     <row r="23">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
     </row>
     <row r="24">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36" t="s">
+      <c r="F24" s="35"/>
+      <c r="G24" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
     </row>
     <row r="25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="I25" s="46" t="s">
+      <c r="I25" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="57"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
@@ -10569,33 +10566,33 @@
       <c r="R25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46" t="s">
+      <c r="F26" s="45"/>
+      <c r="G26" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="57"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
@@ -10605,10 +10602,10 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -10617,18 +10614,18 @@
       <c r="D27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36" t="s">
+      <c r="F27" s="35"/>
+      <c r="G27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="7"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
@@ -10639,10 +10636,10 @@
       <c r="R27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -10651,18 +10648,18 @@
       <c r="D28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36" t="s">
+      <c r="F28" s="35"/>
+      <c r="G28" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="7"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
@@ -10673,54 +10670,54 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
     </row>
     <row r="30">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="47" t="s">
         <v>102</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -10729,18 +10726,18 @@
       <c r="D30" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36" t="s">
+      <c r="F30" s="35"/>
+      <c r="G30" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="7"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
@@ -10751,31 +10748,31 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45" t="s">
+      <c r="F31" s="44"/>
+      <c r="G31" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="57"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="56"/>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
@@ -10785,10 +10782,10 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="47" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -10797,20 +10794,20 @@
       <c r="D32" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37" t="s">
+      <c r="F32" s="35"/>
+      <c r="G32" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="H32" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I32" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="36"/>
+      <c r="J32" s="35"/>
       <c r="K32" s="7"/>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
@@ -10821,10 +10818,10 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="47" t="s">
         <v>122</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -10833,18 +10830,18 @@
       <c r="D33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37" t="s">
+      <c r="F33" s="35"/>
+      <c r="G33" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="H33" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
       <c r="K33" s="7"/>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -10855,10 +10852,10 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="47" t="s">
         <v>128</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -10867,18 +10864,18 @@
       <c r="D34" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37" t="s">
+      <c r="F34" s="35"/>
+      <c r="G34" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="7"/>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
@@ -10889,10 +10886,10 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
         <v>135</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -10901,50 +10898,50 @@
       <c r="D35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="58" t="s">
+      <c r="F35" s="35"/>
+      <c r="G35" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
     </row>
     <row r="36">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="47" t="s">
         <v>141</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
       <c r="K36" s="7"/>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
@@ -10955,31 +10952,31 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62" t="s">
+      <c r="F37" s="60"/>
+      <c r="G37" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="H37" s="62" t="s">
+      <c r="H37" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="57"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="56"/>
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
@@ -10989,10 +10986,10 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="53" t="s">
         <v>149</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -11001,17 +10998,17 @@
       <c r="D38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36" t="s">
+      <c r="F38" s="35"/>
+      <c r="G38" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H38" s="49" t="s">
+      <c r="H38" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="I38" s="39"/>
+      <c r="I38" s="38"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="28"/>
@@ -11023,10 +11020,10 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="40" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="4"/>
@@ -11035,7 +11032,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="39"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="28"/>
@@ -11047,67 +11044,67 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="42" t="s">
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="37" t="s">
+      <c r="F40" s="44"/>
+      <c r="G40" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="H40" s="49" t="s">
+      <c r="H40" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="I40" s="39"/>
+      <c r="I40" s="38"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
     </row>
     <row r="41">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37" t="s">
+      <c r="F41" s="36"/>
+      <c r="G41" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="H41" s="49" t="s">
+      <c r="H41" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="38" t="s">
         <v>198</v>
       </c>
       <c r="J41" s="7"/>
@@ -11121,25 +11118,25 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46" t="s">
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="36" t="s">
+      <c r="F42" s="44"/>
+      <c r="G42" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="H42" s="36" t="s">
+      <c r="H42" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="I42" s="39"/>
+      <c r="I42" s="38"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="28"/>
@@ -11151,24 +11148,24 @@
       <c r="R42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="40" t="s">
         <v>205</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="F43" s="63" t="s">
+      <c r="F43" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="G43" s="63" t="s">
+      <c r="G43" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="H43" s="63" t="s">
+      <c r="H43" s="62" t="s">
         <v>209</v>
       </c>
       <c r="I43" s="7"/>
@@ -11183,24 +11180,24 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49" t="s">
+      <c r="D44" s="48"/>
+      <c r="E44" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49" t="s">
+      <c r="F44" s="48"/>
+      <c r="G44" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="H44" s="49" t="s">
+      <c r="H44" s="48" t="s">
         <v>215</v>
       </c>
       <c r="I44" s="7"/>
@@ -11215,26 +11212,26 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49" t="s">
+      <c r="D45" s="48"/>
+      <c r="E45" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="G45" s="49" t="s">
+      <c r="G45" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="H45" s="49" t="s">
+      <c r="H45" s="48" t="s">
         <v>222</v>
       </c>
       <c r="I45" s="7"/>
@@ -11249,24 +11246,24 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59" t="s">
+      <c r="D46" s="58"/>
+      <c r="E46" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59" t="s">
+      <c r="F46" s="58"/>
+      <c r="G46" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="H46" s="65" t="s">
+      <c r="H46" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I46" s="7"/>
@@ -11281,26 +11278,26 @@
       <c r="R46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="42" t="s">
+      <c r="D47" s="48"/>
+      <c r="E47" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="H47" s="49" t="s">
+      <c r="H47" s="48" t="s">
         <v>231</v>
       </c>
       <c r="I47" s="4"/>
@@ -11315,16 +11312,16 @@
       <c r="R47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -11339,10 +11336,10 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="53" t="s">
         <v>235</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -11353,50 +11350,50 @@
         <v>237</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="63" t="s">
+      <c r="G49" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H49" s="63" t="s">
+      <c r="H49" s="62" t="s">
         <v>61</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
     </row>
     <row r="50">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="C50" s="68" t="s">
+      <c r="C50" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="69" t="s">
+      <c r="D50" s="67"/>
+      <c r="E50" s="68" t="s">
         <v>237</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="63" t="s">
+      <c r="G50" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="H50" s="63" t="s">
+      <c r="H50" s="62" t="s">
         <v>239</v>
       </c>
       <c r="I50" s="7"/>
@@ -11411,10 +11408,10 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="53" t="s">
         <v>241</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -11425,15 +11422,15 @@
         <v>242</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="70" t="s">
+      <c r="G51" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="69" t="s">
         <v>61</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="57"/>
+      <c r="K51" s="56"/>
       <c r="L51" s="28"/>
       <c r="M51" s="28"/>
       <c r="N51" s="28"/>
@@ -11443,10 +11440,10 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="71" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -11459,13 +11456,13 @@
         <v>244</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="70" t="s">
+      <c r="G52" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="73" t="s">
+      <c r="H52" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="I52" s="39" t="s">
+      <c r="I52" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J52" s="7"/>
@@ -11479,29 +11476,29 @@
       <c r="R52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="70" t="s">
+      <c r="F53" s="48"/>
+      <c r="G53" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="H53" s="73" t="s">
+      <c r="H53" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="I53" s="39" t="s">
+      <c r="I53" s="38" t="s">
         <v>79</v>
       </c>
       <c r="J53" s="7"/>
@@ -11515,10 +11512,10 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="71" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -11531,10 +11528,10 @@
         <v>250</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="74" t="s">
+      <c r="G54" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="75" t="s">
+      <c r="H54" s="74" t="s">
         <v>251</v>
       </c>
       <c r="I54" s="7"/>
@@ -11549,10 +11546,10 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="71" t="s">
+      <c r="A55" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="71" t="s">
         <v>88</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -11565,10 +11562,10 @@
         <v>253</v>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="74" t="s">
+      <c r="G55" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="H55" s="75" t="s">
+      <c r="H55" s="74" t="s">
         <v>254</v>
       </c>
       <c r="I55" s="7"/>
@@ -11583,28 +11580,28 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="71" t="s">
+      <c r="A56" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="G56" s="70" t="s">
+      <c r="G56" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="73" t="s">
+      <c r="H56" s="72" t="s">
         <v>258</v>
       </c>
       <c r="I56" s="7"/>
@@ -11619,10 +11616,10 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="71" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -11635,10 +11632,10 @@
         <v>260</v>
       </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="70" t="s">
+      <c r="G57" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H57" s="73" t="s">
+      <c r="H57" s="72" t="s">
         <v>261</v>
       </c>
       <c r="I57" s="7"/>
@@ -11653,10 +11650,10 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="71" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -11669,10 +11666,10 @@
         <v>263</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="70" t="s">
+      <c r="G58" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="H58" s="73" t="s">
+      <c r="H58" s="72" t="s">
         <v>264</v>
       </c>
       <c r="I58" s="7"/>
@@ -11687,10 +11684,10 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="71" t="s">
         <v>116</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -11703,13 +11700,13 @@
         <v>266</v>
       </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="70" t="s">
+      <c r="G59" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H59" s="73" t="s">
+      <c r="H59" s="72" t="s">
         <v>267</v>
       </c>
-      <c r="I59" s="39" t="s">
+      <c r="I59" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J59" s="7"/>
@@ -11723,10 +11720,10 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="71" t="s">
+      <c r="A60" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="71" t="s">
         <v>122</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -11739,10 +11736,10 @@
         <v>269</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="70" t="s">
+      <c r="G60" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H60" s="73" t="s">
+      <c r="H60" s="72" t="s">
         <v>270</v>
       </c>
       <c r="I60" s="7"/>
@@ -11757,10 +11754,10 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="71" t="s">
         <v>128</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -11773,10 +11770,10 @@
         <v>272</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="70" t="s">
+      <c r="G61" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="H61" s="73" t="s">
+      <c r="H61" s="72" t="s">
         <v>273</v>
       </c>
       <c r="I61" s="7"/>
@@ -11791,10 +11788,10 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="71" t="s">
+      <c r="A62" s="70" t="s">
         <v>274</v>
       </c>
-      <c r="B62" s="72" t="s">
+      <c r="B62" s="71" t="s">
         <v>135</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -11807,10 +11804,10 @@
         <v>275</v>
       </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="70" t="s">
+      <c r="G62" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H62" s="73" t="s">
+      <c r="H62" s="72" t="s">
         <v>276</v>
       </c>
       <c r="I62" s="7"/>
@@ -11825,10 +11822,10 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="71" t="s">
         <v>141</v>
       </c>
       <c r="C63" s="4"/>
@@ -11849,31 +11846,31 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="76" t="s">
+      <c r="A64" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C64" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="E64" s="45" t="s">
+      <c r="E64" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78" t="s">
+      <c r="F64" s="76"/>
+      <c r="G64" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="H64" s="78" t="s">
+      <c r="H64" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
       <c r="N64" s="28"/>
@@ -11883,10 +11880,10 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="47" t="s">
         <v>282</v>
       </c>
       <c r="C65" s="4"/>
@@ -11907,24 +11904,24 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="53" t="s">
         <v>284</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>285</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="63" t="s">
+      <c r="E66" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="F66" s="79"/>
-      <c r="G66" s="63" t="s">
+      <c r="F66" s="78"/>
+      <c r="G66" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="H66" s="63" t="s">
+      <c r="H66" s="62" t="s">
         <v>288</v>
       </c>
       <c r="I66" s="7"/>
@@ -11939,24 +11936,24 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="B67" s="54" t="s">
+      <c r="B67" s="53" t="s">
         <v>290</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="63" t="s">
+      <c r="E67" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="F67" s="79"/>
-      <c r="G67" s="63" t="s">
+      <c r="F67" s="78"/>
+      <c r="G67" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H67" s="63" t="s">
+      <c r="H67" s="62" t="s">
         <v>61</v>
       </c>
       <c r="I67" s="7"/>
@@ -11971,27 +11968,27 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="80" t="s">
+      <c r="A68" s="79" t="s">
         <v>289</v>
       </c>
-      <c r="B68" s="81" t="s">
+      <c r="B68" s="80" t="s">
         <v>290</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="82" t="s">
+      <c r="E68" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="F68" s="83"/>
-      <c r="G68" s="84" t="s">
+      <c r="F68" s="82"/>
+      <c r="G68" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="H68" s="84" t="s">
+      <c r="H68" s="83" t="s">
         <v>239</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="39" t="s">
+      <c r="K68" s="38" t="s">
         <v>293</v>
       </c>
       <c r="L68" s="28"/>
@@ -12003,24 +12000,24 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="53" t="s">
         <v>295</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D69" s="4"/>
-      <c r="E69" s="63" t="s">
+      <c r="E69" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="F69" s="79"/>
-      <c r="G69" s="63" t="s">
+      <c r="F69" s="78"/>
+      <c r="G69" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H69" s="63" t="s">
+      <c r="H69" s="62" t="s">
         <v>61</v>
       </c>
       <c r="I69" s="7"/>
@@ -12035,29 +12032,29 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="71" t="s">
+      <c r="A70" s="70" t="s">
         <v>297</v>
       </c>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="36" t="s">
+      <c r="D70" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E70" s="63" t="s">
+      <c r="E70" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="F70" s="79"/>
-      <c r="G70" s="63" t="s">
+      <c r="F70" s="78"/>
+      <c r="G70" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="H70" s="63" t="s">
+      <c r="H70" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="I70" s="39" t="s">
+      <c r="I70" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J70" s="7"/>
@@ -12071,29 +12068,29 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="B71" s="72" t="s">
+      <c r="B71" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="63" t="s">
+      <c r="E71" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="F71" s="79"/>
-      <c r="G71" s="63" t="s">
+      <c r="F71" s="78"/>
+      <c r="G71" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="H71" s="63" t="s">
+      <c r="H71" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="I71" s="39" t="s">
+      <c r="I71" s="38" t="s">
         <v>79</v>
       </c>
       <c r="J71" s="7"/>
@@ -12107,26 +12104,26 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="71" t="s">
+      <c r="A72" s="70" t="s">
         <v>303</v>
       </c>
-      <c r="B72" s="72" t="s">
+      <c r="B72" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C72" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D72" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="63" t="s">
+      <c r="E72" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="F72" s="83"/>
-      <c r="G72" s="63" t="s">
+      <c r="F72" s="82"/>
+      <c r="G72" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="H72" s="63" t="s">
+      <c r="H72" s="62" t="s">
         <v>305</v>
       </c>
       <c r="I72" s="7"/>
@@ -12141,26 +12138,26 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="71" t="s">
+      <c r="A73" s="70" t="s">
         <v>306</v>
       </c>
-      <c r="B73" s="72" t="s">
+      <c r="B73" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="E73" s="63" t="s">
+      <c r="E73" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="F73" s="83"/>
-      <c r="G73" s="63" t="s">
+      <c r="F73" s="82"/>
+      <c r="G73" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="H73" s="85" t="s">
+      <c r="H73" s="84" t="s">
         <v>308</v>
       </c>
       <c r="I73" s="7"/>
@@ -12175,28 +12172,28 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="71" t="s">
+      <c r="A74" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="B74" s="72" t="s">
+      <c r="B74" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="63" t="s">
+      <c r="E74" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="F74" s="63" t="s">
+      <c r="F74" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="G74" s="63" t="s">
+      <c r="G74" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="H74" s="85" t="s">
+      <c r="H74" s="84" t="s">
         <v>312</v>
       </c>
       <c r="I74" s="7"/>
@@ -12211,26 +12208,26 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="70" t="s">
         <v>313</v>
       </c>
-      <c r="B75" s="72" t="s">
+      <c r="B75" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="63" t="s">
+      <c r="E75" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="F75" s="79"/>
-      <c r="G75" s="63" t="s">
+      <c r="F75" s="78"/>
+      <c r="G75" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="H75" s="63" t="s">
+      <c r="H75" s="62" t="s">
         <v>315</v>
       </c>
       <c r="I75" s="7"/>
@@ -12245,26 +12242,26 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="71" t="s">
+      <c r="A76" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="36" t="s">
+      <c r="D76" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E76" s="63" t="s">
+      <c r="E76" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="F76" s="79"/>
-      <c r="G76" s="63" t="s">
+      <c r="F76" s="78"/>
+      <c r="G76" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="H76" s="85" t="s">
+      <c r="H76" s="84" t="s">
         <v>318</v>
       </c>
       <c r="I76" s="7"/>
@@ -12279,29 +12276,29 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="71" t="s">
+      <c r="A77" s="70" t="s">
         <v>319</v>
       </c>
-      <c r="B77" s="72" t="s">
+      <c r="B77" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="36" t="s">
+      <c r="D77" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E77" s="63" t="s">
+      <c r="E77" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="F77" s="83"/>
-      <c r="G77" s="63" t="s">
+      <c r="F77" s="82"/>
+      <c r="G77" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H77" s="85" t="s">
+      <c r="H77" s="84" t="s">
         <v>321</v>
       </c>
-      <c r="I77" s="39" t="s">
+      <c r="I77" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J77" s="7"/>
@@ -12315,26 +12312,26 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="71" t="s">
+      <c r="A78" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="B78" s="72" t="s">
+      <c r="B78" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D78" s="36" t="s">
+      <c r="D78" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E78" s="63" t="s">
+      <c r="E78" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="F78" s="79"/>
-      <c r="G78" s="63" t="s">
+      <c r="F78" s="78"/>
+      <c r="G78" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H78" s="85" t="s">
+      <c r="H78" s="84" t="s">
         <v>324</v>
       </c>
       <c r="I78" s="7"/>
@@ -12349,26 +12346,26 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="71" t="s">
+      <c r="A79" s="70" t="s">
         <v>325</v>
       </c>
-      <c r="B79" s="72" t="s">
+      <c r="B79" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D79" s="36" t="s">
+      <c r="D79" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E79" s="63" t="s">
+      <c r="E79" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="F79" s="79"/>
-      <c r="G79" s="63" t="s">
+      <c r="F79" s="78"/>
+      <c r="G79" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="H79" s="63" t="s">
+      <c r="H79" s="62" t="s">
         <v>327</v>
       </c>
       <c r="I79" s="7"/>
@@ -12383,26 +12380,26 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="71" t="s">
+      <c r="A80" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="B80" s="72" t="s">
+      <c r="B80" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D80" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E80" s="63" t="s">
+      <c r="E80" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="F80" s="79"/>
-      <c r="G80" s="63" t="s">
+      <c r="F80" s="78"/>
+      <c r="G80" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H80" s="63" t="s">
+      <c r="H80" s="62" t="s">
         <v>330</v>
       </c>
       <c r="I80" s="7"/>
@@ -12417,18 +12414,18 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="71" t="s">
+      <c r="A81" s="70" t="s">
         <v>331</v>
       </c>
-      <c r="B81" s="72" t="s">
+      <c r="B81" s="71" t="s">
         <v>141</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -12441,26 +12438,26 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="85" t="s">
         <v>332</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E82" s="63" t="s">
+      <c r="E82" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="F82" s="79"/>
-      <c r="G82" s="63" t="s">
+      <c r="F82" s="78"/>
+      <c r="G82" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="H82" s="63" t="s">
+      <c r="H82" s="62" t="s">
         <v>334</v>
       </c>
       <c r="I82" s="7"/>
@@ -12475,24 +12472,24 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="B83" s="48" t="s">
+      <c r="B83" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49" t="s">
+      <c r="D83" s="48"/>
+      <c r="E83" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="49" t="s">
+      <c r="F83" s="58"/>
+      <c r="G83" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="H83" s="49" t="s">
+      <c r="H83" s="48" t="s">
         <v>340</v>
       </c>
       <c r="I83" s="7"/>
@@ -12507,24 +12504,24 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="87" t="s">
+      <c r="A84" s="86" t="s">
         <v>335</v>
       </c>
-      <c r="B84" s="88" t="s">
+      <c r="B84" s="87" t="s">
         <v>336</v>
       </c>
-      <c r="C84" s="89" t="s">
+      <c r="C84" s="88" t="s">
         <v>337</v>
       </c>
-      <c r="D84" s="89"/>
-      <c r="E84" s="90" t="s">
+      <c r="D84" s="88"/>
+      <c r="E84" s="89" t="s">
         <v>338</v>
       </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="89" t="s">
+      <c r="F84" s="36"/>
+      <c r="G84" s="88" t="s">
         <v>341</v>
       </c>
-      <c r="H84" s="89" t="s">
+      <c r="H84" s="88" t="s">
         <v>342</v>
       </c>
       <c r="I84" s="7"/>
@@ -12539,10 +12536,10 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="39" t="s">
         <v>343</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="40" t="s">
         <v>344</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -12551,19 +12548,19 @@
       <c r="D85" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="E85" s="42" t="s">
+      <c r="E85" s="41" t="s">
         <v>347</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H85" s="36" t="s">
+      <c r="H85" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="39" t="s">
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38" t="s">
         <v>350</v>
       </c>
       <c r="L85" s="28"/>
@@ -12575,20 +12572,20 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="47" t="s">
+      <c r="A86" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="B86" s="48"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="36" t="s">
+      <c r="E86" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36" t="s">
+      <c r="F86" s="35"/>
+      <c r="G86" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="H86" s="36" t="s">
+      <c r="H86" s="35" t="s">
         <v>354</v>
       </c>
       <c r="I86" s="7"/>
@@ -12603,10 +12600,10 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="40" t="s">
         <v>356</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -12615,37 +12612,37 @@
       <c r="D87" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E87" s="91" t="s">
+      <c r="E87" s="90" t="s">
         <v>359</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H87" s="39" t="s">
+      <c r="H87" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39" t="s">
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="B88" s="48"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="36" t="s">
+      <c r="E88" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36" t="s">
+      <c r="F88" s="35"/>
+      <c r="G88" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="H88" s="36" t="s">
+      <c r="H88" s="35" t="s">
         <v>364</v>
       </c>
       <c r="I88" s="7"/>
@@ -12653,10 +12650,10 @@
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="40" t="s">
         <v>366</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -12665,46 +12662,46 @@
       <c r="D89" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="41" t="s">
         <v>367</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="H89" s="36" t="s">
+      <c r="H89" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="B90" s="48"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="36" t="s">
+      <c r="E90" s="35" t="s">
         <v>370</v>
       </c>
       <c r="F90" s="4"/>
-      <c r="G90" s="36" t="s">
+      <c r="G90" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="H90" s="36" t="s">
+      <c r="H90" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="B91" s="92" t="s">
+      <c r="B91" s="91" t="s">
         <v>373</v>
       </c>
       <c r="C91" s="7"/>
@@ -12718,27 +12715,27 @@
       <c r="K91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="40" t="s">
         <v>375</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="B93" s="48" t="s">
+      <c r="B93" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -12747,56 +12744,56 @@
       <c r="D93" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="39" t="s">
+      <c r="E93" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39" t="s">
+      <c r="F93" s="38"/>
+      <c r="G93" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="H93" s="39" t="s">
+      <c r="H93" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="I93" s="39" t="s">
+      <c r="I93" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="J93" s="39"/>
-      <c r="K93" s="39"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="38"/>
     </row>
     <row r="94">
-      <c r="A94" s="51" t="s">
+      <c r="A94" s="50" t="s">
         <v>381</v>
       </c>
-      <c r="B94" s="52" t="s">
+      <c r="B94" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="C94" s="46" t="s">
+      <c r="C94" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="D94" s="46" t="s">
+      <c r="D94" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="E94" s="46" t="s">
+      <c r="E94" s="45" t="s">
         <v>385</v>
       </c>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46" t="s">
+      <c r="F94" s="45"/>
+      <c r="G94" s="45" t="s">
         <v>386</v>
       </c>
-      <c r="H94" s="46" t="s">
+      <c r="H94" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="I94" s="61" t="s">
+      <c r="I94" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J94" s="57"/>
+      <c r="J94" s="56"/>
       <c r="K94" s="7"/>
     </row>
     <row r="95">
-      <c r="A95" s="47" t="s">
+      <c r="A95" s="46" t="s">
         <v>388</v>
       </c>
-      <c r="B95" s="48" t="s">
+      <c r="B95" s="47" t="s">
         <v>389</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -12805,14 +12802,14 @@
       <c r="D95" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E95" s="36" t="s">
+      <c r="E95" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36" t="s">
+      <c r="F95" s="35"/>
+      <c r="G95" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="H95" s="63" t="s">
+      <c r="H95" s="62" t="s">
         <v>394</v>
       </c>
       <c r="I95" s="7"/>
@@ -12820,10 +12817,10 @@
       <c r="K95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="53" t="s">
+      <c r="A96" s="52" t="s">
         <v>395</v>
       </c>
-      <c r="B96" s="54" t="s">
+      <c r="B96" s="53" t="s">
         <v>396</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -12832,42 +12829,42 @@
       <c r="D96" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E96" s="36" t="s">
+      <c r="E96" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="39" t="s">
+      <c r="K96" s="38" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="40" t="s">
+      <c r="A97" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="B97" s="41" t="s">
+      <c r="B97" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="42" t="s">
+      <c r="E97" s="41" t="s">
         <v>402</v>
       </c>
       <c r="F97" s="4"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="47" t="s">
+      <c r="A98" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="B98" s="48" t="s">
+      <c r="B98" s="47" t="s">
         <v>404</v>
       </c>
       <c r="C98" s="4"/>
@@ -12881,10 +12878,10 @@
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="53" t="s">
+      <c r="A99" s="52" t="s">
         <v>405</v>
       </c>
-      <c r="B99" s="54" t="s">
+      <c r="B99" s="53" t="s">
         <v>389</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -12893,14 +12890,14 @@
       <c r="D99" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E99" s="36" t="s">
+      <c r="E99" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36" t="s">
+      <c r="F99" s="35"/>
+      <c r="G99" s="35" t="s">
         <v>407</v>
       </c>
-      <c r="H99" s="36" t="s">
+      <c r="H99" s="35" t="s">
         <v>408</v>
       </c>
       <c r="I99" s="7"/>
@@ -12908,10 +12905,10 @@
       <c r="K99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="53" t="s">
+      <c r="A100" s="52" t="s">
         <v>409</v>
       </c>
-      <c r="B100" s="54" t="s">
+      <c r="B100" s="53" t="s">
         <v>396</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -12920,52 +12917,52 @@
       <c r="D100" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E100" s="36" t="s">
+      <c r="E100" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
-      <c r="K100" s="39" t="s">
+      <c r="K100" s="38" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="47" t="s">
+      <c r="A101" s="46" t="s">
         <v>411</v>
       </c>
-      <c r="B101" s="48" t="s">
+      <c r="B101" s="47" t="s">
         <v>412</v>
       </c>
-      <c r="C101" s="49" t="s">
+      <c r="C101" s="48" t="s">
         <v>413</v>
       </c>
-      <c r="D101" s="49" t="s">
+      <c r="D101" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="36" t="s">
+      <c r="E101" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36" t="s">
+      <c r="F101" s="35"/>
+      <c r="G101" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="H101" s="93" t="s">
+      <c r="H101" s="92" t="s">
         <v>416</v>
       </c>
-      <c r="I101" s="39" t="s">
+      <c r="I101" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
     </row>
     <row r="102">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="B102" s="48" t="s">
+      <c r="B102" s="47" t="s">
         <v>418</v>
       </c>
       <c r="C102" s="4"/>
@@ -12979,47 +12976,47 @@
       <c r="K102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="53" t="s">
+      <c r="A103" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="B103" s="54" t="s">
+      <c r="B103" s="53" t="s">
         <v>420</v>
       </c>
-      <c r="C103" s="49" t="s">
+      <c r="C103" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="D103" s="49" t="s">
+      <c r="D103" s="48" t="s">
         <v>422</v>
       </c>
-      <c r="E103" s="37"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="37"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="71" t="s">
+      <c r="A104" s="70" t="s">
         <v>423</v>
       </c>
-      <c r="B104" s="72" t="s">
+      <c r="B104" s="71" t="s">
         <v>424</v>
       </c>
-      <c r="C104" s="49" t="s">
+      <c r="C104" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="D104" s="49" t="s">
+      <c r="D104" s="48" t="s">
         <v>422</v>
       </c>
-      <c r="E104" s="37" t="s">
+      <c r="E104" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="F104" s="36"/>
-      <c r="G104" s="37" t="s">
+      <c r="F104" s="35"/>
+      <c r="G104" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="H104" s="94" t="s">
+      <c r="H104" s="93" t="s">
         <v>427</v>
       </c>
       <c r="I104" s="7"/>
@@ -13027,10 +13024,10 @@
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="71" t="s">
+      <c r="A105" s="70" t="s">
         <v>428</v>
       </c>
-      <c r="B105" s="72" t="s">
+      <c r="B105" s="71" t="s">
         <v>429</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -13039,14 +13036,14 @@
       <c r="D105" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="E105" s="37" t="s">
+      <c r="E105" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="F105" s="36"/>
-      <c r="G105" s="37" t="s">
+      <c r="F105" s="35"/>
+      <c r="G105" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="H105" s="94" t="s">
+      <c r="H105" s="93" t="s">
         <v>431</v>
       </c>
       <c r="I105" s="7"/>
@@ -13054,129 +13051,129 @@
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="53" t="s">
+      <c r="A106" s="52" t="s">
         <v>432</v>
       </c>
-      <c r="B106" s="54" t="s">
+      <c r="B106" s="53" t="s">
         <v>433</v>
       </c>
-      <c r="C106" s="49" t="s">
+      <c r="C106" s="48" t="s">
         <v>434</v>
       </c>
-      <c r="D106" s="59" t="s">
+      <c r="D106" s="58" t="s">
         <v>435</v>
       </c>
-      <c r="E106" s="91" t="s">
+      <c r="E106" s="90" t="s">
         <v>425</v>
       </c>
-      <c r="F106" s="58"/>
-      <c r="G106" s="59" t="s">
+      <c r="F106" s="57"/>
+      <c r="G106" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="H106" s="95" t="s">
+      <c r="H106" s="94" t="s">
         <v>437</v>
       </c>
-      <c r="I106" s="39" t="s">
+      <c r="I106" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="34" t="s">
+      <c r="A107" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="B107" s="92" t="s">
+      <c r="B107" s="91" t="s">
         <v>439</v>
       </c>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="49"/>
-      <c r="H107" s="49"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="40" t="s">
+      <c r="A108" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="B108" s="41" t="s">
+      <c r="B108" s="40" t="s">
         <v>441</v>
       </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="49"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="49"/>
-      <c r="H108" s="49"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="96" t="s">
+      <c r="A109" s="95" t="s">
         <v>442</v>
       </c>
-      <c r="B109" s="97" t="s">
+      <c r="B109" s="96" t="s">
         <v>443</v>
       </c>
-      <c r="C109" s="98" t="s">
+      <c r="C109" s="97" t="s">
         <v>444</v>
       </c>
-      <c r="D109" s="99" t="s">
+      <c r="D109" s="98" t="s">
         <v>445</v>
       </c>
-      <c r="E109" s="99" t="s">
+      <c r="E109" s="98" t="s">
         <v>446</v>
       </c>
       <c r="F109" s="7"/>
-      <c r="G109" s="100" t="s">
+      <c r="G109" s="99" t="s">
         <v>447</v>
       </c>
-      <c r="H109" s="100" t="s">
+      <c r="H109" s="99" t="s">
         <v>448</v>
       </c>
-      <c r="I109" s="101" t="s">
+      <c r="I109" s="100" t="s">
         <v>449</v>
       </c>
-      <c r="J109" s="101" t="s">
+      <c r="J109" s="100" t="s">
         <v>450</v>
       </c>
-      <c r="K109" s="102" t="s">
+      <c r="K109" s="101" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="96" t="s">
+      <c r="A110" s="95" t="s">
         <v>442</v>
       </c>
-      <c r="B110" s="97" t="s">
+      <c r="B110" s="96" t="s">
         <v>443</v>
       </c>
-      <c r="C110" s="98" t="s">
+      <c r="C110" s="97" t="s">
         <v>452</v>
       </c>
-      <c r="D110" s="103" t="s">
+      <c r="D110" s="102" t="s">
         <v>445</v>
       </c>
-      <c r="E110" s="104" t="s">
+      <c r="E110" s="103" t="s">
         <v>446</v>
       </c>
       <c r="F110" s="4"/>
-      <c r="G110" s="105"/>
-      <c r="H110" s="105"/>
-      <c r="I110" s="99"/>
-      <c r="J110" s="99"/>
-      <c r="K110" s="102"/>
+      <c r="G110" s="104"/>
+      <c r="H110" s="104"/>
+      <c r="I110" s="98"/>
+      <c r="J110" s="98"/>
+      <c r="K110" s="101"/>
     </row>
     <row r="111">
-      <c r="A111" s="47" t="s">
+      <c r="A111" s="46" t="s">
         <v>453</v>
       </c>
-      <c r="B111" s="48" t="s">
+      <c r="B111" s="47" t="s">
         <v>454</v>
       </c>
       <c r="C111" s="4"/>
@@ -13190,10 +13187,10 @@
       <c r="K111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="53" t="s">
+      <c r="A112" s="52" t="s">
         <v>455</v>
       </c>
-      <c r="B112" s="54" t="s">
+      <c r="B112" s="53" t="s">
         <v>456</v>
       </c>
       <c r="C112" s="7" t="s">
@@ -13206,69 +13203,69 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
-      <c r="I112" s="101" t="s">
+      <c r="I112" s="100" t="s">
         <v>459</v>
       </c>
-      <c r="J112" s="101" t="s">
+      <c r="J112" s="100" t="s">
         <v>460</v>
       </c>
-      <c r="K112" s="39" t="s">
+      <c r="K112" s="38" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="106" t="s">
+      <c r="A113" s="105" t="s">
         <v>462</v>
       </c>
-      <c r="B113" s="107" t="s">
+      <c r="B113" s="106" t="s">
         <v>463</v>
       </c>
-      <c r="C113" s="108" t="s">
+      <c r="C113" s="107" t="s">
         <v>464</v>
       </c>
-      <c r="D113" s="108" t="s">
+      <c r="D113" s="107" t="s">
         <v>465</v>
       </c>
-      <c r="E113" s="104" t="s">
+      <c r="E113" s="103" t="s">
         <v>458</v>
       </c>
       <c r="F113" s="4"/>
-      <c r="G113" s="105"/>
-      <c r="H113" s="105"/>
-      <c r="I113" s="101" t="s">
+      <c r="G113" s="104"/>
+      <c r="H113" s="104"/>
+      <c r="I113" s="100" t="s">
         <v>466</v>
       </c>
-      <c r="J113" s="101" t="s">
+      <c r="J113" s="100" t="s">
         <v>467</v>
       </c>
-      <c r="K113" s="102" t="s">
+      <c r="K113" s="101" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="33" t="s">
         <v>468</v>
       </c>
-      <c r="B114" s="92" t="s">
+      <c r="B114" s="91" t="s">
         <v>469</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="36" t="s">
+      <c r="E114" s="35" t="s">
         <v>470</v>
       </c>
       <c r="F114" s="4"/>
-      <c r="G114" s="79"/>
-      <c r="H114" s="79"/>
+      <c r="G114" s="78"/>
+      <c r="H114" s="78"/>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="B115" s="41" t="s">
+      <c r="B115" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="4"/>
@@ -13282,43 +13279,43 @@
       <c r="K115" s="7"/>
     </row>
     <row r="116">
-      <c r="A116" s="47" t="s">
+      <c r="A116" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="B116" s="48" t="s">
+      <c r="B116" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="C116" s="59"/>
-      <c r="D116" s="59"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="58"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="58"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="57"/>
+      <c r="F116" s="57"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="57"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
     <row r="117">
-      <c r="A117" s="53" t="s">
+      <c r="A117" s="52" t="s">
         <v>474</v>
       </c>
-      <c r="B117" s="54" t="s">
+      <c r="B117" s="53" t="s">
         <v>475</v>
       </c>
-      <c r="C117" s="49" t="s">
+      <c r="C117" s="48" t="s">
         <v>476</v>
       </c>
-      <c r="D117" s="49" t="s">
+      <c r="D117" s="48" t="s">
         <v>477</v>
       </c>
-      <c r="E117" s="42" t="s">
+      <c r="E117" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="F117" s="37"/>
-      <c r="G117" s="36" t="s">
+      <c r="F117" s="36"/>
+      <c r="G117" s="35" t="s">
         <v>479</v>
       </c>
-      <c r="H117" s="93" t="s">
+      <c r="H117" s="92" t="s">
         <v>480</v>
       </c>
       <c r="I117" s="7"/>
@@ -13326,26 +13323,26 @@
       <c r="K117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="53" t="s">
+      <c r="A118" s="52" t="s">
         <v>481</v>
       </c>
-      <c r="B118" s="54" t="s">
+      <c r="B118" s="53" t="s">
         <v>482</v>
       </c>
-      <c r="C118" s="49" t="s">
+      <c r="C118" s="48" t="s">
         <v>476</v>
       </c>
-      <c r="D118" s="59" t="s">
+      <c r="D118" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="E118" s="91" t="s">
+      <c r="E118" s="90" t="s">
         <v>483</v>
       </c>
-      <c r="F118" s="58"/>
-      <c r="G118" s="39" t="s">
+      <c r="F118" s="57"/>
+      <c r="G118" s="38" t="s">
         <v>479</v>
       </c>
-      <c r="H118" s="33" t="s">
+      <c r="H118" s="32" t="s">
         <v>484</v>
       </c>
       <c r="I118" s="7"/>
@@ -13353,139 +13350,139 @@
       <c r="K118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="109" t="s">
+      <c r="A119" s="108" t="s">
         <v>485</v>
       </c>
-      <c r="B119" s="110" t="s">
+      <c r="B119" s="109" t="s">
         <v>486</v>
       </c>
-      <c r="C119" s="108" t="s">
+      <c r="C119" s="107" t="s">
         <v>487</v>
       </c>
-      <c r="D119" s="108" t="s">
+      <c r="D119" s="107" t="s">
         <v>488</v>
       </c>
-      <c r="E119" s="103" t="s">
+      <c r="E119" s="102" t="s">
         <v>489</v>
       </c>
       <c r="F119" s="4"/>
-      <c r="G119" s="105"/>
-      <c r="H119" s="105"/>
-      <c r="I119" s="111" t="s">
+      <c r="G119" s="104"/>
+      <c r="H119" s="104"/>
+      <c r="I119" s="110" t="s">
         <v>490</v>
       </c>
-      <c r="J119" s="58"/>
-      <c r="K119" s="102" t="s">
+      <c r="J119" s="57"/>
+      <c r="K119" s="101" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="109" t="s">
+      <c r="A120" s="108" t="s">
         <v>492</v>
       </c>
-      <c r="B120" s="110" t="s">
+      <c r="B120" s="109" t="s">
         <v>493</v>
       </c>
-      <c r="C120" s="101" t="s">
+      <c r="C120" s="100" t="s">
         <v>494</v>
       </c>
-      <c r="D120" s="101" t="s">
+      <c r="D120" s="100" t="s">
         <v>495</v>
       </c>
-      <c r="E120" s="103" t="s">
+      <c r="E120" s="102" t="s">
         <v>496</v>
       </c>
       <c r="F120" s="4"/>
-      <c r="G120" s="105"/>
-      <c r="H120" s="105"/>
-      <c r="I120" s="111" t="s">
+      <c r="G120" s="104"/>
+      <c r="H120" s="104"/>
+      <c r="I120" s="110" t="s">
         <v>490</v>
       </c>
-      <c r="J120" s="58"/>
-      <c r="K120" s="102" t="s">
+      <c r="J120" s="57"/>
+      <c r="K120" s="101" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="109" t="s">
+      <c r="A121" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="B121" s="110" t="s">
+      <c r="B121" s="109" t="s">
         <v>498</v>
       </c>
-      <c r="C121" s="101" t="s">
+      <c r="C121" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="D121" s="101" t="s">
+      <c r="D121" s="100" t="s">
         <v>500</v>
       </c>
-      <c r="E121" s="103" t="s">
+      <c r="E121" s="102" t="s">
         <v>501</v>
       </c>
       <c r="F121" s="4"/>
-      <c r="G121" s="105"/>
-      <c r="H121" s="105"/>
-      <c r="I121" s="111" t="s">
+      <c r="G121" s="104"/>
+      <c r="H121" s="104"/>
+      <c r="I121" s="110" t="s">
         <v>490</v>
       </c>
-      <c r="J121" s="58"/>
-      <c r="K121" s="102" t="s">
+      <c r="J121" s="57"/>
+      <c r="K121" s="101" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="96" t="s">
+      <c r="A122" s="95" t="s">
         <v>502</v>
       </c>
-      <c r="B122" s="97" t="s">
+      <c r="B122" s="96" t="s">
         <v>503</v>
       </c>
-      <c r="C122" s="111" t="s">
+      <c r="C122" s="110" t="s">
         <v>504</v>
       </c>
-      <c r="D122" s="111" t="s">
+      <c r="D122" s="110" t="s">
         <v>505</v>
       </c>
-      <c r="E122" s="98" t="s">
+      <c r="E122" s="97" t="s">
         <v>506</v>
       </c>
-      <c r="F122" s="37"/>
-      <c r="G122" s="105"/>
-      <c r="H122" s="105"/>
-      <c r="I122" s="58"/>
-      <c r="J122" s="58"/>
-      <c r="K122" s="112" t="s">
+      <c r="F122" s="36"/>
+      <c r="G122" s="104"/>
+      <c r="H122" s="104"/>
+      <c r="I122" s="57"/>
+      <c r="J122" s="57"/>
+      <c r="K122" s="111" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="47" t="s">
+      <c r="A123" s="46" t="s">
         <v>508</v>
       </c>
-      <c r="B123" s="48" t="s">
+      <c r="B123" s="47" t="s">
         <v>509</v>
       </c>
-      <c r="C123" s="84" t="s">
+      <c r="C123" s="83" t="s">
         <v>510</v>
       </c>
-      <c r="D123" s="83"/>
-      <c r="E123" s="63" t="s">
+      <c r="D123" s="82"/>
+      <c r="E123" s="62" t="s">
         <v>511</v>
       </c>
-      <c r="F123" s="79"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="63"/>
+      <c r="F123" s="78"/>
+      <c r="G123" s="78"/>
+      <c r="H123" s="62"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
-      <c r="K123" s="39" t="s">
+      <c r="K123" s="38" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="40" t="s">
+      <c r="A124" s="39" t="s">
         <v>513</v>
       </c>
-      <c r="B124" s="41" t="s">
+      <c r="B124" s="40" t="s">
         <v>514</v>
       </c>
       <c r="C124" s="7"/>
@@ -13499,82 +13496,82 @@
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="47" t="s">
+      <c r="A125" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="B125" s="48" t="s">
+      <c r="B125" s="47" t="s">
         <v>516</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>510</v>
       </c>
       <c r="D125" s="7"/>
-      <c r="E125" s="36" t="s">
+      <c r="E125" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="F125" s="36" t="s">
+      <c r="F125" s="35" t="s">
         <v>518</v>
       </c>
-      <c r="G125" s="36" t="s">
+      <c r="G125" s="35" t="s">
         <v>519</v>
       </c>
-      <c r="H125" s="36" t="s">
+      <c r="H125" s="35" t="s">
         <v>520</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
-      <c r="K125" s="39" t="s">
+      <c r="K125" s="38" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="47" t="s">
+      <c r="A126" s="46" t="s">
         <v>522</v>
       </c>
-      <c r="B126" s="48" t="s">
+      <c r="B126" s="47" t="s">
         <v>516</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>510</v>
       </c>
       <c r="D126" s="7"/>
-      <c r="E126" s="39" t="s">
+      <c r="E126" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="F126" s="39" t="s">
+      <c r="F126" s="38" t="s">
         <v>524</v>
       </c>
-      <c r="G126" s="39" t="s">
+      <c r="G126" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="H126" s="39" t="s">
+      <c r="H126" s="38" t="s">
         <v>525</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
-      <c r="K126" s="39" t="s">
+      <c r="K126" s="38" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="47" t="s">
+      <c r="A127" s="46" t="s">
         <v>527</v>
       </c>
-      <c r="B127" s="48" t="s">
+      <c r="B127" s="47" t="s">
         <v>528</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>529</v>
       </c>
       <c r="D127" s="7"/>
-      <c r="E127" s="39" t="s">
+      <c r="E127" s="38" t="s">
         <v>530</v>
       </c>
       <c r="F127" s="7"/>
       <c r="G127" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="H127" s="36" t="s">
+      <c r="H127" s="35" t="s">
         <v>532</v>
       </c>
       <c r="I127" s="7"/>
@@ -13582,366 +13579,366 @@
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="113" t="s">
+      <c r="A128" s="112" t="s">
         <v>533</v>
       </c>
-      <c r="B128" s="114" t="s">
+      <c r="B128" s="113" t="s">
         <v>534</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="58"/>
-      <c r="J128" s="58"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="36"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="57"/>
+      <c r="J128" s="57"/>
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="96" t="s">
+      <c r="A129" s="95" t="s">
         <v>535</v>
       </c>
-      <c r="B129" s="97" t="s">
+      <c r="B129" s="96" t="s">
         <v>536</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="36"/>
-      <c r="H129" s="36"/>
-      <c r="I129" s="58"/>
-      <c r="J129" s="58"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="35"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="57"/>
+      <c r="J129" s="57"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="106" t="s">
+      <c r="A130" s="105" t="s">
         <v>537</v>
       </c>
-      <c r="B130" s="107" t="s">
+      <c r="B130" s="106" t="s">
         <v>538</v>
       </c>
-      <c r="C130" s="101"/>
-      <c r="D130" s="115"/>
+      <c r="C130" s="100"/>
+      <c r="D130" s="114"/>
       <c r="E130" s="4"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="105"/>
-      <c r="H130" s="105"/>
-      <c r="I130" s="58"/>
-      <c r="J130" s="58"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="104"/>
+      <c r="H130" s="104"/>
+      <c r="I130" s="57"/>
+      <c r="J130" s="57"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="109" t="s">
+      <c r="A131" s="108" t="s">
         <v>539</v>
       </c>
-      <c r="B131" s="110" t="s">
+      <c r="B131" s="109" t="s">
         <v>540</v>
       </c>
-      <c r="C131" s="101"/>
-      <c r="D131" s="115"/>
+      <c r="C131" s="100"/>
+      <c r="D131" s="114"/>
       <c r="E131" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F131" s="58"/>
-      <c r="G131" s="112" t="s">
+      <c r="F131" s="57"/>
+      <c r="G131" s="111" t="s">
         <v>542</v>
       </c>
-      <c r="H131" s="112" t="s">
+      <c r="H131" s="111" t="s">
         <v>543</v>
       </c>
-      <c r="I131" s="58"/>
-      <c r="J131" s="58"/>
+      <c r="I131" s="57"/>
+      <c r="J131" s="57"/>
       <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="109" t="s">
+      <c r="A132" s="108" t="s">
         <v>544</v>
       </c>
-      <c r="B132" s="110" t="s">
+      <c r="B132" s="109" t="s">
         <v>545</v>
       </c>
-      <c r="C132" s="101"/>
-      <c r="D132" s="115"/>
+      <c r="C132" s="100"/>
+      <c r="D132" s="114"/>
       <c r="E132" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="F132" s="37"/>
-      <c r="G132" s="105"/>
-      <c r="H132" s="105"/>
-      <c r="I132" s="58"/>
-      <c r="J132" s="58"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="104"/>
+      <c r="H132" s="104"/>
+      <c r="I132" s="57"/>
+      <c r="J132" s="57"/>
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="106" t="s">
+      <c r="A133" s="105" t="s">
         <v>547</v>
       </c>
-      <c r="B133" s="107" t="s">
+      <c r="B133" s="106" t="s">
         <v>548</v>
       </c>
-      <c r="C133" s="101"/>
-      <c r="D133" s="115"/>
+      <c r="C133" s="100"/>
+      <c r="D133" s="114"/>
       <c r="E133" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="F133" s="37"/>
-      <c r="G133" s="105"/>
-      <c r="H133" s="105"/>
-      <c r="I133" s="58"/>
-      <c r="J133" s="58"/>
-      <c r="K133" s="102" t="s">
+      <c r="F133" s="36"/>
+      <c r="G133" s="104"/>
+      <c r="H133" s="104"/>
+      <c r="I133" s="57"/>
+      <c r="J133" s="57"/>
+      <c r="K133" s="101" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="96" t="s">
+      <c r="A134" s="95" t="s">
         <v>551</v>
       </c>
-      <c r="B134" s="97" t="s">
+      <c r="B134" s="96" t="s">
         <v>552</v>
       </c>
-      <c r="C134" s="99" t="s">
+      <c r="C134" s="98" t="s">
         <v>553</v>
       </c>
-      <c r="D134" s="99" t="s">
+      <c r="D134" s="98" t="s">
         <v>554</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="F134" s="37"/>
-      <c r="G134" s="103" t="s">
+      <c r="F134" s="36"/>
+      <c r="G134" s="102" t="s">
         <v>556</v>
       </c>
-      <c r="H134" s="103" t="s">
+      <c r="H134" s="102" t="s">
         <v>557</v>
       </c>
-      <c r="I134" s="58"/>
-      <c r="J134" s="58"/>
-      <c r="K134" s="39" t="s">
+      <c r="I134" s="57"/>
+      <c r="J134" s="57"/>
+      <c r="K134" s="38" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="96" t="s">
+      <c r="A135" s="95" t="s">
         <v>559</v>
       </c>
-      <c r="B135" s="97" t="s">
+      <c r="B135" s="96" t="s">
         <v>560</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="4"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="58"/>
-      <c r="J135" s="58"/>
+      <c r="F135" s="36"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="57"/>
+      <c r="J135" s="57"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="106" t="s">
+      <c r="A136" s="105" t="s">
         <v>561</v>
       </c>
-      <c r="B136" s="107" t="s">
+      <c r="B136" s="106" t="s">
         <v>562</v>
       </c>
-      <c r="C136" s="99" t="s">
+      <c r="C136" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="D136" s="99" t="s">
+      <c r="D136" s="98" t="s">
         <v>564</v>
       </c>
       <c r="E136" s="4"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="103"/>
-      <c r="H136" s="103"/>
-      <c r="I136" s="58"/>
-      <c r="J136" s="58"/>
+      <c r="F136" s="36"/>
+      <c r="G136" s="102"/>
+      <c r="H136" s="102"/>
+      <c r="I136" s="57"/>
+      <c r="J136" s="57"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="109" t="s">
+      <c r="A137" s="108" t="s">
         <v>565</v>
       </c>
-      <c r="B137" s="110" t="s">
+      <c r="B137" s="109" t="s">
         <v>566</v>
       </c>
-      <c r="C137" s="99" t="s">
+      <c r="C137" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="D137" s="99" t="s">
+      <c r="D137" s="98" t="s">
         <v>564</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="F137" s="37"/>
-      <c r="G137" s="98" t="s">
+      <c r="F137" s="36"/>
+      <c r="G137" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="H137" s="98" t="s">
+      <c r="H137" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="I137" s="58"/>
-      <c r="J137" s="58"/>
+      <c r="I137" s="57"/>
+      <c r="J137" s="57"/>
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="109" t="s">
+      <c r="A138" s="108" t="s">
         <v>570</v>
       </c>
-      <c r="B138" s="110" t="s">
+      <c r="B138" s="109" t="s">
         <v>571</v>
       </c>
-      <c r="C138" s="99" t="s">
+      <c r="C138" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="D138" s="99" t="s">
+      <c r="D138" s="98" t="s">
         <v>564</v>
       </c>
       <c r="E138" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="F138" s="116"/>
-      <c r="G138" s="98" t="s">
+      <c r="F138" s="115"/>
+      <c r="G138" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="H138" s="98" t="s">
+      <c r="H138" s="97" t="s">
         <v>573</v>
       </c>
-      <c r="I138" s="58"/>
-      <c r="J138" s="58"/>
+      <c r="I138" s="57"/>
+      <c r="J138" s="57"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="96" t="s">
+      <c r="A139" s="95" t="s">
         <v>574</v>
       </c>
-      <c r="B139" s="97" t="s">
+      <c r="B139" s="96" t="s">
         <v>575</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="18"/>
-      <c r="F139" s="116"/>
-      <c r="G139" s="36"/>
-      <c r="H139" s="36"/>
-      <c r="I139" s="58"/>
-      <c r="J139" s="58"/>
+      <c r="F139" s="115"/>
+      <c r="G139" s="35"/>
+      <c r="H139" s="35"/>
+      <c r="I139" s="57"/>
+      <c r="J139" s="57"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="106" t="s">
+      <c r="A140" s="105" t="s">
         <v>576</v>
       </c>
-      <c r="B140" s="107" t="s">
+      <c r="B140" s="106" t="s">
         <v>577</v>
       </c>
-      <c r="C140" s="99" t="s">
+      <c r="C140" s="98" t="s">
         <v>578</v>
       </c>
-      <c r="D140" s="111" t="s">
+      <c r="D140" s="110" t="s">
         <v>579</v>
       </c>
       <c r="E140" s="4"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="103"/>
-      <c r="H140" s="103"/>
-      <c r="I140" s="58"/>
-      <c r="J140" s="58"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="102"/>
+      <c r="H140" s="102"/>
+      <c r="I140" s="57"/>
+      <c r="J140" s="57"/>
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="109" t="s">
+      <c r="A141" s="108" t="s">
         <v>580</v>
       </c>
-      <c r="B141" s="110" t="s">
+      <c r="B141" s="109" t="s">
         <v>581</v>
       </c>
-      <c r="C141" s="103" t="s">
+      <c r="C141" s="102" t="s">
         <v>578</v>
       </c>
-      <c r="D141" s="111" t="s">
+      <c r="D141" s="110" t="s">
         <v>579</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="F141" s="37"/>
-      <c r="G141" s="98" t="s">
+      <c r="F141" s="36"/>
+      <c r="G141" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="H141" s="98" t="s">
+      <c r="H141" s="97" t="s">
         <v>583</v>
       </c>
-      <c r="I141" s="58"/>
-      <c r="J141" s="58"/>
-      <c r="K141" s="39" t="s">
+      <c r="I141" s="57"/>
+      <c r="J141" s="57"/>
+      <c r="K141" s="38" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="109" t="s">
+      <c r="A142" s="108" t="s">
         <v>585</v>
       </c>
-      <c r="B142" s="110" t="s">
+      <c r="B142" s="109" t="s">
         <v>586</v>
       </c>
-      <c r="C142" s="99" t="s">
+      <c r="C142" s="98" t="s">
         <v>578</v>
       </c>
-      <c r="D142" s="111" t="s">
+      <c r="D142" s="110" t="s">
         <v>579</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="F142" s="58"/>
-      <c r="G142" s="98" t="s">
+      <c r="F142" s="57"/>
+      <c r="G142" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="H142" s="98" t="s">
+      <c r="H142" s="97" t="s">
         <v>588</v>
       </c>
-      <c r="I142" s="58"/>
-      <c r="J142" s="58"/>
-      <c r="K142" s="39" t="s">
+      <c r="I142" s="57"/>
+      <c r="J142" s="57"/>
+      <c r="K142" s="38" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="96" t="s">
+      <c r="A143" s="95" t="s">
         <v>589</v>
       </c>
-      <c r="B143" s="97" t="s">
+      <c r="B143" s="96" t="s">
         <v>590</v>
       </c>
-      <c r="C143" s="99" t="s">
+      <c r="C143" s="98" t="s">
         <v>591</v>
       </c>
-      <c r="D143" s="99" t="s">
+      <c r="D143" s="98" t="s">
         <v>592</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="F143" s="37"/>
-      <c r="G143" s="105"/>
-      <c r="H143" s="105"/>
-      <c r="I143" s="58"/>
-      <c r="J143" s="58"/>
-      <c r="K143" s="102" t="s">
+      <c r="F143" s="36"/>
+      <c r="G143" s="104"/>
+      <c r="H143" s="104"/>
+      <c r="I143" s="57"/>
+      <c r="J143" s="57"/>
+      <c r="K143" s="101" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="34" t="s">
+      <c r="A144" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="B144" s="35" t="s">
+      <c r="B144" s="34" t="s">
         <v>596</v>
       </c>
       <c r="C144" s="7"/>
@@ -13955,47 +13952,47 @@
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="40" t="s">
+      <c r="A145" s="39" t="s">
         <v>597</v>
       </c>
-      <c r="B145" s="41" t="s">
+      <c r="B145" s="40" t="s">
         <v>598</v>
       </c>
-      <c r="C145" s="59" t="s">
+      <c r="C145" s="58" t="s">
         <v>599</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="E145" s="117" t="s">
+      <c r="E145" s="116" t="s">
         <v>601</v>
       </c>
-      <c r="F145" s="117"/>
-      <c r="G145" s="118" t="s">
+      <c r="F145" s="116"/>
+      <c r="G145" s="117" t="s">
         <v>379</v>
       </c>
-      <c r="H145" s="119" t="s">
+      <c r="H145" s="118" t="s">
         <v>602</v>
       </c>
-      <c r="I145" s="39" t="s">
+      <c r="I145" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="40" t="s">
+      <c r="A146" s="39" t="s">
         <v>603</v>
       </c>
-      <c r="B146" s="41" t="s">
+      <c r="B146" s="40" t="s">
         <v>604</v>
       </c>
-      <c r="C146" s="120" t="s">
+      <c r="C146" s="119" t="s">
         <v>605</v>
       </c>
       <c r="D146" s="7"/>
-      <c r="E146" s="116"/>
-      <c r="F146" s="116"/>
+      <c r="E146" s="115"/>
+      <c r="F146" s="115"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="7"/>
@@ -14003,24 +14000,24 @@
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="47" t="s">
+      <c r="A147" s="46" t="s">
         <v>606</v>
       </c>
-      <c r="B147" s="48" t="s">
+      <c r="B147" s="47" t="s">
         <v>607</v>
       </c>
-      <c r="C147" s="121" t="s">
+      <c r="C147" s="120" t="s">
         <v>605</v>
       </c>
       <c r="D147" s="7"/>
-      <c r="E147" s="36" t="s">
+      <c r="E147" s="35" t="s">
         <v>608</v>
       </c>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37" t="s">
+      <c r="F147" s="36"/>
+      <c r="G147" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H147" s="37" t="s">
+      <c r="H147" s="36" t="s">
         <v>61</v>
       </c>
       <c r="I147" s="7"/>
@@ -14028,55 +14025,55 @@
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="53" t="s">
+      <c r="A148" s="52" t="s">
         <v>609</v>
       </c>
-      <c r="B148" s="54" t="s">
+      <c r="B148" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C148" s="59" t="s">
+      <c r="C148" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="D148" s="59" t="s">
+      <c r="D148" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E148" s="37" t="s">
+      <c r="E148" s="36" t="s">
         <v>610</v>
       </c>
-      <c r="F148" s="37"/>
-      <c r="G148" s="36" t="s">
+      <c r="F148" s="36"/>
+      <c r="G148" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="H148" s="36" t="s">
+      <c r="H148" s="35" t="s">
         <v>611</v>
       </c>
-      <c r="I148" s="39" t="s">
+      <c r="I148" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="53" t="s">
+      <c r="A149" s="52" t="s">
         <v>612</v>
       </c>
-      <c r="B149" s="54" t="s">
+      <c r="B149" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C149" s="59" t="s">
+      <c r="C149" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D149" s="59" t="s">
+      <c r="D149" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E149" s="37" t="s">
+      <c r="E149" s="36" t="s">
         <v>613</v>
       </c>
-      <c r="F149" s="37"/>
-      <c r="G149" s="36" t="s">
+      <c r="F149" s="36"/>
+      <c r="G149" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H149" s="36" t="s">
+      <c r="H149" s="35" t="s">
         <v>614</v>
       </c>
       <c r="I149" s="7"/>
@@ -14084,26 +14081,26 @@
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="53" t="s">
+      <c r="A150" s="52" t="s">
         <v>615</v>
       </c>
-      <c r="B150" s="54" t="s">
+      <c r="B150" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C150" s="49" t="s">
+      <c r="C150" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D150" s="59" t="s">
+      <c r="D150" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E150" s="37" t="s">
+      <c r="E150" s="36" t="s">
         <v>616</v>
       </c>
-      <c r="F150" s="37"/>
-      <c r="G150" s="36" t="s">
+      <c r="F150" s="36"/>
+      <c r="G150" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H150" s="36" t="s">
+      <c r="H150" s="35" t="s">
         <v>617</v>
       </c>
       <c r="I150" s="7"/>
@@ -14111,26 +14108,26 @@
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="53" t="s">
+      <c r="A151" s="52" t="s">
         <v>618</v>
       </c>
-      <c r="B151" s="54" t="s">
+      <c r="B151" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C151" s="59" t="s">
+      <c r="C151" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D151" s="59" t="s">
+      <c r="D151" s="58" t="s">
         <v>619</v>
       </c>
-      <c r="E151" s="37" t="s">
+      <c r="E151" s="36" t="s">
         <v>620</v>
       </c>
-      <c r="F151" s="37"/>
-      <c r="G151" s="36" t="s">
+      <c r="F151" s="36"/>
+      <c r="G151" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H151" s="36" t="s">
+      <c r="H151" s="35" t="s">
         <v>621</v>
       </c>
       <c r="I151" s="7"/>
@@ -14138,26 +14135,26 @@
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="53" t="s">
+      <c r="A152" s="52" t="s">
         <v>622</v>
       </c>
-      <c r="B152" s="54" t="s">
+      <c r="B152" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C152" s="59" t="s">
+      <c r="C152" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D152" s="59" t="s">
+      <c r="D152" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="E152" s="37" t="s">
+      <c r="E152" s="36" t="s">
         <v>623</v>
       </c>
-      <c r="F152" s="37"/>
-      <c r="G152" s="49" t="s">
+      <c r="F152" s="36"/>
+      <c r="G152" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H152" s="49" t="s">
+      <c r="H152" s="48" t="s">
         <v>624</v>
       </c>
       <c r="I152" s="7"/>
@@ -14165,26 +14162,26 @@
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="53" t="s">
+      <c r="A153" s="52" t="s">
         <v>625</v>
       </c>
-      <c r="B153" s="54" t="s">
+      <c r="B153" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C153" s="59" t="s">
+      <c r="C153" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="D153" s="59" t="s">
+      <c r="D153" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="E153" s="37" t="s">
+      <c r="E153" s="36" t="s">
         <v>626</v>
       </c>
-      <c r="F153" s="37"/>
-      <c r="G153" s="49" t="s">
+      <c r="F153" s="36"/>
+      <c r="G153" s="48" t="s">
         <v>627</v>
       </c>
-      <c r="H153" s="49" t="s">
+      <c r="H153" s="48" t="s">
         <v>628</v>
       </c>
       <c r="I153" s="7"/>
@@ -14192,26 +14189,26 @@
       <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="53" t="s">
+      <c r="A154" s="52" t="s">
         <v>629</v>
       </c>
-      <c r="B154" s="54" t="s">
+      <c r="B154" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C154" s="59" t="s">
+      <c r="C154" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="D154" s="59" t="s">
+      <c r="D154" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E154" s="37" t="s">
+      <c r="E154" s="36" t="s">
         <v>630</v>
       </c>
-      <c r="F154" s="37"/>
-      <c r="G154" s="49" t="s">
+      <c r="F154" s="36"/>
+      <c r="G154" s="48" t="s">
         <v>631</v>
       </c>
-      <c r="H154" s="49" t="s">
+      <c r="H154" s="48" t="s">
         <v>632</v>
       </c>
       <c r="I154" s="7"/>
@@ -14219,26 +14216,26 @@
       <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="53" t="s">
+      <c r="A155" s="52" t="s">
         <v>633</v>
       </c>
-      <c r="B155" s="54" t="s">
+      <c r="B155" s="53" t="s">
         <v>634</v>
       </c>
-      <c r="C155" s="59" t="s">
+      <c r="C155" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="D155" s="59" t="s">
+      <c r="D155" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="E155" s="37" t="s">
+      <c r="E155" s="36" t="s">
         <v>635</v>
       </c>
-      <c r="F155" s="37"/>
-      <c r="G155" s="46" t="s">
+      <c r="F155" s="36"/>
+      <c r="G155" s="45" t="s">
         <v>627</v>
       </c>
-      <c r="H155" s="46" t="s">
+      <c r="H155" s="45" t="s">
         <v>636</v>
       </c>
       <c r="I155" s="7"/>
@@ -14246,26 +14243,26 @@
       <c r="K155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="53" t="s">
+      <c r="A156" s="52" t="s">
         <v>637</v>
       </c>
-      <c r="B156" s="54" t="s">
+      <c r="B156" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C156" s="59" t="s">
+      <c r="C156" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D156" s="59" t="s">
+      <c r="D156" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="E156" s="58" t="s">
+      <c r="E156" s="57" t="s">
         <v>638</v>
       </c>
-      <c r="F156" s="58"/>
-      <c r="G156" s="49" t="s">
+      <c r="F156" s="57"/>
+      <c r="G156" s="48" t="s">
         <v>631</v>
       </c>
-      <c r="H156" s="49" t="s">
+      <c r="H156" s="48" t="s">
         <v>639</v>
       </c>
       <c r="I156" s="7"/>
@@ -14273,24 +14270,24 @@
       <c r="K156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="47" t="s">
+      <c r="A157" s="46" t="s">
         <v>640</v>
       </c>
-      <c r="B157" s="48" t="s">
+      <c r="B157" s="47" t="s">
         <v>641</v>
       </c>
-      <c r="C157" s="121" t="s">
+      <c r="C157" s="120" t="s">
         <v>605</v>
       </c>
-      <c r="D157" s="122"/>
-      <c r="E157" s="36" t="s">
+      <c r="D157" s="121"/>
+      <c r="E157" s="35" t="s">
         <v>642</v>
       </c>
-      <c r="F157" s="37"/>
-      <c r="G157" s="37" t="s">
+      <c r="F157" s="36"/>
+      <c r="G157" s="36" t="s">
         <v>643</v>
       </c>
-      <c r="H157" s="37" t="s">
+      <c r="H157" s="36" t="s">
         <v>61</v>
       </c>
       <c r="I157" s="7"/>
@@ -14298,55 +14295,55 @@
       <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="53" t="s">
+      <c r="A158" s="52" t="s">
         <v>644</v>
       </c>
-      <c r="B158" s="54" t="s">
+      <c r="B158" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C158" s="59" t="s">
+      <c r="C158" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="D158" s="59" t="s">
+      <c r="D158" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E158" s="37" t="s">
+      <c r="E158" s="36" t="s">
         <v>645</v>
       </c>
-      <c r="F158" s="37"/>
-      <c r="G158" s="36" t="s">
+      <c r="F158" s="36"/>
+      <c r="G158" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="H158" s="36" t="s">
+      <c r="H158" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="I158" s="39" t="s">
+      <c r="I158" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="53" t="s">
+      <c r="A159" s="52" t="s">
         <v>647</v>
       </c>
-      <c r="B159" s="54" t="s">
+      <c r="B159" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C159" s="59" t="s">
+      <c r="C159" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D159" s="59" t="s">
+      <c r="D159" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E159" s="37" t="s">
+      <c r="E159" s="36" t="s">
         <v>648</v>
       </c>
-      <c r="F159" s="37"/>
-      <c r="G159" s="36" t="s">
+      <c r="F159" s="36"/>
+      <c r="G159" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H159" s="36" t="s">
+      <c r="H159" s="35" t="s">
         <v>649</v>
       </c>
       <c r="I159" s="7"/>
@@ -14354,26 +14351,26 @@
       <c r="K159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="53" t="s">
+      <c r="A160" s="52" t="s">
         <v>650</v>
       </c>
-      <c r="B160" s="54" t="s">
+      <c r="B160" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C160" s="59" t="s">
+      <c r="C160" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="D160" s="59" t="s">
+      <c r="D160" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E160" s="37" t="s">
+      <c r="E160" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="F160" s="37"/>
-      <c r="G160" s="36" t="s">
+      <c r="F160" s="36"/>
+      <c r="G160" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H160" s="36" t="s">
+      <c r="H160" s="35" t="s">
         <v>652</v>
       </c>
       <c r="I160" s="7"/>
@@ -14381,26 +14378,26 @@
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="53" t="s">
+      <c r="A161" s="52" t="s">
         <v>653</v>
       </c>
-      <c r="B161" s="54" t="s">
+      <c r="B161" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C161" s="59" t="s">
+      <c r="C161" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D161" s="59" t="s">
+      <c r="D161" s="58" t="s">
         <v>619</v>
       </c>
-      <c r="E161" s="37" t="s">
+      <c r="E161" s="36" t="s">
         <v>654</v>
       </c>
-      <c r="F161" s="37"/>
-      <c r="G161" s="36" t="s">
+      <c r="F161" s="36"/>
+      <c r="G161" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H161" s="36" t="s">
+      <c r="H161" s="35" t="s">
         <v>655</v>
       </c>
       <c r="I161" s="7"/>
@@ -14408,26 +14405,26 @@
       <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="53" t="s">
+      <c r="A162" s="52" t="s">
         <v>656</v>
       </c>
-      <c r="B162" s="54" t="s">
+      <c r="B162" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C162" s="59" t="s">
+      <c r="C162" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D162" s="59" t="s">
+      <c r="D162" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="E162" s="37" t="s">
+      <c r="E162" s="36" t="s">
         <v>657</v>
       </c>
-      <c r="F162" s="37"/>
-      <c r="G162" s="36" t="s">
+      <c r="F162" s="36"/>
+      <c r="G162" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="H162" s="36" t="s">
+      <c r="H162" s="35" t="s">
         <v>658</v>
       </c>
       <c r="I162" s="7"/>
@@ -14435,26 +14432,26 @@
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="53" t="s">
+      <c r="A163" s="52" t="s">
         <v>659</v>
       </c>
-      <c r="B163" s="54" t="s">
+      <c r="B163" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C163" s="59" t="s">
+      <c r="C163" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="D163" s="59" t="s">
+      <c r="D163" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="E163" s="58" t="s">
+      <c r="E163" s="57" t="s">
         <v>660</v>
       </c>
-      <c r="F163" s="58"/>
-      <c r="G163" s="59" t="s">
+      <c r="F163" s="57"/>
+      <c r="G163" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="H163" s="59" t="s">
+      <c r="H163" s="58" t="s">
         <v>628</v>
       </c>
       <c r="I163" s="7"/>
@@ -14462,26 +14459,26 @@
       <c r="K163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="53" t="s">
+      <c r="A164" s="52" t="s">
         <v>661</v>
       </c>
-      <c r="B164" s="54" t="s">
+      <c r="B164" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C164" s="59" t="s">
+      <c r="C164" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="D164" s="59" t="s">
+      <c r="D164" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E164" s="37" t="s">
+      <c r="E164" s="36" t="s">
         <v>662</v>
       </c>
-      <c r="F164" s="37"/>
-      <c r="G164" s="49" t="s">
+      <c r="F164" s="36"/>
+      <c r="G164" s="48" t="s">
         <v>631</v>
       </c>
-      <c r="H164" s="49" t="s">
+      <c r="H164" s="48" t="s">
         <v>632</v>
       </c>
       <c r="I164" s="7"/>
@@ -14489,26 +14486,26 @@
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="53" t="s">
+      <c r="A165" s="52" t="s">
         <v>663</v>
       </c>
-      <c r="B165" s="54" t="s">
+      <c r="B165" s="53" t="s">
         <v>634</v>
       </c>
-      <c r="C165" s="59" t="s">
+      <c r="C165" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="D165" s="59" t="s">
+      <c r="D165" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="E165" s="58" t="s">
+      <c r="E165" s="57" t="s">
         <v>664</v>
       </c>
-      <c r="F165" s="58"/>
-      <c r="G165" s="62" t="s">
+      <c r="F165" s="57"/>
+      <c r="G165" s="61" t="s">
         <v>627</v>
       </c>
-      <c r="H165" s="62" t="s">
+      <c r="H165" s="61" t="s">
         <v>665</v>
       </c>
       <c r="I165" s="7"/>
@@ -14516,26 +14513,26 @@
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="53" t="s">
+      <c r="A166" s="52" t="s">
         <v>666</v>
       </c>
-      <c r="B166" s="54" t="s">
+      <c r="B166" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C166" s="49" t="s">
+      <c r="C166" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="D166" s="49" t="s">
+      <c r="D166" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="E166" s="37" t="s">
+      <c r="E166" s="36" t="s">
         <v>667</v>
       </c>
-      <c r="F166" s="37"/>
-      <c r="G166" s="49" t="s">
+      <c r="F166" s="36"/>
+      <c r="G166" s="48" t="s">
         <v>631</v>
       </c>
-      <c r="H166" s="49" t="s">
+      <c r="H166" s="48" t="s">
         <v>639</v>
       </c>
       <c r="I166" s="7"/>
@@ -14543,26 +14540,26 @@
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="47" t="s">
+      <c r="A167" s="46" t="s">
         <v>668</v>
       </c>
-      <c r="B167" s="48" t="s">
+      <c r="B167" s="47" t="s">
         <v>669</v>
       </c>
-      <c r="C167" s="59" t="s">
+      <c r="C167" s="58" t="s">
         <v>670</v>
       </c>
-      <c r="D167" s="59" t="s">
+      <c r="D167" s="58" t="s">
         <v>671</v>
       </c>
-      <c r="E167" s="37" t="s">
+      <c r="E167" s="36" t="s">
         <v>672</v>
       </c>
-      <c r="F167" s="37"/>
-      <c r="G167" s="36" t="s">
+      <c r="F167" s="36"/>
+      <c r="G167" s="35" t="s">
         <v>673</v>
       </c>
-      <c r="H167" s="49" t="s">
+      <c r="H167" s="48" t="s">
         <v>674</v>
       </c>
       <c r="I167" s="7"/>
@@ -14570,22 +14567,22 @@
       <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="47" t="s">
+      <c r="A168" s="46" t="s">
         <v>675</v>
       </c>
-      <c r="B168" s="48" t="s">
+      <c r="B168" s="47" t="s">
         <v>676</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
-      <c r="E168" s="86" t="s">
+      <c r="E168" s="85" t="s">
         <v>677</v>
       </c>
-      <c r="F168" s="116"/>
-      <c r="G168" s="37" t="s">
+      <c r="F168" s="115"/>
+      <c r="G168" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H168" s="37" t="s">
+      <c r="H168" s="36" t="s">
         <v>61</v>
       </c>
       <c r="I168" s="7"/>
@@ -14593,55 +14590,55 @@
       <c r="K168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="53" t="s">
+      <c r="A169" s="52" t="s">
         <v>678</v>
       </c>
-      <c r="B169" s="54" t="s">
+      <c r="B169" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C169" s="59" t="s">
+      <c r="C169" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="D169" s="59" t="s">
+      <c r="D169" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E169" s="116" t="s">
+      <c r="E169" s="115" t="s">
         <v>679</v>
       </c>
-      <c r="F169" s="116"/>
-      <c r="G169" s="36" t="s">
+      <c r="F169" s="115"/>
+      <c r="G169" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="H169" s="36" t="s">
+      <c r="H169" s="35" t="s">
         <v>680</v>
       </c>
-      <c r="I169" s="39" t="s">
+      <c r="I169" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="53" t="s">
+      <c r="A170" s="52" t="s">
         <v>681</v>
       </c>
-      <c r="B170" s="54" t="s">
+      <c r="B170" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C170" s="59" t="s">
+      <c r="C170" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D170" s="59" t="s">
+      <c r="D170" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E170" s="116" t="s">
+      <c r="E170" s="115" t="s">
         <v>682</v>
       </c>
-      <c r="F170" s="116"/>
-      <c r="G170" s="39" t="s">
+      <c r="F170" s="115"/>
+      <c r="G170" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H170" s="39" t="s">
+      <c r="H170" s="38" t="s">
         <v>683</v>
       </c>
       <c r="I170" s="7"/>
@@ -14649,26 +14646,26 @@
       <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="53" t="s">
+      <c r="A171" s="52" t="s">
         <v>684</v>
       </c>
-      <c r="B171" s="54" t="s">
+      <c r="B171" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C171" s="59" t="s">
+      <c r="C171" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="D171" s="49" t="s">
+      <c r="D171" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="E171" s="116" t="s">
+      <c r="E171" s="115" t="s">
         <v>685</v>
       </c>
-      <c r="F171" s="116"/>
-      <c r="G171" s="36" t="s">
+      <c r="F171" s="115"/>
+      <c r="G171" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H171" s="36" t="s">
+      <c r="H171" s="35" t="s">
         <v>686</v>
       </c>
       <c r="I171" s="7"/>
@@ -14676,26 +14673,26 @@
       <c r="K171" s="7"/>
     </row>
     <row r="172">
-      <c r="A172" s="53" t="s">
+      <c r="A172" s="52" t="s">
         <v>687</v>
       </c>
-      <c r="B172" s="54" t="s">
+      <c r="B172" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C172" s="59" t="s">
+      <c r="C172" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D172" s="49" t="s">
+      <c r="D172" s="48" t="s">
         <v>619</v>
       </c>
-      <c r="E172" s="116" t="s">
+      <c r="E172" s="115" t="s">
         <v>688</v>
       </c>
-      <c r="F172" s="116"/>
-      <c r="G172" s="36" t="s">
+      <c r="F172" s="115"/>
+      <c r="G172" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H172" s="36" t="s">
+      <c r="H172" s="35" t="s">
         <v>689</v>
       </c>
       <c r="I172" s="7"/>
@@ -14703,26 +14700,26 @@
       <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="53" t="s">
+      <c r="A173" s="52" t="s">
         <v>690</v>
       </c>
-      <c r="B173" s="54" t="s">
+      <c r="B173" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C173" s="59" t="s">
+      <c r="C173" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D173" s="49" t="s">
+      <c r="D173" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E173" s="116" t="s">
+      <c r="E173" s="115" t="s">
         <v>691</v>
       </c>
-      <c r="F173" s="116"/>
-      <c r="G173" s="49" t="s">
+      <c r="F173" s="115"/>
+      <c r="G173" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H173" s="49" t="s">
+      <c r="H173" s="48" t="s">
         <v>692</v>
       </c>
       <c r="I173" s="7"/>
@@ -14730,26 +14727,26 @@
       <c r="K173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="53" t="s">
+      <c r="A174" s="52" t="s">
         <v>693</v>
       </c>
-      <c r="B174" s="54" t="s">
+      <c r="B174" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C174" s="59" t="s">
+      <c r="C174" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="D174" s="49" t="s">
+      <c r="D174" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E174" s="116" t="s">
+      <c r="E174" s="115" t="s">
         <v>694</v>
       </c>
-      <c r="F174" s="116"/>
-      <c r="G174" s="49" t="s">
+      <c r="F174" s="115"/>
+      <c r="G174" s="48" t="s">
         <v>627</v>
       </c>
-      <c r="H174" s="49" t="s">
+      <c r="H174" s="48" t="s">
         <v>628</v>
       </c>
       <c r="I174" s="7"/>
@@ -14757,26 +14754,26 @@
       <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="53" t="s">
+      <c r="A175" s="52" t="s">
         <v>695</v>
       </c>
-      <c r="B175" s="54" t="s">
+      <c r="B175" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C175" s="59" t="s">
+      <c r="C175" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="D175" s="49" t="s">
+      <c r="D175" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E175" s="116" t="s">
+      <c r="E175" s="115" t="s">
         <v>696</v>
       </c>
-      <c r="F175" s="116"/>
-      <c r="G175" s="49" t="s">
+      <c r="F175" s="115"/>
+      <c r="G175" s="48" t="s">
         <v>631</v>
       </c>
-      <c r="H175" s="49" t="s">
+      <c r="H175" s="48" t="s">
         <v>632</v>
       </c>
       <c r="I175" s="7"/>
@@ -14784,26 +14781,26 @@
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="53" t="s">
+      <c r="A176" s="52" t="s">
         <v>697</v>
       </c>
-      <c r="B176" s="54" t="s">
+      <c r="B176" s="53" t="s">
         <v>634</v>
       </c>
-      <c r="C176" s="59" t="s">
+      <c r="C176" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="D176" s="49" t="s">
+      <c r="D176" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="E176" s="116" t="s">
+      <c r="E176" s="115" t="s">
         <v>698</v>
       </c>
-      <c r="F176" s="116"/>
-      <c r="G176" s="46" t="s">
+      <c r="F176" s="115"/>
+      <c r="G176" s="45" t="s">
         <v>627</v>
       </c>
-      <c r="H176" s="46" t="s">
+      <c r="H176" s="45" t="s">
         <v>699</v>
       </c>
       <c r="I176" s="7"/>
@@ -14811,26 +14808,26 @@
       <c r="K176" s="7"/>
     </row>
     <row r="177">
-      <c r="A177" s="53" t="s">
+      <c r="A177" s="52" t="s">
         <v>700</v>
       </c>
-      <c r="B177" s="54" t="s">
+      <c r="B177" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C177" s="59" t="s">
+      <c r="C177" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D177" s="49" t="s">
+      <c r="D177" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="E177" s="116" t="s">
+      <c r="E177" s="115" t="s">
         <v>701</v>
       </c>
-      <c r="F177" s="116"/>
-      <c r="G177" s="49" t="s">
+      <c r="F177" s="115"/>
+      <c r="G177" s="48" t="s">
         <v>631</v>
       </c>
-      <c r="H177" s="49" t="s">
+      <c r="H177" s="48" t="s">
         <v>639</v>
       </c>
       <c r="I177" s="7"/>
@@ -14838,26 +14835,26 @@
       <c r="K177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="40" t="s">
+      <c r="A178" s="39" t="s">
         <v>702</v>
       </c>
-      <c r="B178" s="41" t="s">
+      <c r="B178" s="40" t="s">
         <v>703</v>
       </c>
-      <c r="C178" s="123" t="s">
+      <c r="C178" s="122" t="s">
         <v>704</v>
       </c>
-      <c r="D178" s="124" t="s">
+      <c r="D178" s="123" t="s">
         <v>705</v>
       </c>
-      <c r="E178" s="125" t="s">
+      <c r="E178" s="124" t="s">
         <v>706</v>
       </c>
-      <c r="F178" s="125"/>
-      <c r="G178" s="36" t="s">
+      <c r="F178" s="124"/>
+      <c r="G178" s="35" t="s">
         <v>707</v>
       </c>
-      <c r="H178" s="126" t="s">
+      <c r="H178" s="125" t="s">
         <v>708</v>
       </c>
       <c r="I178" s="7"/>
@@ -14925,22 +14922,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="127" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14951,16 +14948,16 @@
       <c r="B2" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>398</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>709</v>
       </c>
     </row>
@@ -14968,17 +14965,17 @@
       <c r="A3" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>711</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>712</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="35" t="s">
         <v>713</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>714</v>
       </c>
     </row>
@@ -14986,17 +14983,17 @@
       <c r="A4" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>711</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>712</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="35" t="s">
         <v>715</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>716</v>
       </c>
     </row>
@@ -15007,82 +15004,82 @@
       <c r="B5" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>398</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>717</v>
       </c>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
         <v>718</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>719</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>720</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>721</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>722</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="129"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="128"/>
+      <c r="T6" s="128"/>
+      <c r="U6" s="128"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="128"/>
+      <c r="Y6" s="128"/>
+      <c r="Z6" s="128"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
         <v>723</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>724</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -15091,10 +15088,10 @@
       <c r="D7" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>727</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="35" t="s">
         <v>728</v>
       </c>
     </row>
@@ -15105,32 +15102,32 @@
       <c r="B8" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>510</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>731</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="38" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="83" t="s">
         <v>733</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="83" t="s">
         <v>734</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="83" t="s">
         <v>510</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84" t="s">
+      <c r="D9" s="83"/>
+      <c r="E9" s="83" t="s">
         <v>735</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="83" t="s">
         <v>732</v>
       </c>
     </row>
@@ -15138,17 +15135,17 @@
       <c r="A10" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>737</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="129" t="s">
         <v>738</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>739</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="38" t="s">
         <v>740</v>
       </c>
     </row>
@@ -15156,7 +15153,7 @@
       <c r="A11" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>742</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -15165,30 +15162,30 @@
       <c r="D11" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="38" t="s">
         <v>745</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="38" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="82" t="s">
         <v>747</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="83" t="s">
         <v>748</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="82" t="s">
         <v>749</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="82" t="s">
         <v>750</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="83" t="s">
         <v>751</v>
       </c>
-      <c r="F12" s="131" t="s">
+      <c r="F12" s="130" t="s">
         <v>752</v>
       </c>
     </row>
@@ -15196,31 +15193,31 @@
       <c r="A13" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>754</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>755</v>
       </c>
-      <c r="F13" s="132" t="s">
+      <c r="F13" s="131" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="116" t="s">
         <v>757</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="59" t="s">
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="58" t="s">
         <v>758</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>759</v>
       </c>
-      <c r="F14" s="132" t="s">
+      <c r="F14" s="131" t="s">
         <v>760</v>
       </c>
     </row>
@@ -19202,93 +19199,93 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="132" t="s">
         <v>761</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="133" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="134" t="s">
         <v>763</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="133" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="135" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="136" t="s">
         <v>766</v>
       </c>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="133" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="133" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="134"/>
+      <c r="B8" s="133"/>
     </row>
     <row r="9">
-      <c r="B9" s="134"/>
+      <c r="B9" s="133"/>
     </row>
     <row r="10">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="136" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="136" t="s">
         <v>770</v>
       </c>
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="137" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="138" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="140"/>
-      <c r="B13" s="141" t="s">
+      <c r="A13" s="139"/>
+      <c r="B13" s="140" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="141" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="142" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="143" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="137"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="136" t="s">
         <v>777</v>
       </c>
-      <c r="B18" s="145" t="s">
+      <c r="B18" s="144" t="s">
         <v>778</v>
       </c>
     </row>
@@ -19296,13 +19293,13 @@
       <c r="A19" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="B19" s="146"/>
+      <c r="B19" s="145"/>
     </row>
     <row r="21">
-      <c r="A21" s="137" t="s">
+      <c r="A21" s="136" t="s">
         <v>780</v>
       </c>
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="146" t="s">
         <v>781</v>
       </c>
     </row>
@@ -19328,47 +19325,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="136" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="147" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="133" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="147" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="133" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="133" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="133" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="147" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="133" t="s">
         <v>790</v>
       </c>
     </row>
@@ -19397,12 +19394,12 @@
       <c r="A1" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="148" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="149" t="s">
         <v>792</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -19455,7 +19452,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="138"/>
+      <c r="A1" s="137"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -19479,13 +19476,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="150" t="s">
         <v>800</v>
       </c>
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="150" t="s">
         <v>801</v>
       </c>
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="151" t="s">
         <v>2</v>
       </c>
     </row>
@@ -19505,10 +19502,10 @@
       <c r="E2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>806</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>807</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -19521,10 +19518,10 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>807</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -19537,16 +19534,16 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>810</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>811</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>812</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -19605,220 +19602,220 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="152" t="s">
         <v>826</v>
       </c>
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="153" t="s">
         <v>827</v>
       </c>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="153" t="s">
         <v>808</v>
       </c>
-      <c r="D9" s="154" t="s">
+      <c r="D9" s="153" t="s">
         <v>828</v>
       </c>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="154"/>
-      <c r="M9" s="154"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="154"/>
-      <c r="P9" s="154"/>
-      <c r="Q9" s="154"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="154"/>
-      <c r="U9" s="154"/>
-      <c r="V9" s="154"/>
-      <c r="W9" s="154"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="154"/>
-      <c r="Z9" s="154"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="153"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="153"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="153"/>
     </row>
     <row r="10">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="152" t="s">
         <v>829</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="153" t="s">
         <v>827</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="153" t="s">
         <v>808</v>
       </c>
-      <c r="D10" s="154" t="s">
+      <c r="D10" s="153" t="s">
         <v>830</v>
       </c>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="155"/>
-      <c r="N10" s="155"/>
-      <c r="O10" s="155"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="155"/>
-      <c r="T10" s="155"/>
-      <c r="U10" s="155"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="155"/>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="155"/>
-      <c r="Z10" s="155"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="154"/>
+      <c r="U10" s="154"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="154"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="154"/>
     </row>
     <row r="11">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="152" t="s">
         <v>831</v>
       </c>
-      <c r="B11" s="154" t="s">
+      <c r="B11" s="153" t="s">
         <v>832</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="153" t="s">
         <v>808</v>
       </c>
-      <c r="D11" s="154" t="s">
+      <c r="D11" s="153" t="s">
         <v>833</v>
       </c>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="155"/>
-      <c r="N11" s="155"/>
-      <c r="O11" s="155"/>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="155"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="155"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="155"/>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="155"/>
-      <c r="Z11" s="155"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="154"/>
+      <c r="T11" s="154"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="154"/>
+      <c r="Z11" s="154"/>
     </row>
     <row r="12">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="152" t="s">
         <v>834</v>
       </c>
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="153" t="s">
         <v>832</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="153" t="s">
         <v>808</v>
       </c>
-      <c r="D12" s="154" t="s">
+      <c r="D12" s="153" t="s">
         <v>835</v>
       </c>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="155"/>
-      <c r="P12" s="155"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="155"/>
-      <c r="S12" s="155"/>
-      <c r="T12" s="155"/>
-      <c r="U12" s="155"/>
-      <c r="V12" s="155"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="154"/>
+      <c r="T12" s="154"/>
+      <c r="U12" s="154"/>
+      <c r="V12" s="154"/>
+      <c r="W12" s="154"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="154"/>
+      <c r="Z12" s="154"/>
     </row>
     <row r="13">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="152" t="s">
         <v>836</v>
       </c>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="152" t="s">
         <v>811</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="153" t="s">
         <v>808</v>
       </c>
-      <c r="D13" s="154" t="s">
+      <c r="D13" s="153" t="s">
         <v>837</v>
       </c>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="155"/>
-      <c r="M13" s="155"/>
-      <c r="N13" s="155"/>
-      <c r="O13" s="155"/>
-      <c r="P13" s="155"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="155"/>
-      <c r="S13" s="155"/>
-      <c r="T13" s="155"/>
-      <c r="U13" s="155"/>
-      <c r="V13" s="155"/>
-      <c r="W13" s="155"/>
-      <c r="X13" s="155"/>
-      <c r="Y13" s="155"/>
-      <c r="Z13" s="155"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="154"/>
+      <c r="O13" s="154"/>
+      <c r="P13" s="154"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="154"/>
+      <c r="S13" s="154"/>
+      <c r="T13" s="154"/>
+      <c r="U13" s="154"/>
+      <c r="V13" s="154"/>
+      <c r="W13" s="154"/>
+      <c r="X13" s="154"/>
+      <c r="Y13" s="154"/>
+      <c r="Z13" s="154"/>
     </row>
     <row r="14">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="152" t="s">
         <v>838</v>
       </c>
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="152" t="s">
         <v>811</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="153" t="s">
         <v>808</v>
       </c>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="153" t="s">
         <v>839</v>
       </c>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="155"/>
-      <c r="T14" s="155"/>
-      <c r="U14" s="155"/>
-      <c r="V14" s="155"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="155"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="154"/>
+      <c r="T14" s="154"/>
+      <c r="U14" s="154"/>
+      <c r="V14" s="154"/>
+      <c r="W14" s="154"/>
+      <c r="X14" s="154"/>
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19846,51 +19843,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="155" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="136" t="s">
         <v>802</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="136" t="s">
         <v>803</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="136" t="s">
         <v>804</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="136" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="133" t="s">
         <v>840</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="133" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="133" t="s">
         <v>842</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="133" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="133" t="s">
         <v>844</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="133" t="s">
         <v>845</v>
       </c>
-      <c r="C5" s="157" t="s">
+      <c r="C5" s="156" t="s">
         <v>843</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="133" t="s">
         <v>846</v>
       </c>
     </row>

--- a/mappings/package_F12/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F12/transformation/conceptual_mappings.xlsx
@@ -3362,7 +3362,7 @@
     <t>epo:Lot / epo:SelectionCriterion / rdf:langString</t>
   </si>
   <si>
-    <t>?this epo:specifiesSelectionCriterion / cccev:description ?value .</t>
+    <t>?this epo:specifiesSelectionCriterion / ccev:description ?value .</t>
   </si>
   <si>
     <t>epo:Procedure / epo:ParticipationConditionsSummary / rdf:langString</t>

--- a/mappings/package_F12/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F12/transformation/conceptual_mappings.xlsx
@@ -3362,7 +3362,7 @@
     <t>epo:Lot / epo:SelectionCriterion / rdf:langString</t>
   </si>
   <si>
-    <t>?this epo:specifiesSelectionCriterion / ccev:description ?value .</t>
+    <t>?this epo:specifiesSelectionCriterion / cccev:description ?value .</t>
   </si>
   <si>
     <t>epo:Procedure / epo:ParticipationConditionsSummary / rdf:langString</t>

--- a/mappings/package_F12/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F12/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="845">
   <si>
     <t>Field</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.2-alpha.1</t>
+    <t>2.1.2-alpha.6</t>
   </si>
   <si>
     <r>
@@ -250,12 +250,6 @@
     <t>?this epo:announcesRole ?value</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / epo:Procedure</t>
-  </si>
-  <si>
-    <t>?this epo:contextualisedBy ?value</t>
-  </si>
-  <si>
     <t>I.1.1</t>
   </si>
   <si>
@@ -3359,69 +3353,70 @@
     <t>LEFTI/CRITERIA_SELECTION/P</t>
   </si>
   <si>
-    <t>epo:Lot / epo:SelectionCriterion / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:specifiesSelectionCriterion / cccev:description ?value .</t>
-  </si>
-  <si>
     <t>epo:Procedure / epo:ParticipationConditionsSummary / rdf:langString</t>
   </si>
   <si>
     <t>?this epo:specifiesProcurementCriteriaSummary / epo:describesObjectiveParticipationRules ?value .</t>
+  </si>
+  <si>
+    <t>Should not be mapped to EPO 3.1.0, as the information is provided for Procedure in Standard forms. Only in eForms it is provided per lot
+Check EPO 4.0.0 class and instance diagrams for mappings.
+Initial mapping attempt to EPO 3.1.0 was:
+epo:Lot / epo:SelectionCriterion / rdf:langString
+?this epo:specifiesSelectionCriterion / cccev:description ?value .</t>
+  </si>
+  <si>
+    <t>BT-751</t>
+  </si>
+  <si>
+    <t>III.2.1</t>
+  </si>
+  <si>
+    <t>Information about a particular profession</t>
+  </si>
+  <si>
+    <t>III.2.1.1</t>
+  </si>
+  <si>
+    <t>Execution of the service is reserved to a particular profession</t>
+  </si>
+  <si>
+    <t>BT-747</t>
+  </si>
+  <si>
+    <t>LEFTI/PARTICULAR_PROFESSION</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:ProfessionalSuitabilitySummary / xsd:boolean</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesProcurementCriteriaSummary / epo:hasServiceReservedToParticularProfession true .</t>
+  </si>
+  <si>
+    <t>Not mappable properly to EPO v3.1.0.
+See the related comments in the "Mapping Remarks" sheet for more details.</t>
+  </si>
+  <si>
+    <t>III.2.1.2</t>
+  </si>
+  <si>
+    <t>Indicate profession</t>
+  </si>
+  <si>
+    <t>BT-79</t>
+  </si>
+  <si>
+    <t>Performing Staff Qualification</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:ProfessionalSuitabilitySummary / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesProcurementCriteriaSummary / epo:describesProfession ?value</t>
   </si>
   <si>
     <t>Should not be mapped to EPO 3.1.0, as the information is provided for Procedure in Standard forms. Only in eForms it is provided per lot
 Check EPO 4.0.0 class and instance diagrams for mappings.</t>
-  </si>
-  <si>
-    <t>BT-751</t>
-  </si>
-  <si>
-    <t>III.2.1</t>
-  </si>
-  <si>
-    <t>Information about a particular profession</t>
-  </si>
-  <si>
-    <t>III.2.1.1</t>
-  </si>
-  <si>
-    <t>Execution of the service is reserved to a particular profession</t>
-  </si>
-  <si>
-    <t>BT-747</t>
-  </si>
-  <si>
-    <t>LEFTI/PARTICULAR_PROFESSION</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:ProfessionalSuitabilitySummary / xsd:boolean</t>
-  </si>
-  <si>
-    <t>?this epo:specifiesProcurementCriteriaSummary / epo:hasServiceReservedToParticularProfession true .</t>
-  </si>
-  <si>
-    <t>Not mappable properly to EPO v3.1.0.
-See the related comments in the "Mapping Remarks" sheet for more details.</t>
-  </si>
-  <si>
-    <t>III.2.1.2</t>
-  </si>
-  <si>
-    <t>Indicate profession</t>
-  </si>
-  <si>
-    <t>BT-79</t>
-  </si>
-  <si>
-    <t>Performing Staff Qualification</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:ProfessionalSuitabilitySummary / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:specifiesProcurementCriteriaSummary / epo:describesProfession ?value</t>
   </si>
   <si>
     <t>Section IV</t>
@@ -5003,6 +4998,45 @@
   </si>
   <si>
     <t>epo:Notice / xsd:date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasDispatchDate ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
   </si>
   <si>
     <r>
@@ -5629,12 +5663,12 @@
     </font>
     <font>
       <b/>
-      <u/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <u/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -5729,12 +5763,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
         <bgColor rgb="FFCCECFF"/>
       </patternFill>
@@ -5743,6 +5771,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDAC1ED"/>
         <bgColor rgb="FFDAC1ED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -5868,7 +5902,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="155">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5941,8 +5975,8 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -5977,16 +6011,34 @@
     <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -5995,34 +6047,13 @@
     <xf borderId="7" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -6032,40 +6063,34 @@
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -6080,6 +6105,9 @@
     <xf borderId="0" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -6089,28 +6117,25 @@
     <xf borderId="7" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="7" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6119,22 +6144,25 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6146,10 +6174,13 @@
     <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6158,8 +6189,8 @@
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="14" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6170,25 +6201,25 @@
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="8" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6242,9 +6273,6 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -6282,10 +6310,10 @@
     <xf borderId="0" fillId="6" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6294,7 +6322,7 @@
     <xf borderId="0" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9832,11 +9860,11 @@
       <c r="H3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="L3" s="28"/>
@@ -9864,9 +9892,9 @@
       <c r="H4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="38" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="28"/>
@@ -9887,11 +9915,11 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="7"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -9911,11 +9939,11 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="7"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -9926,10 +9954,10 @@
       <c r="R6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="4"/>
@@ -9937,15 +9965,15 @@
       <c r="E7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="7"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -9956,26 +9984,32 @@
       <c r="R7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35" t="s">
+      <c r="A8" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="B8" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="C8" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="7"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -9986,32 +10020,32 @@
       <c r="R8" s="28"/>
     </row>
     <row r="9">
-      <c r="A9" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="44" t="s">
+      <c r="A9" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="B9" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="35"/>
+      <c r="C9" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="7"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -10022,32 +10056,30 @@
       <c r="R9" s="28"/>
     </row>
     <row r="10">
-      <c r="A10" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="B10" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="35"/>
+      <c r="C10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="7"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
@@ -10058,30 +10090,30 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>81</v>
+      <c r="A11" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>86</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35" t="s">
-        <v>85</v>
-      </c>
       <c r="H11" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+        <v>90</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="7"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
@@ -10092,30 +10124,32 @@
       <c r="R11" s="28"/>
     </row>
     <row r="12">
-      <c r="A12" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="35" t="s">
+      <c r="A12" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="35" t="s">
+      <c r="B12" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="C12" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="7"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
@@ -10126,32 +10160,30 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="36" t="s">
+      <c r="A13" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="B13" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
+      <c r="C13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="7"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -10162,30 +10194,30 @@
       <c r="R13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35" t="s">
+      <c r="A14" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="B14" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
+      <c r="C14" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="7"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -10196,30 +10228,32 @@
       <c r="R14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
+      <c r="E15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="4"/>
       <c r="K15" s="7"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
@@ -10230,32 +10264,30 @@
       <c r="R15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>116</v>
+      <c r="A16" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>120</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="35"/>
+      <c r="H16" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="7"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -10266,30 +10298,30 @@
       <c r="R16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>122</v>
+      <c r="A17" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>126</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="35"/>
+        <v>128</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="7"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
@@ -10300,30 +10332,30 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>128</v>
+      <c r="A18" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="35"/>
+        <v>135</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+        <v>117</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="7"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
@@ -10334,30 +10366,20 @@
       <c r="R18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="35" t="s">
+      <c r="A19" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="48" t="s">
+      <c r="B19" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="7"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
@@ -10368,20 +10390,30 @@
       <c r="R19" s="28"/>
     </row>
     <row r="20">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
+      <c r="C20" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="7"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -10393,29 +10425,29 @@
     </row>
     <row r="21">
       <c r="A21" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="H21" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
+      <c r="C21" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="7"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
@@ -10426,30 +10458,20 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22">
-      <c r="A22" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
+      <c r="A22" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="7"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -10460,103 +10482,115 @@
       <c r="R22" s="28"/>
     </row>
     <row r="23">
-      <c r="A23" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>56</v>
+      <c r="A23" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
+      <c r="E23" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
     </row>
     <row r="24">
-      <c r="A24" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="41" t="s">
+      <c r="A24" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
+      <c r="I24" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="43"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
     </row>
     <row r="25">
-      <c r="A25" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="44" t="s">
+      <c r="A25" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="44" t="s">
+      <c r="F25" s="43"/>
+      <c r="G25" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="I25" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="56"/>
+      <c r="I25" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="42"/>
+      <c r="K25" s="55"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
@@ -10566,33 +10600,31 @@
       <c r="R25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="45" t="s">
+      <c r="A26" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="45" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="I26" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
@@ -10602,30 +10634,30 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>81</v>
+      <c r="A27" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>86</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35" t="s">
-        <v>85</v>
       </c>
       <c r="H27" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="7"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
@@ -10636,30 +10668,32 @@
       <c r="R27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="35" t="s">
+      <c r="A28" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="35" t="s">
+      <c r="F28" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
+      <c r="G28" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="7"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
@@ -10670,75 +10704,73 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="35" t="s">
+      <c r="A29" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="48" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
     </row>
     <row r="30">
-      <c r="A30" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="35" t="s">
+      <c r="A30" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="35" t="s">
+      <c r="F30" s="42"/>
+      <c r="G30" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="7"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="55"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
@@ -10748,31 +10780,33 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="44" t="s">
+      <c r="A31" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="H31" s="44" t="s">
+      <c r="E31" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="56"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
@@ -10782,32 +10816,30 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>116</v>
+      <c r="A32" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>120</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="I32" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" s="35"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="7"/>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
@@ -10818,30 +10850,30 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>122</v>
+      <c r="A33" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>126</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="35"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="H33" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="7"/>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -10852,30 +10884,30 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>128</v>
+      <c r="A34" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="35"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="H34" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="7"/>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
@@ -10886,63 +10918,63 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="35" t="s">
+      <c r="A35" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="H35" s="58" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="55"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="55"/>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
@@ -10953,30 +10985,30 @@
     </row>
     <row r="37">
       <c r="A37" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="61" t="s">
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="56"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
@@ -10986,29 +11018,19 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="35" t="s">
+      <c r="A38" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" s="48" t="s">
+      <c r="B38" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="I38" s="38"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="28"/>
@@ -11020,19 +11042,25 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="38"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="42"/>
+      <c r="G39" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="28"/>
@@ -11044,69 +11072,69 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40" s="44"/>
+      <c r="A40" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="36"/>
       <c r="G40" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="H40" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="I40" s="38"/>
+        <v>194</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="55"/>
-      <c r="Z40" s="55"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
     </row>
     <row r="41">
-      <c r="A41" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="B41" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H41" s="48" t="s">
+      <c r="A41" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="I41" s="38" t="s">
+      <c r="B41" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="42"/>
+      <c r="G41" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="28"/>
@@ -11118,25 +11146,27 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="F42" s="44"/>
-      <c r="G42" s="35" t="s">
+      <c r="A42" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="B42" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="I42" s="38"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="G42" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="H42" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="28"/>
@@ -11148,25 +11178,25 @@
       <c r="R42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="F43" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="G43" s="62" t="s">
+      <c r="A43" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="H43" s="62" t="s">
+      <c r="B43" s="45" t="s">
         <v>209</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" s="46" t="s">
+        <v>213</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -11180,25 +11210,27 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44">
-      <c r="A44" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="B44" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48" t="s">
+      <c r="A44" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="H44" s="48" t="s">
+      <c r="B44" s="51" t="s">
         <v>215</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>220</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -11212,27 +11244,25 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="F45" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="G45" s="48" t="s">
+      <c r="A45" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="H45" s="48" t="s">
+      <c r="B45" s="45" t="s">
         <v>222</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="H45" s="60" t="s">
+        <v>224</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -11246,25 +11276,27 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="B46" s="63" t="s">
-        <v>224</v>
+      <c r="A46" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D46" s="58"/>
-      <c r="E46" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="F46" s="58"/>
+      <c r="E46" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="F46" s="58" t="s">
+        <v>228</v>
+      </c>
       <c r="G46" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="H46" s="64" t="s">
-        <v>226</v>
+        <v>219</v>
+      </c>
+      <c r="H46" s="58" t="s">
+        <v>229</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -11278,28 +11310,18 @@
       <c r="R46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="B47" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="F47" s="48" t="s">
+      <c r="A47" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="G47" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="H47" s="48" t="s">
+      <c r="B47" s="45" t="s">
         <v>231</v>
       </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="7"/>
@@ -11312,18 +11334,26 @@
       <c r="R47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="59" t="s">
+        <v>61</v>
+      </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="7"/>
@@ -11336,69 +11366,69 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="D49" s="64"/>
+      <c r="E49" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="F49" s="4"/>
+      <c r="G49" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
+      <c r="H49" s="59" t="s">
         <v>237</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" s="62" t="s">
-        <v>61</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="55"/>
-      <c r="Y49" s="55"/>
-      <c r="Z49" s="55"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="54"/>
+      <c r="W49" s="54"/>
+      <c r="X49" s="54"/>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="54"/>
     </row>
     <row r="50">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="C50" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="D50" s="67"/>
-      <c r="E50" s="68" t="s">
-        <v>237</v>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="H50" s="62" t="s">
-        <v>239</v>
+      <c r="G50" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="66" t="s">
+        <v>61</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+      <c r="K50" s="55"/>
       <c r="L50" s="28"/>
       <c r="M50" s="28"/>
       <c r="N50" s="28"/>
@@ -11408,29 +11438,33 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="B51" s="53" t="s">
+      <c r="A51" s="67" t="s">
         <v>241</v>
       </c>
+      <c r="B51" s="68" t="s">
+        <v>63</v>
+      </c>
       <c r="C51" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D51" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E51" s="4" t="s">
         <v>242</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="69" t="s">
-        <v>60</v>
+      <c r="G51" s="66" t="s">
+        <v>67</v>
       </c>
       <c r="H51" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="I51" s="70" t="s">
+        <v>69</v>
+      </c>
       <c r="J51" s="7"/>
-      <c r="K51" s="56"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="28"/>
       <c r="M51" s="28"/>
       <c r="N51" s="28"/>
@@ -11440,30 +11474,30 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="B52" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="A52" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="H52" s="72" t="s">
+      <c r="B52" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="I52" s="38" t="s">
-        <v>71</v>
+      <c r="F52" s="46"/>
+      <c r="G52" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="I52" s="70" t="s">
+        <v>77</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -11476,31 +11510,29 @@
       <c r="R52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="B53" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="48" t="s">
+      <c r="A53" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="F53" s="48"/>
-      <c r="G53" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="H53" s="72" t="s">
+      <c r="B53" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="I53" s="38" t="s">
-        <v>79</v>
-      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H53" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="28"/>
@@ -11512,27 +11544,27 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="B54" s="71" t="s">
-        <v>81</v>
+      <c r="A54" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>86</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D54" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="H54" s="74" t="s">
-        <v>251</v>
+      <c r="H54" s="72" t="s">
+        <v>252</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -11546,27 +11578,29 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="B55" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="A55" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="H55" s="74" t="s">
+      <c r="B55" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="35" t="s">
         <v>254</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="G55" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" s="72" t="s">
+        <v>256</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -11580,29 +11614,27 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="B56" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="F56" s="35" t="s">
+      <c r="A56" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="G56" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="H56" s="72" t="s">
+      <c r="B56" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>258</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" s="69" t="s">
+        <v>259</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -11616,27 +11648,27 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="B57" s="71" t="s">
-        <v>102</v>
+      <c r="A57" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="B57" s="68" t="s">
+        <v>107</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="H57" s="72" t="s">
-        <v>261</v>
+      <c r="G57" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" s="69" t="s">
+        <v>262</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -11650,29 +11682,31 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="70" t="s">
-        <v>262</v>
-      </c>
-      <c r="B58" s="71" t="s">
-        <v>109</v>
+      <c r="A58" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58" s="68" t="s">
+        <v>114</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="H58" s="72" t="s">
-        <v>264</v>
-      </c>
-      <c r="I58" s="7"/>
+      <c r="G58" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="H58" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="I58" s="70" t="s">
+        <v>69</v>
+      </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="28"/>
@@ -11684,31 +11718,29 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="B59" s="71" t="s">
-        <v>116</v>
+      <c r="A59" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="H59" s="72" t="s">
-        <v>267</v>
-      </c>
-      <c r="I59" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="H59" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="28"/>
@@ -11720,27 +11752,27 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="B60" s="71" t="s">
-        <v>122</v>
+      <c r="A60" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="B60" s="68" t="s">
+        <v>126</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="H60" s="72" t="s">
-        <v>270</v>
+      <c r="G60" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" s="69" t="s">
+        <v>271</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -11754,27 +11786,27 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="B61" s="71" t="s">
-        <v>128</v>
+      <c r="A61" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="B61" s="68" t="s">
+        <v>133</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="H61" s="72" t="s">
-        <v>273</v>
+      <c r="G61" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="H61" s="69" t="s">
+        <v>274</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -11788,28 +11820,18 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="70" t="s">
-        <v>274</v>
-      </c>
-      <c r="B62" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E62" s="4" t="s">
+      <c r="A62" s="67" t="s">
         <v>275</v>
       </c>
+      <c r="B62" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="H62" s="72" t="s">
-        <v>276</v>
-      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -11822,21 +11844,31 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B63" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
       <c r="L63" s="28"/>
       <c r="M63" s="28"/>
       <c r="N63" s="28"/>
@@ -11846,31 +11878,21 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="B64" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="E64" s="44" t="s">
+      <c r="A64" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F64" s="76"/>
-      <c r="G64" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="H64" s="77" t="s">
+      <c r="B64" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
       <c r="N64" s="28"/>
@@ -11880,18 +11902,26 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="C65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="D65" s="4"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="E65" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="F65" s="76"/>
+      <c r="G65" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="H65" s="75" t="s">
+        <v>286</v>
+      </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -11904,25 +11934,25 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="B66" s="53" t="s">
-        <v>284</v>
+      <c r="A66" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>288</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="62" t="s">
-        <v>286</v>
-      </c>
-      <c r="F66" s="78"/>
-      <c r="G66" s="62" t="s">
-        <v>287</v>
-      </c>
-      <c r="H66" s="62" t="s">
-        <v>288</v>
+      <c r="E66" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="F66" s="77"/>
+      <c r="G66" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H66" s="59" t="s">
+        <v>61</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -11936,29 +11966,29 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="B67" s="53" t="s">
+      <c r="A67" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="B67" s="79" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="80" t="s">
         <v>290</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="F67" s="78"/>
-      <c r="G67" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H67" s="62" t="s">
-        <v>61</v>
+      <c r="F67" s="77"/>
+      <c r="G67" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="H67" s="59" t="s">
+        <v>237</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+      <c r="K67" s="70" t="s">
+        <v>291</v>
+      </c>
       <c r="L67" s="28"/>
       <c r="M67" s="28"/>
       <c r="N67" s="28"/>
@@ -11968,29 +11998,29 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="79" t="s">
+      <c r="A68" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="B68" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B68" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="F68" s="82"/>
-      <c r="G68" s="83" t="s">
-        <v>238</v>
-      </c>
-      <c r="H68" s="83" t="s">
-        <v>239</v>
+      <c r="E68" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="F68" s="76"/>
+      <c r="G68" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="H68" s="75" t="s">
+        <v>61</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="38" t="s">
-        <v>293</v>
-      </c>
+      <c r="K68" s="7"/>
       <c r="L68" s="28"/>
       <c r="M68" s="28"/>
       <c r="N68" s="28"/>
@@ -12000,27 +12030,31 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="B69" s="53" t="s">
+      <c r="A69" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="62" t="s">
+      <c r="B69" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="F69" s="78"/>
-      <c r="G69" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H69" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I69" s="7"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="H69" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="I69" s="70" t="s">
+        <v>69</v>
+      </c>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="28"/>
@@ -12032,30 +12066,30 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="70" t="s">
-        <v>297</v>
-      </c>
-      <c r="B70" s="71" t="s">
-        <v>65</v>
+      <c r="A70" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="B70" s="68" t="s">
+        <v>71</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E70" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="F70" s="78"/>
-      <c r="G70" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="H70" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E70" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="I70" s="38" t="s">
-        <v>71</v>
+      <c r="F70" s="77"/>
+      <c r="G70" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="I70" s="70" t="s">
+        <v>77</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -12068,31 +12102,29 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="70" t="s">
-        <v>300</v>
-      </c>
-      <c r="B71" s="71" t="s">
-        <v>73</v>
+      <c r="A71" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="B71" s="68" t="s">
+        <v>79</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E71" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="F71" s="78"/>
-      <c r="G71" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="H71" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="59" t="s">
         <v>302</v>
       </c>
-      <c r="I71" s="38" t="s">
-        <v>79</v>
-      </c>
+      <c r="F71" s="77"/>
+      <c r="G71" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="28"/>
@@ -12104,27 +12136,27 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="70" t="s">
-        <v>303</v>
-      </c>
-      <c r="B72" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" s="38" t="s">
+      <c r="A72" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="B72" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="F72" s="76"/>
+      <c r="G72" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="F72" s="82"/>
-      <c r="G72" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72" s="62" t="s">
-        <v>305</v>
+      <c r="H72" s="59" t="s">
+        <v>306</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -12138,27 +12170,29 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="70" t="s">
-        <v>306</v>
-      </c>
-      <c r="B73" s="71" t="s">
-        <v>88</v>
+      <c r="A73" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="B73" s="68" t="s">
+        <v>92</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="F73" s="82"/>
-      <c r="G73" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="H73" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="59" t="s">
         <v>308</v>
+      </c>
+      <c r="F73" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="G73" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="H73" s="81" t="s">
+        <v>310</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -12172,29 +12206,27 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="70" t="s">
-        <v>309</v>
-      </c>
-      <c r="B74" s="71" t="s">
-        <v>94</v>
+      <c r="A74" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="B74" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E74" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="F74" s="62" t="s">
-        <v>311</v>
-      </c>
-      <c r="G74" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="H74" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="59" t="s">
         <v>312</v>
+      </c>
+      <c r="F74" s="77"/>
+      <c r="G74" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="H74" s="81" t="s">
+        <v>313</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
@@ -12208,27 +12240,27 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="70" t="s">
-        <v>313</v>
-      </c>
-      <c r="B75" s="71" t="s">
-        <v>102</v>
+      <c r="A75" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="B75" s="68" t="s">
+        <v>107</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E75" s="62" t="s">
-        <v>314</v>
-      </c>
-      <c r="F75" s="78"/>
-      <c r="G75" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="H75" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" s="59" t="s">
         <v>315</v>
+      </c>
+      <c r="F75" s="77"/>
+      <c r="G75" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="H75" s="59" t="s">
+        <v>316</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -12242,29 +12274,31 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="70" t="s">
-        <v>316</v>
-      </c>
-      <c r="B76" s="71" t="s">
-        <v>109</v>
+      <c r="A76" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="B76" s="68" t="s">
+        <v>114</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E76" s="62" t="s">
-        <v>317</v>
-      </c>
-      <c r="F76" s="78"/>
-      <c r="G76" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="H76" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="I76" s="7"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="H76" s="81" t="s">
+        <v>319</v>
+      </c>
+      <c r="I76" s="70" t="s">
+        <v>69</v>
+      </c>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="28"/>
@@ -12276,31 +12310,29 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="70" t="s">
-        <v>319</v>
-      </c>
-      <c r="B77" s="71" t="s">
-        <v>116</v>
+      <c r="A77" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="B77" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="C77" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="59" t="s">
+        <v>321</v>
+      </c>
+      <c r="F77" s="76"/>
+      <c r="G77" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="E77" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="F77" s="82"/>
-      <c r="G77" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="H77" s="84" t="s">
-        <v>321</v>
-      </c>
-      <c r="I77" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="H77" s="81" t="s">
+        <v>322</v>
+      </c>
+      <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="28"/>
@@ -12312,27 +12344,27 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="B78" s="71" t="s">
-        <v>122</v>
+      <c r="A78" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="B78" s="68" t="s">
+        <v>126</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="F78" s="78"/>
-      <c r="G78" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="H78" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="59" t="s">
         <v>324</v>
+      </c>
+      <c r="F78" s="77"/>
+      <c r="G78" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="H78" s="81" t="s">
+        <v>325</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
@@ -12346,27 +12378,27 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="70" t="s">
-        <v>325</v>
-      </c>
-      <c r="B79" s="71" t="s">
-        <v>128</v>
+      <c r="A79" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="B79" s="68" t="s">
+        <v>133</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="F79" s="78"/>
-      <c r="G79" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="H79" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="59" t="s">
         <v>327</v>
+      </c>
+      <c r="F79" s="77"/>
+      <c r="G79" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="H79" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -12380,28 +12412,18 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="70" t="s">
-        <v>328</v>
-      </c>
-      <c r="B80" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E80" s="62" t="s">
+      <c r="A80" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="F80" s="78"/>
-      <c r="G80" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="H80" s="62" t="s">
-        <v>330</v>
-      </c>
+      <c r="B80" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
@@ -12414,18 +12436,28 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="70" t="s">
+      <c r="A81" s="82" t="s">
+        <v>330</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="B81" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="62"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="H81" s="59" t="s">
+        <v>332</v>
+      </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -12438,27 +12470,25 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="85" t="s">
-        <v>332</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D82" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E82" s="62" t="s">
+      <c r="A82" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="F82" s="78"/>
-      <c r="G82" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="H82" s="62" t="s">
+      <c r="B82" s="45" t="s">
         <v>334</v>
+      </c>
+      <c r="C82" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="H82" s="46" t="s">
+        <v>338</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -12472,24 +12502,24 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="83" t="s">
+        <v>333</v>
+      </c>
+      <c r="B83" s="84" t="s">
+        <v>334</v>
+      </c>
+      <c r="C83" s="85" t="s">
         <v>335</v>
       </c>
-      <c r="B83" s="47" t="s">
+      <c r="D83" s="85"/>
+      <c r="E83" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="C83" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="F83" s="58"/>
-      <c r="G83" s="48" t="s">
+      <c r="F83" s="87"/>
+      <c r="G83" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="H83" s="48" t="s">
+      <c r="H83" s="85" t="s">
         <v>340</v>
       </c>
       <c r="I83" s="7"/>
@@ -12504,29 +12534,33 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="86" t="s">
-        <v>335</v>
-      </c>
-      <c r="B84" s="87" t="s">
-        <v>336</v>
-      </c>
-      <c r="C84" s="88" t="s">
-        <v>337</v>
-      </c>
-      <c r="D84" s="88"/>
-      <c r="E84" s="89" t="s">
-        <v>338</v>
-      </c>
-      <c r="F84" s="36"/>
-      <c r="G84" s="88" t="s">
+      <c r="A84" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="H84" s="88" t="s">
+      <c r="B84" s="39" t="s">
         <v>342</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E84" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H84" s="35" t="s">
+        <v>347</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
+      <c r="K84" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="L84" s="28"/>
       <c r="M84" s="28"/>
       <c r="N84" s="28"/>
@@ -12536,33 +12570,25 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="B85" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E85" s="41" t="s">
-        <v>347</v>
+      <c r="A85" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="B85" s="45"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H85" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38" t="s">
-        <v>350</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
       <c r="L85" s="28"/>
       <c r="M85" s="28"/>
       <c r="N85" s="28"/>
@@ -12572,25 +12598,33 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="46" t="s">
-        <v>351</v>
-      </c>
-      <c r="B86" s="47"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35" t="s">
+      <c r="A86" s="38" t="s">
         <v>353</v>
       </c>
+      <c r="B86" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E86" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="H86" s="35" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
+      <c r="K86" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="L86" s="28"/>
       <c r="M86" s="28"/>
       <c r="N86" s="28"/>
@@ -12600,1478 +12634,1472 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="B87" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E87" s="90" t="s">
-        <v>359</v>
+      <c r="A87" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="B87" s="45"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H87" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38" t="s">
-        <v>350</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="H87" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
     </row>
     <row r="88">
-      <c r="A88" s="46" t="s">
-        <v>362</v>
-      </c>
-      <c r="B88" s="47"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="35" t="s">
+      <c r="A88" s="38" t="s">
         <v>363</v>
       </c>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35" t="s">
-        <v>353</v>
+      <c r="B88" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E88" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="H88" s="35" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="B89" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E89" s="41" t="s">
+      <c r="A89" s="44" t="s">
         <v>367</v>
+      </c>
+      <c r="B89" s="45"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H89" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
+        <v>369</v>
+      </c>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="B90" s="47"/>
+      <c r="A90" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="B90" s="88" t="s">
+        <v>371</v>
+      </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="35" t="s">
-        <v>370</v>
-      </c>
+      <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="H90" s="35" t="s">
-        <v>371</v>
-      </c>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="B91" s="91" t="s">
+      <c r="B91" s="39" t="s">
         <v>373</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="4"/>
+      <c r="E91" s="35"/>
       <c r="F91" s="7"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
+      <c r="H91" s="35"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="39" t="s">
+      <c r="A92" s="44" t="s">
         <v>374</v>
       </c>
-      <c r="B92" s="40" t="s">
+      <c r="B92" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
+      <c r="D92" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H92" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J92" s="7"/>
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="B93" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38" t="s">
+      <c r="A93" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="H93" s="38" t="s">
+      <c r="B93" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="I93" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
+      <c r="C93" s="89" t="s">
+        <v>381</v>
+      </c>
+      <c r="D93" s="89" t="s">
+        <v>382</v>
+      </c>
+      <c r="E93" s="89" t="s">
+        <v>383</v>
+      </c>
+      <c r="F93" s="89"/>
+      <c r="G93" s="89" t="s">
+        <v>384</v>
+      </c>
+      <c r="H93" s="89" t="s">
+        <v>385</v>
+      </c>
+      <c r="I93" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="J93" s="55"/>
+      <c r="K93" s="7"/>
     </row>
     <row r="94">
-      <c r="A94" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="B94" s="51" t="s">
-        <v>382</v>
-      </c>
-      <c r="C94" s="45" t="s">
-        <v>383</v>
-      </c>
-      <c r="D94" s="45" t="s">
-        <v>384</v>
-      </c>
-      <c r="E94" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45" t="s">
+      <c r="A94" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="H94" s="45" t="s">
+      <c r="B94" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="I94" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="J94" s="56"/>
+      <c r="C94" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H94" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
     <row r="95">
-      <c r="A95" s="46" t="s">
-        <v>388</v>
-      </c>
-      <c r="B95" s="47" t="s">
-        <v>389</v>
+      <c r="A95" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="B95" s="51" t="s">
+        <v>394</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E95" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="H95" s="62" t="s">
-        <v>394</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="35"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
+      <c r="K95" s="7" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="52" t="s">
-        <v>395</v>
-      </c>
-      <c r="B96" s="53" t="s">
-        <v>396</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E96" s="35" t="s">
+      <c r="A96" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
+      <c r="B96" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
       <c r="H96" s="35"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="38" t="s">
-        <v>400</v>
-      </c>
+      <c r="K96" s="7"/>
     </row>
     <row r="97">
-      <c r="A97" s="39" t="s">
+      <c r="A97" s="44" t="s">
         <v>401</v>
       </c>
-      <c r="B97" s="40" t="s">
-        <v>8</v>
+      <c r="B97" s="45" t="s">
+        <v>402</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="41" t="s">
-        <v>402</v>
-      </c>
+      <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="46" t="s">
+      <c r="A98" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="B98" s="47" t="s">
+      <c r="B98" s="51" t="s">
+        <v>387</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
+      <c r="G98" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H98" s="35" t="s">
+        <v>406</v>
+      </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="52" t="s">
-        <v>405</v>
-      </c>
-      <c r="B99" s="53" t="s">
-        <v>389</v>
+      <c r="A99" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="B99" s="51" t="s">
+        <v>394</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E99" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="H99" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>408</v>
       </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="35"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
+      <c r="K99" s="7" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="52" t="s">
+      <c r="A100" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="B100" s="53" t="s">
-        <v>396</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E100" s="35" t="s">
+      <c r="B100" s="45" t="s">
         <v>410</v>
       </c>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="7"/>
+      <c r="C100" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="D100" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H100" s="90" t="s">
+        <v>414</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J100" s="7"/>
-      <c r="K100" s="38" t="s">
-        <v>400</v>
-      </c>
+      <c r="K100" s="7"/>
     </row>
     <row r="101">
-      <c r="A101" s="46" t="s">
-        <v>411</v>
-      </c>
-      <c r="B101" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="C101" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="D101" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35" t="s">
+      <c r="A101" s="44" t="s">
         <v>415</v>
       </c>
-      <c r="H101" s="92" t="s">
+      <c r="B101" s="45" t="s">
         <v>416</v>
       </c>
-      <c r="I101" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
     </row>
     <row r="102">
-      <c r="A102" s="46" t="s">
+      <c r="A102" s="50" t="s">
         <v>417</v>
       </c>
-      <c r="B102" s="47" t="s">
+      <c r="B102" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
+      <c r="C102" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="D102" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="E102" s="46"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="36"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="52" t="s">
+      <c r="A103" s="67" t="s">
+        <v>421</v>
+      </c>
+      <c r="B103" s="68" t="s">
+        <v>422</v>
+      </c>
+      <c r="C103" s="46" t="s">
         <v>419</v>
       </c>
-      <c r="B103" s="53" t="s">
+      <c r="D103" s="46" t="s">
         <v>420</v>
       </c>
-      <c r="C103" s="48" t="s">
-        <v>421</v>
-      </c>
-      <c r="D103" s="48" t="s">
-        <v>422</v>
-      </c>
-      <c r="E103" s="36"/>
+      <c r="E103" s="46" t="s">
+        <v>423</v>
+      </c>
       <c r="F103" s="35"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
+      <c r="G103" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="H103" s="91" t="s">
+        <v>425</v>
+      </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="70" t="s">
-        <v>423</v>
-      </c>
-      <c r="B104" s="71" t="s">
+      <c r="A104" s="67" t="s">
+        <v>426</v>
+      </c>
+      <c r="B104" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E104" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="F104" s="35"/>
+      <c r="G104" s="46" t="s">
         <v>424</v>
       </c>
-      <c r="C104" s="48" t="s">
-        <v>421</v>
-      </c>
-      <c r="D104" s="48" t="s">
-        <v>422</v>
-      </c>
-      <c r="E104" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="F104" s="35"/>
-      <c r="G104" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="H104" s="93" t="s">
-        <v>427</v>
+      <c r="H104" s="92" t="s">
+        <v>429</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="70" t="s">
-        <v>428</v>
-      </c>
-      <c r="B105" s="71" t="s">
-        <v>429</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E105" s="36" t="s">
+      <c r="A105" s="50" t="s">
         <v>430</v>
       </c>
-      <c r="F105" s="35"/>
-      <c r="G105" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="H105" s="93" t="s">
+      <c r="B105" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="I105" s="7"/>
+      <c r="C105" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="D105" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="E105" s="52" t="s">
+        <v>423</v>
+      </c>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="H105" s="92" t="s">
+        <v>435</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="52" t="s">
-        <v>432</v>
-      </c>
-      <c r="B106" s="53" t="s">
-        <v>433</v>
-      </c>
-      <c r="C106" s="48" t="s">
-        <v>434</v>
-      </c>
-      <c r="D106" s="58" t="s">
-        <v>435</v>
-      </c>
-      <c r="E106" s="90" t="s">
-        <v>425</v>
-      </c>
-      <c r="F106" s="57"/>
-      <c r="G106" s="58" t="s">
+      <c r="A106" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="H106" s="94" t="s">
+      <c r="B106" s="88" t="s">
         <v>437</v>
       </c>
-      <c r="I106" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="C106" s="36"/>
+      <c r="D106" s="93"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="93"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="33" t="s">
+      <c r="A107" s="38" t="s">
         <v>438</v>
       </c>
-      <c r="B107" s="91" t="s">
+      <c r="B107" s="39" t="s">
         <v>439</v>
       </c>
       <c r="C107" s="36"/>
       <c r="D107" s="36"/>
-      <c r="E107" s="48"/>
+      <c r="E107" s="46"/>
       <c r="F107" s="36"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="48"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="39" t="s">
+      <c r="A108" s="94" t="s">
         <v>440</v>
       </c>
-      <c r="B108" s="40" t="s">
+      <c r="B108" s="95" t="s">
         <v>441</v>
       </c>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
+      <c r="C108" s="96" t="s">
+        <v>442</v>
+      </c>
+      <c r="D108" s="97" t="s">
+        <v>443</v>
+      </c>
+      <c r="E108" s="97" t="s">
+        <v>444</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="98"/>
+      <c r="H108" s="98"/>
+      <c r="I108" s="99" t="s">
+        <v>445</v>
+      </c>
+      <c r="J108" s="99" t="s">
+        <v>446</v>
+      </c>
+      <c r="K108" s="100" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="95" t="s">
-        <v>442</v>
-      </c>
-      <c r="B109" s="96" t="s">
+      <c r="A109" s="94" t="s">
+        <v>440</v>
+      </c>
+      <c r="B109" s="95" t="s">
+        <v>441</v>
+      </c>
+      <c r="C109" s="96" t="s">
+        <v>448</v>
+      </c>
+      <c r="D109" s="101" t="s">
         <v>443</v>
       </c>
-      <c r="C109" s="97" t="s">
+      <c r="E109" s="102" t="s">
         <v>444</v>
       </c>
-      <c r="D109" s="98" t="s">
-        <v>445</v>
-      </c>
-      <c r="E109" s="98" t="s">
-        <v>446</v>
-      </c>
       <c r="F109" s="7"/>
-      <c r="G109" s="99" t="s">
-        <v>447</v>
-      </c>
-      <c r="H109" s="99" t="s">
-        <v>448</v>
-      </c>
-      <c r="I109" s="100" t="s">
+      <c r="G109" s="103"/>
+      <c r="H109" s="103"/>
+      <c r="I109" s="101"/>
+      <c r="J109" s="101"/>
+      <c r="K109" s="100"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="44" t="s">
         <v>449</v>
       </c>
-      <c r="J109" s="100" t="s">
+      <c r="B110" s="45" t="s">
         <v>450</v>
       </c>
-      <c r="K109" s="101" t="s">
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="50" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="95" t="s">
-        <v>442</v>
-      </c>
-      <c r="B110" s="96" t="s">
-        <v>443</v>
-      </c>
-      <c r="C110" s="97" t="s">
+      <c r="B111" s="51" t="s">
         <v>452</v>
       </c>
-      <c r="D110" s="102" t="s">
-        <v>445</v>
-      </c>
-      <c r="E110" s="103" t="s">
-        <v>446</v>
-      </c>
-      <c r="F110" s="4"/>
-      <c r="G110" s="104"/>
-      <c r="H110" s="104"/>
-      <c r="I110" s="98"/>
-      <c r="J110" s="98"/>
-      <c r="K110" s="101"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="46" t="s">
+      <c r="C111" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B111" s="47" t="s">
+      <c r="D111" s="4"/>
+      <c r="E111" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
+      <c r="I111" s="99" t="s">
+        <v>455</v>
+      </c>
+      <c r="J111" s="99" t="s">
+        <v>456</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="B112" s="53" t="s">
-        <v>456</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7" t="s">
+      <c r="A112" s="104" t="s">
         <v>458</v>
       </c>
+      <c r="B112" s="105" t="s">
+        <v>459</v>
+      </c>
+      <c r="C112" s="99" t="s">
+        <v>460</v>
+      </c>
+      <c r="D112" s="99" t="s">
+        <v>461</v>
+      </c>
+      <c r="E112" s="102" t="s">
+        <v>454</v>
+      </c>
       <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="100" t="s">
-        <v>459</v>
-      </c>
-      <c r="J112" s="100" t="s">
-        <v>460</v>
-      </c>
-      <c r="K112" s="38" t="s">
-        <v>461</v>
+      <c r="G112" s="103"/>
+      <c r="H112" s="103"/>
+      <c r="I112" s="99" t="s">
+        <v>462</v>
+      </c>
+      <c r="J112" s="99" t="s">
+        <v>463</v>
+      </c>
+      <c r="K112" s="100" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="105" t="s">
-        <v>462</v>
-      </c>
-      <c r="B113" s="106" t="s">
-        <v>463</v>
-      </c>
-      <c r="C113" s="107" t="s">
-        <v>464</v>
-      </c>
-      <c r="D113" s="107" t="s">
+      <c r="A113" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="E113" s="103" t="s">
-        <v>458</v>
+      <c r="B113" s="88" t="s">
+        <v>466</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="35" t="s">
+        <v>467</v>
       </c>
       <c r="F113" s="4"/>
-      <c r="G113" s="104"/>
-      <c r="H113" s="104"/>
-      <c r="I113" s="100" t="s">
-        <v>466</v>
-      </c>
-      <c r="J113" s="100" t="s">
-        <v>467</v>
-      </c>
-      <c r="K113" s="101" t="s">
-        <v>451</v>
-      </c>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
     </row>
     <row r="114">
-      <c r="A114" s="33" t="s">
+      <c r="A114" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="B114" s="91" t="s">
-        <v>469</v>
+      <c r="B114" s="39" t="s">
+        <v>8</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="35" t="s">
-        <v>470</v>
-      </c>
+      <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="78"/>
-      <c r="H114" s="78"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="39" t="s">
-        <v>471</v>
-      </c>
-      <c r="B115" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
+      <c r="A115" s="44" t="s">
+        <v>469</v>
+      </c>
+      <c r="B115" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="46"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
     </row>
     <row r="116">
-      <c r="A116" s="46" t="s">
+      <c r="A116" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="B116" s="51" t="s">
         <v>472</v>
       </c>
-      <c r="B116" s="47" t="s">
+      <c r="C116" s="93" t="s">
         <v>473</v>
       </c>
-      <c r="C116" s="58"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="57"/>
-      <c r="F116" s="57"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="57"/>
+      <c r="D116" s="93" t="s">
+        <v>474</v>
+      </c>
+      <c r="E116" s="61" t="s">
+        <v>475</v>
+      </c>
+      <c r="F116" s="58"/>
+      <c r="G116" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H116" s="32" t="s">
+        <v>477</v>
+      </c>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
     <row r="117">
-      <c r="A117" s="52" t="s">
+      <c r="A117" s="50" t="s">
+        <v>478</v>
+      </c>
+      <c r="B117" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="C117" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="D117" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="B117" s="53" t="s">
-        <v>475</v>
-      </c>
-      <c r="C117" s="48" t="s">
+      <c r="E117" s="52" t="s">
+        <v>480</v>
+      </c>
+      <c r="F117" s="46"/>
+      <c r="G117" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="D117" s="48" t="s">
-        <v>477</v>
-      </c>
-      <c r="E117" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="F117" s="36"/>
-      <c r="G117" s="35" t="s">
-        <v>479</v>
-      </c>
-      <c r="H117" s="92" t="s">
-        <v>480</v>
+      <c r="H117" s="90" t="s">
+        <v>481</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="52" t="s">
-        <v>481</v>
-      </c>
-      <c r="B118" s="53" t="s">
+      <c r="A118" s="106" t="s">
         <v>482</v>
       </c>
-      <c r="C118" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="D118" s="58" t="s">
-        <v>477</v>
-      </c>
-      <c r="E118" s="90" t="s">
+      <c r="B118" s="107" t="s">
         <v>483</v>
       </c>
-      <c r="F118" s="57"/>
-      <c r="G118" s="38" t="s">
-        <v>479</v>
-      </c>
-      <c r="H118" s="32" t="s">
+      <c r="C118" s="108" t="s">
         <v>484</v>
       </c>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
+      <c r="D118" s="99" t="s">
+        <v>485</v>
+      </c>
+      <c r="E118" s="101" t="s">
+        <v>486</v>
+      </c>
+      <c r="F118" s="7"/>
+      <c r="G118" s="103"/>
+      <c r="H118" s="103"/>
+      <c r="I118" s="109" t="s">
+        <v>487</v>
+      </c>
+      <c r="J118" s="93"/>
+      <c r="K118" s="100" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="108" t="s">
-        <v>485</v>
-      </c>
-      <c r="B119" s="109" t="s">
-        <v>486</v>
-      </c>
-      <c r="C119" s="107" t="s">
+      <c r="A119" s="106" t="s">
+        <v>489</v>
+      </c>
+      <c r="B119" s="107" t="s">
+        <v>490</v>
+      </c>
+      <c r="C119" s="108" t="s">
+        <v>491</v>
+      </c>
+      <c r="D119" s="108" t="s">
+        <v>492</v>
+      </c>
+      <c r="E119" s="97" t="s">
+        <v>493</v>
+      </c>
+      <c r="F119" s="4"/>
+      <c r="G119" s="110"/>
+      <c r="H119" s="110"/>
+      <c r="I119" s="109" t="s">
         <v>487</v>
       </c>
-      <c r="D119" s="107" t="s">
+      <c r="J119" s="93"/>
+      <c r="K119" s="100" t="s">
         <v>488</v>
       </c>
-      <c r="E119" s="102" t="s">
-        <v>489</v>
-      </c>
-      <c r="F119" s="4"/>
-      <c r="G119" s="104"/>
-      <c r="H119" s="104"/>
-      <c r="I119" s="110" t="s">
-        <v>490</v>
-      </c>
-      <c r="J119" s="57"/>
-      <c r="K119" s="101" t="s">
-        <v>491</v>
-      </c>
     </row>
     <row r="120">
-      <c r="A120" s="108" t="s">
-        <v>492</v>
-      </c>
-      <c r="B120" s="109" t="s">
-        <v>493</v>
-      </c>
-      <c r="C120" s="100" t="s">
+      <c r="A120" s="106" t="s">
         <v>494</v>
       </c>
-      <c r="D120" s="100" t="s">
+      <c r="B120" s="107" t="s">
         <v>495</v>
       </c>
-      <c r="E120" s="102" t="s">
+      <c r="C120" s="99" t="s">
         <v>496</v>
       </c>
+      <c r="D120" s="99" t="s">
+        <v>497</v>
+      </c>
+      <c r="E120" s="97" t="s">
+        <v>498</v>
+      </c>
       <c r="F120" s="4"/>
-      <c r="G120" s="104"/>
-      <c r="H120" s="104"/>
-      <c r="I120" s="110" t="s">
-        <v>490</v>
-      </c>
-      <c r="J120" s="57"/>
-      <c r="K120" s="101" t="s">
-        <v>491</v>
+      <c r="G120" s="110"/>
+      <c r="H120" s="110"/>
+      <c r="I120" s="109" t="s">
+        <v>487</v>
+      </c>
+      <c r="J120" s="93"/>
+      <c r="K120" s="100" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="108" t="s">
-        <v>497</v>
-      </c>
-      <c r="B121" s="109" t="s">
-        <v>498</v>
-      </c>
-      <c r="C121" s="100" t="s">
+      <c r="A121" s="94" t="s">
         <v>499</v>
       </c>
-      <c r="D121" s="100" t="s">
+      <c r="B121" s="95" t="s">
         <v>500</v>
       </c>
-      <c r="E121" s="102" t="s">
+      <c r="C121" s="109" t="s">
         <v>501</v>
       </c>
-      <c r="F121" s="4"/>
-      <c r="G121" s="104"/>
-      <c r="H121" s="104"/>
-      <c r="I121" s="110" t="s">
-        <v>490</v>
-      </c>
-      <c r="J121" s="57"/>
-      <c r="K121" s="101" t="s">
-        <v>491</v>
+      <c r="D121" s="109" t="s">
+        <v>502</v>
+      </c>
+      <c r="E121" s="96" t="s">
+        <v>503</v>
+      </c>
+      <c r="F121" s="36"/>
+      <c r="G121" s="110"/>
+      <c r="H121" s="110"/>
+      <c r="I121" s="93"/>
+      <c r="J121" s="93"/>
+      <c r="K121" s="103" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="95" t="s">
-        <v>502</v>
-      </c>
-      <c r="B122" s="96" t="s">
-        <v>503</v>
-      </c>
-      <c r="C122" s="110" t="s">
-        <v>504</v>
-      </c>
-      <c r="D122" s="110" t="s">
+      <c r="A122" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="E122" s="97" t="s">
+      <c r="B122" s="45" t="s">
         <v>506</v>
       </c>
-      <c r="F122" s="36"/>
-      <c r="G122" s="104"/>
-      <c r="H122" s="104"/>
-      <c r="I122" s="57"/>
-      <c r="J122" s="57"/>
-      <c r="K122" s="111" t="s">
+      <c r="C122" s="75" t="s">
         <v>507</v>
       </c>
+      <c r="D122" s="76"/>
+      <c r="E122" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="F122" s="77"/>
+      <c r="G122" s="77"/>
+      <c r="H122" s="59"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="46" t="s">
-        <v>508</v>
-      </c>
-      <c r="B123" s="47" t="s">
-        <v>509</v>
-      </c>
-      <c r="C123" s="83" t="s">
+      <c r="A123" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="D123" s="82"/>
-      <c r="E123" s="62" t="s">
+      <c r="B123" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="F123" s="78"/>
-      <c r="G123" s="78"/>
-      <c r="H123" s="62"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
-      <c r="K123" s="38" t="s">
+      <c r="K123" s="7"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="44" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="39" t="s">
+      <c r="B124" s="45" t="s">
         <v>513</v>
       </c>
-      <c r="B124" s="40" t="s">
+      <c r="C124" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D124" s="7"/>
+      <c r="E124" s="35" t="s">
         <v>514</v>
       </c>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
+      <c r="F124" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="G124" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="H124" s="35" t="s">
+        <v>517</v>
+      </c>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
+      <c r="K124" s="70" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="46" t="s">
-        <v>515</v>
-      </c>
-      <c r="B125" s="47" t="s">
-        <v>516</v>
+      <c r="A125" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B125" s="45" t="s">
+        <v>513</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="35" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F125" s="35" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G125" s="35" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H125" s="35" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
-      <c r="K125" s="38" t="s">
-        <v>521</v>
+      <c r="K125" s="70" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="46" t="s">
-        <v>522</v>
-      </c>
-      <c r="B126" s="47" t="s">
-        <v>516</v>
+      <c r="A126" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="B126" s="45" t="s">
+        <v>525</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="D126" s="7"/>
-      <c r="E126" s="38" t="s">
-        <v>523</v>
-      </c>
-      <c r="F126" s="38" t="s">
-        <v>524</v>
-      </c>
-      <c r="G126" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="H126" s="38" t="s">
-        <v>525</v>
+      <c r="E126" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="H126" s="70" t="s">
+        <v>529</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
-      <c r="K126" s="38" t="s">
-        <v>526</v>
-      </c>
+      <c r="K126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="46" t="s">
-        <v>527</v>
-      </c>
-      <c r="B127" s="47" t="s">
-        <v>528</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>529</v>
-      </c>
+      <c r="A127" s="111" t="s">
+        <v>530</v>
+      </c>
+      <c r="B127" s="112" t="s">
+        <v>531</v>
+      </c>
+      <c r="C127" s="7"/>
       <c r="D127" s="7"/>
-      <c r="E127" s="38" t="s">
-        <v>530</v>
-      </c>
-      <c r="F127" s="7"/>
-      <c r="G127" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="H127" s="35" t="s">
+      <c r="E127" s="7"/>
+      <c r="F127" s="93"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="93"/>
+      <c r="J127" s="93"/>
+      <c r="K127" s="7"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="94" t="s">
         <v>532</v>
       </c>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="112" t="s">
+      <c r="B128" s="95" t="s">
         <v>533</v>
-      </c>
-      <c r="B128" s="113" t="s">
-        <v>534</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="4"/>
       <c r="F128" s="36"/>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="57"/>
-      <c r="J128" s="57"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="35"/>
+      <c r="I128" s="93"/>
+      <c r="J128" s="93"/>
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="95" t="s">
+      <c r="A129" s="104" t="s">
+        <v>534</v>
+      </c>
+      <c r="B129" s="105" t="s">
         <v>535</v>
       </c>
-      <c r="B129" s="96" t="s">
-        <v>536</v>
-      </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
+      <c r="C129" s="99"/>
+      <c r="D129" s="113"/>
       <c r="E129" s="4"/>
       <c r="F129" s="36"/>
-      <c r="G129" s="35"/>
-      <c r="H129" s="35"/>
-      <c r="I129" s="57"/>
-      <c r="J129" s="57"/>
+      <c r="G129" s="110"/>
+      <c r="H129" s="110"/>
+      <c r="I129" s="93"/>
+      <c r="J129" s="93"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="105" t="s">
+      <c r="A130" s="106" t="s">
+        <v>536</v>
+      </c>
+      <c r="B130" s="107" t="s">
         <v>537</v>
       </c>
-      <c r="B130" s="106" t="s">
+      <c r="C130" s="99"/>
+      <c r="D130" s="113"/>
+      <c r="E130" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C130" s="100"/>
-      <c r="D130" s="114"/>
-      <c r="E130" s="4"/>
       <c r="F130" s="36"/>
-      <c r="G130" s="104"/>
-      <c r="H130" s="104"/>
-      <c r="I130" s="57"/>
-      <c r="J130" s="57"/>
+      <c r="G130" s="110" t="s">
+        <v>539</v>
+      </c>
+      <c r="H130" s="110" t="s">
+        <v>540</v>
+      </c>
+      <c r="I130" s="93"/>
+      <c r="J130" s="93"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="108" t="s">
-        <v>539</v>
-      </c>
-      <c r="B131" s="109" t="s">
-        <v>540</v>
-      </c>
-      <c r="C131" s="100"/>
-      <c r="D131" s="114"/>
+      <c r="A131" s="106" t="s">
+        <v>541</v>
+      </c>
+      <c r="B131" s="107" t="s">
+        <v>542</v>
+      </c>
+      <c r="C131" s="99"/>
+      <c r="D131" s="113"/>
       <c r="E131" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="F131" s="57"/>
-      <c r="G131" s="111" t="s">
-        <v>542</v>
-      </c>
-      <c r="H131" s="111" t="s">
         <v>543</v>
       </c>
-      <c r="I131" s="57"/>
-      <c r="J131" s="57"/>
+      <c r="F131" s="93"/>
+      <c r="G131" s="103"/>
+      <c r="H131" s="103"/>
+      <c r="I131" s="93"/>
+      <c r="J131" s="93"/>
       <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="108" t="s">
+      <c r="A132" s="104" t="s">
         <v>544</v>
       </c>
-      <c r="B132" s="109" t="s">
+      <c r="B132" s="105" t="s">
         <v>545</v>
       </c>
-      <c r="C132" s="100"/>
-      <c r="D132" s="114"/>
+      <c r="C132" s="99"/>
+      <c r="D132" s="113"/>
       <c r="E132" s="4" t="s">
         <v>546</v>
       </c>
       <c r="F132" s="36"/>
-      <c r="G132" s="104"/>
-      <c r="H132" s="104"/>
-      <c r="I132" s="57"/>
-      <c r="J132" s="57"/>
-      <c r="K132" s="7"/>
+      <c r="G132" s="110"/>
+      <c r="H132" s="110"/>
+      <c r="I132" s="93"/>
+      <c r="J132" s="93"/>
+      <c r="K132" s="100" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="105" t="s">
-        <v>547</v>
-      </c>
-      <c r="B133" s="106" t="s">
+      <c r="A133" s="94" t="s">
         <v>548</v>
       </c>
-      <c r="C133" s="100"/>
-      <c r="D133" s="114"/>
+      <c r="B133" s="95" t="s">
+        <v>549</v>
+      </c>
+      <c r="C133" s="101" t="s">
+        <v>550</v>
+      </c>
+      <c r="D133" s="101" t="s">
+        <v>551</v>
+      </c>
       <c r="E133" s="4" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F133" s="36"/>
-      <c r="G133" s="104"/>
-      <c r="H133" s="104"/>
-      <c r="I133" s="57"/>
-      <c r="J133" s="57"/>
-      <c r="K133" s="101" t="s">
-        <v>550</v>
+      <c r="G133" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="H133" s="97" t="s">
+        <v>554</v>
+      </c>
+      <c r="I133" s="93"/>
+      <c r="J133" s="93"/>
+      <c r="K133" s="7" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="95" t="s">
-        <v>551</v>
-      </c>
-      <c r="B134" s="96" t="s">
-        <v>552</v>
-      </c>
-      <c r="C134" s="98" t="s">
-        <v>553</v>
-      </c>
-      <c r="D134" s="98" t="s">
-        <v>554</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>555</v>
-      </c>
+      <c r="A134" s="94" t="s">
+        <v>556</v>
+      </c>
+      <c r="B134" s="95" t="s">
+        <v>557</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="4"/>
       <c r="F134" s="36"/>
-      <c r="G134" s="102" t="s">
-        <v>556</v>
-      </c>
-      <c r="H134" s="102" t="s">
-        <v>557</v>
-      </c>
-      <c r="I134" s="57"/>
-      <c r="J134" s="57"/>
-      <c r="K134" s="38" t="s">
+      <c r="G134" s="4"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="93"/>
+      <c r="J134" s="93"/>
+      <c r="K134" s="7"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="104" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="95" t="s">
+      <c r="B135" s="105" t="s">
         <v>559</v>
       </c>
-      <c r="B135" s="96" t="s">
+      <c r="C135" s="101" t="s">
         <v>560</v>
       </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
+      <c r="D135" s="101" t="s">
+        <v>561</v>
+      </c>
       <c r="E135" s="4"/>
       <c r="F135" s="36"/>
-      <c r="G135" s="35"/>
-      <c r="H135" s="35"/>
-      <c r="I135" s="57"/>
-      <c r="J135" s="57"/>
+      <c r="G135" s="97"/>
+      <c r="H135" s="97"/>
+      <c r="I135" s="93"/>
+      <c r="J135" s="93"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="105" t="s">
+      <c r="A136" s="106" t="s">
+        <v>562</v>
+      </c>
+      <c r="B136" s="107" t="s">
+        <v>563</v>
+      </c>
+      <c r="C136" s="101" t="s">
+        <v>560</v>
+      </c>
+      <c r="D136" s="101" t="s">
         <v>561</v>
       </c>
-      <c r="B136" s="106" t="s">
-        <v>562</v>
-      </c>
-      <c r="C136" s="98" t="s">
-        <v>563</v>
-      </c>
-      <c r="D136" s="98" t="s">
+      <c r="E136" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="E136" s="4"/>
       <c r="F136" s="36"/>
-      <c r="G136" s="102"/>
-      <c r="H136" s="102"/>
-      <c r="I136" s="57"/>
-      <c r="J136" s="57"/>
+      <c r="G136" s="96" t="s">
+        <v>565</v>
+      </c>
+      <c r="H136" s="96" t="s">
+        <v>566</v>
+      </c>
+      <c r="I136" s="93"/>
+      <c r="J136" s="93"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="108" t="s">
+      <c r="A137" s="106" t="s">
+        <v>567</v>
+      </c>
+      <c r="B137" s="107" t="s">
+        <v>568</v>
+      </c>
+      <c r="C137" s="101" t="s">
+        <v>560</v>
+      </c>
+      <c r="D137" s="101" t="s">
+        <v>561</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F137" s="36"/>
+      <c r="G137" s="96" t="s">
         <v>565</v>
       </c>
-      <c r="B137" s="109" t="s">
-        <v>566</v>
-      </c>
-      <c r="C137" s="98" t="s">
-        <v>563</v>
-      </c>
-      <c r="D137" s="98" t="s">
-        <v>564</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="F137" s="36"/>
-      <c r="G137" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="H137" s="97" t="s">
-        <v>569</v>
-      </c>
-      <c r="I137" s="57"/>
-      <c r="J137" s="57"/>
+      <c r="H137" s="96" t="s">
+        <v>570</v>
+      </c>
+      <c r="I137" s="93"/>
+      <c r="J137" s="93"/>
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="108" t="s">
-        <v>570</v>
-      </c>
-      <c r="B138" s="109" t="s">
+      <c r="A138" s="94" t="s">
         <v>571</v>
       </c>
-      <c r="C138" s="98" t="s">
-        <v>563</v>
-      </c>
-      <c r="D138" s="98" t="s">
-        <v>564</v>
-      </c>
-      <c r="E138" s="18" t="s">
+      <c r="B138" s="95" t="s">
         <v>572</v>
       </c>
-      <c r="F138" s="115"/>
-      <c r="G138" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="H138" s="97" t="s">
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="114"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="93"/>
+      <c r="J138" s="93"/>
+      <c r="K138" s="7"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="I138" s="57"/>
-      <c r="J138" s="57"/>
-      <c r="K138" s="7"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="95" t="s">
+      <c r="B139" s="105" t="s">
         <v>574</v>
       </c>
-      <c r="B139" s="96" t="s">
+      <c r="C139" s="101" t="s">
         <v>575</v>
       </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
+      <c r="D139" s="109" t="s">
+        <v>576</v>
+      </c>
       <c r="E139" s="18"/>
-      <c r="F139" s="115"/>
-      <c r="G139" s="35"/>
-      <c r="H139" s="35"/>
-      <c r="I139" s="57"/>
-      <c r="J139" s="57"/>
+      <c r="F139" s="114"/>
+      <c r="G139" s="97"/>
+      <c r="H139" s="97"/>
+      <c r="I139" s="93"/>
+      <c r="J139" s="93"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="105" t="s">
+      <c r="A140" s="106" t="s">
+        <v>577</v>
+      </c>
+      <c r="B140" s="107" t="s">
+        <v>578</v>
+      </c>
+      <c r="C140" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="D140" s="109" t="s">
         <v>576</v>
       </c>
-      <c r="B140" s="106" t="s">
-        <v>577</v>
-      </c>
-      <c r="C140" s="98" t="s">
-        <v>578</v>
-      </c>
-      <c r="D140" s="110" t="s">
+      <c r="E140" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="E140" s="4"/>
       <c r="F140" s="36"/>
-      <c r="G140" s="102"/>
-      <c r="H140" s="102"/>
-      <c r="I140" s="57"/>
-      <c r="J140" s="57"/>
-      <c r="K140" s="7"/>
+      <c r="G140" s="96" t="s">
+        <v>565</v>
+      </c>
+      <c r="H140" s="96" t="s">
+        <v>580</v>
+      </c>
+      <c r="I140" s="93"/>
+      <c r="J140" s="93"/>
+      <c r="K140" s="7" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" s="108" t="s">
-        <v>580</v>
-      </c>
-      <c r="B141" s="109" t="s">
+      <c r="A141" s="106" t="s">
+        <v>582</v>
+      </c>
+      <c r="B141" s="107" t="s">
+        <v>583</v>
+      </c>
+      <c r="C141" s="97" t="s">
+        <v>575</v>
+      </c>
+      <c r="D141" s="109" t="s">
+        <v>576</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="F141" s="36"/>
+      <c r="G141" s="96" t="s">
+        <v>565</v>
+      </c>
+      <c r="H141" s="96" t="s">
+        <v>585</v>
+      </c>
+      <c r="I141" s="93"/>
+      <c r="J141" s="93"/>
+      <c r="K141" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="C141" s="102" t="s">
-        <v>578</v>
-      </c>
-      <c r="D141" s="110" t="s">
-        <v>579</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="F141" s="36"/>
-      <c r="G141" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="H141" s="97" t="s">
-        <v>583</v>
-      </c>
-      <c r="I141" s="57"/>
-      <c r="J141" s="57"/>
-      <c r="K141" s="38" t="s">
-        <v>584</v>
-      </c>
     </row>
     <row r="142">
-      <c r="A142" s="108" t="s">
-        <v>585</v>
-      </c>
-      <c r="B142" s="109" t="s">
+      <c r="A142" s="94" t="s">
         <v>586</v>
       </c>
-      <c r="C142" s="98" t="s">
-        <v>578</v>
-      </c>
-      <c r="D142" s="110" t="s">
-        <v>579</v>
+      <c r="B142" s="95" t="s">
+        <v>587</v>
+      </c>
+      <c r="C142" s="101" t="s">
+        <v>588</v>
+      </c>
+      <c r="D142" s="101" t="s">
+        <v>589</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="F142" s="57"/>
-      <c r="G142" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="H142" s="97" t="s">
-        <v>588</v>
-      </c>
-      <c r="I142" s="57"/>
-      <c r="J142" s="57"/>
-      <c r="K142" s="38" t="s">
-        <v>584</v>
+        <v>590</v>
+      </c>
+      <c r="F142" s="93"/>
+      <c r="G142" s="110"/>
+      <c r="H142" s="110"/>
+      <c r="I142" s="93"/>
+      <c r="J142" s="93"/>
+      <c r="K142" s="100" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="95" t="s">
-        <v>589</v>
-      </c>
-      <c r="B143" s="96" t="s">
-        <v>590</v>
-      </c>
-      <c r="C143" s="98" t="s">
-        <v>591</v>
-      </c>
-      <c r="D143" s="98" t="s">
+      <c r="A143" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="B143" s="34" t="s">
         <v>593</v>
       </c>
-      <c r="F143" s="36"/>
-      <c r="G143" s="104"/>
-      <c r="H143" s="104"/>
-      <c r="I143" s="57"/>
-      <c r="J143" s="57"/>
-      <c r="K143" s="101" t="s">
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="38" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="33" t="s">
+      <c r="B144" s="39" t="s">
         <v>595</v>
       </c>
-      <c r="B144" s="34" t="s">
+      <c r="C144" s="58" t="s">
         <v>596</v>
       </c>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="7"/>
+      <c r="D144" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="E144" s="115" t="s">
+        <v>598</v>
+      </c>
+      <c r="F144" s="115"/>
+      <c r="G144" s="116" t="s">
+        <v>377</v>
+      </c>
+      <c r="H144" s="117" t="s">
+        <v>599</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="39" t="s">
-        <v>597</v>
-      </c>
-      <c r="B145" s="40" t="s">
-        <v>598</v>
-      </c>
-      <c r="C145" s="58" t="s">
-        <v>599</v>
-      </c>
-      <c r="D145" s="7" t="s">
+      <c r="A145" s="38" t="s">
         <v>600</v>
       </c>
-      <c r="E145" s="116" t="s">
+      <c r="B145" s="39" t="s">
         <v>601</v>
       </c>
-      <c r="F145" s="116"/>
-      <c r="G145" s="117" t="s">
-        <v>379</v>
-      </c>
-      <c r="H145" s="118" t="s">
+      <c r="C145" s="118" t="s">
         <v>602</v>
       </c>
-      <c r="I145" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="D145" s="7"/>
+      <c r="E145" s="114"/>
+      <c r="F145" s="114"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="39" t="s">
+      <c r="A146" s="44" t="s">
         <v>603</v>
       </c>
-      <c r="B146" s="40" t="s">
+      <c r="B146" s="45" t="s">
         <v>604</v>
       </c>
       <c r="C146" s="119" t="s">
+        <v>602</v>
+      </c>
+      <c r="D146" s="7"/>
+      <c r="E146" s="82" t="s">
         <v>605</v>
       </c>
-      <c r="D146" s="7"/>
-      <c r="E146" s="115"/>
-      <c r="F146" s="115"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
+      <c r="F146" s="114"/>
+      <c r="G146" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H146" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="46" t="s">
+      <c r="A147" s="50" t="s">
         <v>606</v>
       </c>
-      <c r="B147" s="47" t="s">
+      <c r="B147" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C147" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D147" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E147" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="C147" s="120" t="s">
-        <v>605</v>
-      </c>
-      <c r="D147" s="7"/>
-      <c r="E147" s="35" t="s">
+      <c r="F147" s="36"/>
+      <c r="G147" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H147" s="35" t="s">
         <v>608</v>
       </c>
-      <c r="F147" s="36"/>
-      <c r="G147" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H147" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I147" s="7"/>
+      <c r="I147" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="52" t="s">
+      <c r="A148" s="50" t="s">
         <v>609</v>
       </c>
-      <c r="B148" s="53" t="s">
-        <v>65</v>
+      <c r="B148" s="51" t="s">
+        <v>79</v>
       </c>
       <c r="C148" s="58" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D148" s="58" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E148" s="36" t="s">
         <v>610</v>
       </c>
       <c r="F148" s="36"/>
       <c r="G148" s="35" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H148" s="35" t="s">
         <v>611</v>
       </c>
-      <c r="I148" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="52" t="s">
+      <c r="A149" s="50" t="s">
         <v>612</v>
       </c>
-      <c r="B149" s="53" t="s">
-        <v>81</v>
+      <c r="B149" s="51" t="s">
+        <v>86</v>
       </c>
       <c r="C149" s="58" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D149" s="58" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E149" s="36" t="s">
         <v>613</v>
       </c>
       <c r="F149" s="36"/>
       <c r="G149" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H149" s="35" t="s">
         <v>614</v>
@@ -14081,53 +14109,53 @@
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="52" t="s">
+      <c r="A150" s="50" t="s">
         <v>615</v>
       </c>
-      <c r="B150" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="C150" s="48" t="s">
-        <v>89</v>
+      <c r="B150" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C150" s="46" t="s">
+        <v>101</v>
       </c>
       <c r="D150" s="58" t="s">
-        <v>90</v>
+        <v>616</v>
       </c>
       <c r="E150" s="36" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F150" s="36"/>
       <c r="G150" s="35" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="H150" s="35" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="52" t="s">
-        <v>618</v>
-      </c>
-      <c r="B151" s="53" t="s">
-        <v>102</v>
+      <c r="A151" s="50" t="s">
+        <v>619</v>
+      </c>
+      <c r="B151" s="51" t="s">
+        <v>107</v>
       </c>
       <c r="C151" s="58" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D151" s="58" t="s">
-        <v>619</v>
+        <v>109</v>
       </c>
       <c r="E151" s="36" t="s">
         <v>620</v>
       </c>
       <c r="F151" s="36"/>
-      <c r="G151" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H151" s="35" t="s">
+      <c r="G151" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H151" s="46" t="s">
         <v>621</v>
       </c>
       <c r="I151" s="7"/>
@@ -14135,107 +14163,107 @@
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="52" t="s">
+      <c r="A152" s="50" t="s">
         <v>622</v>
       </c>
-      <c r="B152" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C152" s="58" t="s">
-        <v>110</v>
+      <c r="B152" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C152" s="93" t="s">
+        <v>127</v>
       </c>
       <c r="D152" s="58" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E152" s="36" t="s">
         <v>623</v>
       </c>
       <c r="F152" s="36"/>
-      <c r="G152" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="H152" s="48" t="s">
+      <c r="G152" s="46" t="s">
         <v>624</v>
+      </c>
+      <c r="H152" s="46" t="s">
+        <v>625</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="52" t="s">
-        <v>625</v>
-      </c>
-      <c r="B153" s="53" t="s">
-        <v>128</v>
+      <c r="A153" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="B153" s="51" t="s">
+        <v>120</v>
       </c>
       <c r="C153" s="58" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D153" s="58" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E153" s="36" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F153" s="36"/>
-      <c r="G153" s="48" t="s">
-        <v>627</v>
-      </c>
-      <c r="H153" s="48" t="s">
+      <c r="G153" s="46" t="s">
         <v>628</v>
+      </c>
+      <c r="H153" s="46" t="s">
+        <v>629</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="52" t="s">
-        <v>629</v>
-      </c>
-      <c r="B154" s="53" t="s">
-        <v>122</v>
+      <c r="A154" s="50" t="s">
+        <v>630</v>
+      </c>
+      <c r="B154" s="51" t="s">
+        <v>631</v>
       </c>
       <c r="C154" s="58" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D154" s="58" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E154" s="36" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F154" s="36"/>
-      <c r="G154" s="48" t="s">
-        <v>631</v>
-      </c>
-      <c r="H154" s="48" t="s">
-        <v>632</v>
+      <c r="G154" s="43" t="s">
+        <v>624</v>
+      </c>
+      <c r="H154" s="43" t="s">
+        <v>633</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="B155" s="53" t="s">
+      <c r="A155" s="50" t="s">
         <v>634</v>
       </c>
+      <c r="B155" s="51" t="s">
+        <v>133</v>
+      </c>
       <c r="C155" s="58" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D155" s="58" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E155" s="36" t="s">
         <v>635</v>
       </c>
       <c r="F155" s="36"/>
-      <c r="G155" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="H155" s="45" t="s">
+      <c r="G155" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="H155" s="46" t="s">
         <v>636</v>
       </c>
       <c r="I155" s="7"/>
@@ -14243,105 +14271,105 @@
       <c r="K155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="52" t="s">
+      <c r="A156" s="44" t="s">
         <v>637</v>
       </c>
-      <c r="B156" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C156" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="D156" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="E156" s="57" t="s">
+      <c r="B156" s="45" t="s">
         <v>638</v>
       </c>
-      <c r="F156" s="57"/>
-      <c r="G156" s="48" t="s">
-        <v>631</v>
-      </c>
-      <c r="H156" s="48" t="s">
+      <c r="C156" s="119" t="s">
+        <v>602</v>
+      </c>
+      <c r="D156" s="120"/>
+      <c r="E156" s="70" t="s">
         <v>639</v>
+      </c>
+      <c r="F156" s="58"/>
+      <c r="G156" s="36" t="s">
+        <v>640</v>
+      </c>
+      <c r="H156" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="46" t="s">
-        <v>640</v>
-      </c>
-      <c r="B157" s="47" t="s">
+      <c r="A157" s="50" t="s">
         <v>641</v>
       </c>
-      <c r="C157" s="120" t="s">
-        <v>605</v>
-      </c>
-      <c r="D157" s="121"/>
-      <c r="E157" s="35" t="s">
+      <c r="B157" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C157" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D157" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E157" s="36" t="s">
         <v>642</v>
       </c>
       <c r="F157" s="36"/>
-      <c r="G157" s="36" t="s">
+      <c r="G157" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H157" s="35" t="s">
         <v>643</v>
       </c>
-      <c r="H157" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I157" s="7"/>
+      <c r="I157" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="52" t="s">
+      <c r="A158" s="50" t="s">
         <v>644</v>
       </c>
-      <c r="B158" s="53" t="s">
-        <v>65</v>
+      <c r="B158" s="51" t="s">
+        <v>79</v>
       </c>
       <c r="C158" s="58" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D158" s="58" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E158" s="36" t="s">
         <v>645</v>
       </c>
       <c r="F158" s="36"/>
       <c r="G158" s="35" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H158" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="I158" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="52" t="s">
+      <c r="A159" s="50" t="s">
         <v>647</v>
       </c>
-      <c r="B159" s="53" t="s">
-        <v>81</v>
+      <c r="B159" s="51" t="s">
+        <v>86</v>
       </c>
       <c r="C159" s="58" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D159" s="58" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E159" s="36" t="s">
         <v>648</v>
       </c>
       <c r="F159" s="36"/>
       <c r="G159" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H159" s="35" t="s">
         <v>649</v>
@@ -14351,24 +14379,24 @@
       <c r="K159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="52" t="s">
+      <c r="A160" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="B160" s="53" t="s">
-        <v>88</v>
+      <c r="B160" s="51" t="s">
+        <v>100</v>
       </c>
       <c r="C160" s="58" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D160" s="58" t="s">
-        <v>90</v>
+        <v>616</v>
       </c>
       <c r="E160" s="36" t="s">
         <v>651</v>
       </c>
       <c r="F160" s="36"/>
       <c r="G160" s="35" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="H160" s="35" t="s">
         <v>652</v>
@@ -14378,24 +14406,24 @@
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="52" t="s">
+      <c r="A161" s="50" t="s">
         <v>653</v>
       </c>
-      <c r="B161" s="53" t="s">
-        <v>102</v>
+      <c r="B161" s="51" t="s">
+        <v>107</v>
       </c>
       <c r="C161" s="58" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D161" s="58" t="s">
-        <v>619</v>
+        <v>109</v>
       </c>
       <c r="E161" s="36" t="s">
         <v>654</v>
       </c>
       <c r="F161" s="36"/>
       <c r="G161" s="35" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H161" s="35" t="s">
         <v>655</v>
@@ -14405,240 +14433,240 @@
       <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="52" t="s">
+      <c r="A162" s="50" t="s">
         <v>656</v>
       </c>
-      <c r="B162" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C162" s="58" t="s">
-        <v>110</v>
+      <c r="B162" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C162" s="93" t="s">
+        <v>127</v>
       </c>
       <c r="D162" s="58" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E162" s="36" t="s">
         <v>657</v>
       </c>
       <c r="F162" s="36"/>
-      <c r="G162" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="H162" s="35" t="s">
-        <v>658</v>
+      <c r="G162" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="H162" s="46" t="s">
+        <v>625</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="52" t="s">
+      <c r="A163" s="50" t="s">
+        <v>658</v>
+      </c>
+      <c r="B163" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C163" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D163" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="E163" s="93" t="s">
         <v>659</v>
       </c>
-      <c r="B163" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C163" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="D163" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="E163" s="57" t="s">
-        <v>660</v>
-      </c>
-      <c r="F163" s="57"/>
+      <c r="F163" s="93"/>
       <c r="G163" s="58" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H163" s="58" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="52" t="s">
+      <c r="A164" s="50" t="s">
+        <v>660</v>
+      </c>
+      <c r="B164" s="51" t="s">
+        <v>631</v>
+      </c>
+      <c r="C164" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D164" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E164" s="36" t="s">
         <v>661</v>
       </c>
-      <c r="B164" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C164" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="D164" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="E164" s="36" t="s">
+      <c r="F164" s="36"/>
+      <c r="G164" s="43" t="s">
+        <v>624</v>
+      </c>
+      <c r="H164" s="43" t="s">
         <v>662</v>
-      </c>
-      <c r="F164" s="36"/>
-      <c r="G164" s="48" t="s">
-        <v>631</v>
-      </c>
-      <c r="H164" s="48" t="s">
-        <v>632</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="52" t="s">
+      <c r="A165" s="50" t="s">
         <v>663</v>
       </c>
-      <c r="B165" s="53" t="s">
-        <v>634</v>
+      <c r="B165" s="51" t="s">
+        <v>133</v>
       </c>
       <c r="C165" s="58" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D165" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="E165" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="E165" s="93" t="s">
         <v>664</v>
       </c>
-      <c r="F165" s="57"/>
-      <c r="G165" s="61" t="s">
-        <v>627</v>
-      </c>
-      <c r="H165" s="61" t="s">
-        <v>665</v>
+      <c r="F165" s="93"/>
+      <c r="G165" s="58" t="s">
+        <v>628</v>
+      </c>
+      <c r="H165" s="58" t="s">
+        <v>636</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="52" t="s">
+      <c r="A166" s="44" t="s">
+        <v>665</v>
+      </c>
+      <c r="B166" s="45" t="s">
         <v>666</v>
       </c>
-      <c r="B166" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C166" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="D166" s="48" t="s">
-        <v>137</v>
+      <c r="C166" s="46" t="s">
+        <v>667</v>
+      </c>
+      <c r="D166" s="46" t="s">
+        <v>668</v>
       </c>
       <c r="E166" s="36" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F166" s="36"/>
-      <c r="G166" s="48" t="s">
-        <v>631</v>
-      </c>
-      <c r="H166" s="48" t="s">
-        <v>639</v>
+      <c r="G166" s="35" t="s">
+        <v>670</v>
+      </c>
+      <c r="H166" s="46" t="s">
+        <v>671</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="46" t="s">
-        <v>668</v>
-      </c>
-      <c r="B167" s="47" t="s">
-        <v>669</v>
-      </c>
-      <c r="C167" s="58" t="s">
-        <v>670</v>
-      </c>
-      <c r="D167" s="58" t="s">
-        <v>671</v>
-      </c>
-      <c r="E167" s="36" t="s">
+      <c r="A167" s="44" t="s">
         <v>672</v>
       </c>
-      <c r="F167" s="36"/>
-      <c r="G167" s="35" t="s">
+      <c r="B167" s="45" t="s">
         <v>673</v>
       </c>
-      <c r="H167" s="48" t="s">
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="35" t="s">
         <v>674</v>
+      </c>
+      <c r="F167" s="46"/>
+      <c r="G167" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H167" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="46" t="s">
+      <c r="A168" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="B168" s="47" t="s">
+      <c r="B168" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C168" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D168" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E168" s="114" t="s">
         <v>676</v>
       </c>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="85" t="s">
+      <c r="F168" s="114"/>
+      <c r="G168" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H168" s="35" t="s">
         <v>677</v>
       </c>
-      <c r="F168" s="115"/>
-      <c r="G168" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H168" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I168" s="7"/>
+      <c r="I168" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="52" t="s">
+      <c r="A169" s="50" t="s">
         <v>678</v>
       </c>
-      <c r="B169" s="53" t="s">
-        <v>65</v>
+      <c r="B169" s="51" t="s">
+        <v>79</v>
       </c>
       <c r="C169" s="58" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D169" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E169" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="E169" s="114" t="s">
         <v>679</v>
       </c>
-      <c r="F169" s="115"/>
+      <c r="F169" s="114"/>
       <c r="G169" s="35" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H169" s="35" t="s">
         <v>680</v>
       </c>
-      <c r="I169" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="I169" s="7"/>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="52" t="s">
+      <c r="A170" s="50" t="s">
         <v>681</v>
       </c>
-      <c r="B170" s="53" t="s">
-        <v>81</v>
+      <c r="B170" s="51" t="s">
+        <v>86</v>
       </c>
       <c r="C170" s="58" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D170" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E170" s="114" t="s">
+        <v>682</v>
+      </c>
+      <c r="F170" s="114"/>
+      <c r="G170" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="E170" s="115" t="s">
-        <v>682</v>
-      </c>
-      <c r="F170" s="115"/>
-      <c r="G170" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H170" s="38" t="s">
+      <c r="H170" s="70" t="s">
         <v>683</v>
       </c>
       <c r="I170" s="7"/>
@@ -14646,24 +14674,24 @@
       <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="52" t="s">
+      <c r="A171" s="50" t="s">
         <v>684</v>
       </c>
-      <c r="B171" s="53" t="s">
-        <v>88</v>
+      <c r="B171" s="51" t="s">
+        <v>100</v>
       </c>
       <c r="C171" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D171" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="E171" s="115" t="s">
+        <v>101</v>
+      </c>
+      <c r="D171" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="E171" s="114" t="s">
         <v>685</v>
       </c>
-      <c r="F171" s="115"/>
+      <c r="F171" s="114"/>
       <c r="G171" s="35" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="H171" s="35" t="s">
         <v>686</v>
@@ -14673,26 +14701,26 @@
       <c r="K171" s="7"/>
     </row>
     <row r="172">
-      <c r="A172" s="52" t="s">
+      <c r="A172" s="50" t="s">
         <v>687</v>
       </c>
-      <c r="B172" s="53" t="s">
-        <v>102</v>
+      <c r="B172" s="51" t="s">
+        <v>107</v>
       </c>
       <c r="C172" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="D172" s="48" t="s">
-        <v>619</v>
-      </c>
-      <c r="E172" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="D172" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E172" s="114" t="s">
         <v>688</v>
       </c>
-      <c r="F172" s="115"/>
-      <c r="G172" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H172" s="35" t="s">
+      <c r="F172" s="114"/>
+      <c r="G172" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H172" s="46" t="s">
         <v>689</v>
       </c>
       <c r="I172" s="7"/>
@@ -14700,162 +14728,162 @@
       <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="52" t="s">
+      <c r="A173" s="50" t="s">
         <v>690</v>
       </c>
-      <c r="B173" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C173" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="D173" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="E173" s="115" t="s">
+      <c r="B173" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C173" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="D173" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E173" s="114" t="s">
         <v>691</v>
       </c>
-      <c r="F173" s="115"/>
-      <c r="G173" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="H173" s="48" t="s">
-        <v>692</v>
+      <c r="F173" s="114"/>
+      <c r="G173" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="H173" s="46" t="s">
+        <v>625</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="52" t="s">
+      <c r="A174" s="50" t="s">
+        <v>692</v>
+      </c>
+      <c r="B174" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C174" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D174" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E174" s="114" t="s">
         <v>693</v>
       </c>
-      <c r="B174" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C174" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="D174" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="E174" s="115" t="s">
-        <v>694</v>
-      </c>
-      <c r="F174" s="115"/>
-      <c r="G174" s="48" t="s">
-        <v>627</v>
-      </c>
-      <c r="H174" s="48" t="s">
+      <c r="F174" s="114"/>
+      <c r="G174" s="46" t="s">
         <v>628</v>
+      </c>
+      <c r="H174" s="46" t="s">
+        <v>629</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="52" t="s">
+      <c r="A175" s="50" t="s">
+        <v>694</v>
+      </c>
+      <c r="B175" s="51" t="s">
+        <v>631</v>
+      </c>
+      <c r="C175" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D175" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E175" s="114" t="s">
         <v>695</v>
       </c>
-      <c r="B175" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C175" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="D175" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="E175" s="115" t="s">
+      <c r="F175" s="114"/>
+      <c r="G175" s="43" t="s">
+        <v>624</v>
+      </c>
+      <c r="H175" s="43" t="s">
         <v>696</v>
-      </c>
-      <c r="F175" s="115"/>
-      <c r="G175" s="48" t="s">
-        <v>631</v>
-      </c>
-      <c r="H175" s="48" t="s">
-        <v>632</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="52" t="s">
+      <c r="A176" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="B176" s="53" t="s">
-        <v>634</v>
+      <c r="B176" s="51" t="s">
+        <v>133</v>
       </c>
       <c r="C176" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="D176" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="E176" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="D176" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E176" s="114" t="s">
         <v>698</v>
       </c>
-      <c r="F176" s="115"/>
-      <c r="G176" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="H176" s="45" t="s">
-        <v>699</v>
+      <c r="F176" s="114"/>
+      <c r="G176" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="H176" s="46" t="s">
+        <v>636</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
     </row>
     <row r="177">
-      <c r="A177" s="52" t="s">
+      <c r="A177" s="38" t="s">
+        <v>699</v>
+      </c>
+      <c r="B177" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="B177" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C177" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="D177" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="E177" s="115" t="s">
+      <c r="C177" s="121" t="s">
         <v>701</v>
       </c>
-      <c r="F177" s="115"/>
-      <c r="G177" s="48" t="s">
-        <v>631</v>
-      </c>
-      <c r="H177" s="48" t="s">
-        <v>639</v>
+      <c r="D177" s="122" t="s">
+        <v>702</v>
+      </c>
+      <c r="E177" s="123" t="s">
+        <v>703</v>
+      </c>
+      <c r="F177" s="123"/>
+      <c r="G177" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="H177" s="124" t="s">
+        <v>705</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="39" t="s">
+      <c r="A178" s="38" t="s">
+        <v>699</v>
+      </c>
+      <c r="B178" s="39" t="s">
+        <v>700</v>
+      </c>
+      <c r="C178" s="121" t="s">
+        <v>701</v>
+      </c>
+      <c r="D178" s="122" t="s">
         <v>702</v>
       </c>
-      <c r="B178" s="40" t="s">
+      <c r="E178" s="123" t="s">
         <v>703</v>
       </c>
-      <c r="C178" s="122" t="s">
+      <c r="F178" s="123"/>
+      <c r="G178" s="35" t="s">
         <v>704</v>
       </c>
-      <c r="D178" s="123" t="s">
-        <v>705</v>
-      </c>
-      <c r="E178" s="124" t="s">
+      <c r="H178" s="124" t="s">
         <v>706</v>
-      </c>
-      <c r="F178" s="124"/>
-      <c r="G178" s="35" t="s">
-        <v>707</v>
-      </c>
-      <c r="H178" s="125" t="s">
-        <v>708</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
@@ -14922,303 +14950,303 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="E2" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="F2" s="35" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>709</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>710</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>711</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>712</v>
       </c>
       <c r="D3" s="58"/>
       <c r="E3" s="35" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>709</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>710</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>711</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>712</v>
       </c>
       <c r="D4" s="58"/>
       <c r="E4" s="35" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>397</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>398</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>717</v>
-      </c>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
+        <v>715</v>
+      </c>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>717</v>
+      </c>
+      <c r="C6" s="58" t="s">
         <v>718</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="D6" s="58" t="s">
         <v>719</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="E6" s="35" t="s">
         <v>720</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>721</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>722</v>
-      </c>
       <c r="F6" s="35"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>722</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="D7" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="35" t="s">
         <v>725</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="35" t="s">
         <v>726</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>727</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>507</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="70" t="s">
         <v>729</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="F8" s="70" t="s">
         <v>730</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="38" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="75" t="s">
         <v>731</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="B9" s="75" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="83" t="s">
+      <c r="C9" s="75" t="s">
+        <v>507</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75" t="s">
         <v>733</v>
       </c>
-      <c r="B9" s="83" t="s">
-        <v>734</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>510</v>
-      </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83" t="s">
-        <v>735</v>
-      </c>
-      <c r="F9" s="83" t="s">
-        <v>732</v>
+      <c r="F9" s="75" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>735</v>
+      </c>
+      <c r="C10" s="127" t="s">
         <v>736</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="70" t="s">
         <v>737</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="F10" s="70" t="s">
         <v>738</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="38" t="s">
-        <v>739</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>740</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="D11" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="E11" s="70" t="s">
         <v>743</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="F11" s="70" t="s">
         <v>744</v>
       </c>
-      <c r="E11" s="38" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="76" t="s">
         <v>745</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="B12" s="75" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="82" t="s">
+      <c r="C12" s="76" t="s">
         <v>747</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="D12" s="76" t="s">
         <v>748</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="E12" s="75" t="s">
         <v>749</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="F12" s="128" t="s">
         <v>750</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>751</v>
-      </c>
-      <c r="F12" s="130" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>754</v>
+        <v>751</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>752</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="70" t="s">
+        <v>753</v>
+      </c>
+      <c r="F13" s="129" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="115" t="s">
         <v>755</v>
       </c>
-      <c r="F13" s="131" t="s">
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="58" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="116" t="s">
+      <c r="E14" s="70" t="s">
         <v>757</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="58" t="s">
+      <c r="F14" s="129" t="s">
         <v>758</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>759</v>
-      </c>
-      <c r="F14" s="131" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="15">
@@ -19199,108 +19227,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
+        <v>759</v>
+      </c>
+      <c r="B2" s="131" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="132" t="s">
         <v>761</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B3" s="131" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="134" t="s">
+    <row r="4">
+      <c r="A4" s="133" t="s">
         <v>763</v>
       </c>
-      <c r="B3" s="133" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="134" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="135" t="s">
+      <c r="B6" s="131" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="136" t="s">
+    <row r="7">
+      <c r="B7" s="131" t="s">
         <v>766</v>
       </c>
-      <c r="B6" s="133" t="s">
+    </row>
+    <row r="8">
+      <c r="B8" s="131"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="131"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="134" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="133" t="s">
+    <row r="11">
+      <c r="A11" s="134" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="133"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="133"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="136" t="s">
+      <c r="B11" s="135" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="136" t="s">
+    <row r="12">
+      <c r="B12" s="136" t="s">
         <v>770</v>
       </c>
-      <c r="B11" s="137" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="137"/>
+      <c r="B13" s="138" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="138" t="s">
+    <row r="14">
+      <c r="B14" s="139" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140" t="s">
+    <row r="15">
+      <c r="B15" s="140" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="141" t="s">
+    <row r="16">
+      <c r="B16" s="141" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="142" t="s">
+    <row r="17">
+      <c r="A17" s="134"/>
+      <c r="B17" s="28"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="134" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="143" t="s">
+      <c r="B18" s="142" t="s">
         <v>776</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="136"/>
-      <c r="B17" s="28"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="136" t="s">
-        <v>777</v>
-      </c>
-      <c r="B18" s="144" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="B19" s="143"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="134" t="s">
+        <v>778</v>
+      </c>
+      <c r="B21" s="144" t="s">
         <v>779</v>
-      </c>
-      <c r="B19" s="145"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="136" t="s">
-        <v>780</v>
-      </c>
-      <c r="B21" s="146" t="s">
-        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -19325,48 +19353,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="134" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="145" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="131" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="147" t="s">
+    <row r="4">
+      <c r="A4" s="145" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="133" t="s">
+    <row r="5">
+      <c r="A5" s="131" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="147" t="s">
+    <row r="6">
+      <c r="A6" s="131" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="133" t="s">
+    <row r="7">
+      <c r="A7" s="131" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="133" t="s">
+    <row r="8">
+      <c r="A8" s="145" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="133" t="s">
+    <row r="9">
+      <c r="A9" s="131" t="s">
         <v>788</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="147" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="133" t="s">
-        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -19392,48 +19420,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B1" s="148" t="s">
+        <v>780</v>
+      </c>
+      <c r="B1" s="146" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="147" t="s">
+        <v>790</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>791</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="149" t="s">
-        <v>792</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -19452,7 +19480,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="137"/>
+      <c r="A1" s="135"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -19476,40 +19504,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="150" t="s">
-        <v>800</v>
-      </c>
-      <c r="C1" s="150" t="s">
-        <v>801</v>
-      </c>
-      <c r="E1" s="151" t="s">
+      <c r="A1" s="148" t="s">
+        <v>798</v>
+      </c>
+      <c r="C1" s="148" t="s">
+        <v>799</v>
+      </c>
+      <c r="E1" s="149" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>805</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
+        <v>804</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>805</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>806</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>807</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>808</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -19519,13 +19547,13 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19535,287 +19563,287 @@
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
+        <v>808</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>809</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>810</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="E5" s="7" t="s">
         <v>811</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>812</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>815</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>819</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="E8" s="19" t="s">
         <v>823</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="150" t="s">
         <v>824</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="B9" s="151" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="152" t="s">
+      <c r="C9" s="151" t="s">
+        <v>806</v>
+      </c>
+      <c r="D9" s="151" t="s">
         <v>826</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="151"/>
+      <c r="W9" s="151"/>
+      <c r="X9" s="151"/>
+      <c r="Y9" s="151"/>
+      <c r="Z9" s="151"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="150" t="s">
         <v>827</v>
       </c>
-      <c r="C9" s="153" t="s">
-        <v>808</v>
-      </c>
-      <c r="D9" s="153" t="s">
+      <c r="B10" s="151" t="s">
+        <v>825</v>
+      </c>
+      <c r="C10" s="151" t="s">
+        <v>806</v>
+      </c>
+      <c r="D10" s="151" t="s">
         <v>828</v>
       </c>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="152" t="s">
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="152"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="150" t="s">
         <v>829</v>
       </c>
-      <c r="B10" s="153" t="s">
-        <v>827</v>
-      </c>
-      <c r="C10" s="153" t="s">
-        <v>808</v>
-      </c>
-      <c r="D10" s="153" t="s">
+      <c r="B11" s="151" t="s">
         <v>830</v>
       </c>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="154"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="154"/>
-      <c r="U10" s="154"/>
-      <c r="V10" s="154"/>
-      <c r="W10" s="154"/>
-      <c r="X10" s="154"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="154"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="152" t="s">
+      <c r="C11" s="151" t="s">
+        <v>806</v>
+      </c>
+      <c r="D11" s="151" t="s">
         <v>831</v>
       </c>
-      <c r="B11" s="153" t="s">
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="152"/>
+      <c r="S11" s="152"/>
+      <c r="T11" s="152"/>
+      <c r="U11" s="152"/>
+      <c r="V11" s="152"/>
+      <c r="W11" s="152"/>
+      <c r="X11" s="152"/>
+      <c r="Y11" s="152"/>
+      <c r="Z11" s="152"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="150" t="s">
         <v>832</v>
       </c>
-      <c r="C11" s="153" t="s">
-        <v>808</v>
-      </c>
-      <c r="D11" s="153" t="s">
+      <c r="B12" s="151" t="s">
+        <v>830</v>
+      </c>
+      <c r="C12" s="151" t="s">
+        <v>806</v>
+      </c>
+      <c r="D12" s="151" t="s">
         <v>833</v>
       </c>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="154"/>
-      <c r="U11" s="154"/>
-      <c r="V11" s="154"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="154"/>
-      <c r="Y11" s="154"/>
-      <c r="Z11" s="154"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="152" t="s">
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="152"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="152"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="150" t="s">
         <v>834</v>
       </c>
-      <c r="B12" s="153" t="s">
-        <v>832</v>
-      </c>
-      <c r="C12" s="153" t="s">
-        <v>808</v>
-      </c>
-      <c r="D12" s="153" t="s">
+      <c r="B13" s="150" t="s">
+        <v>809</v>
+      </c>
+      <c r="C13" s="151" t="s">
+        <v>806</v>
+      </c>
+      <c r="D13" s="151" t="s">
         <v>835</v>
       </c>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="154"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="154"/>
-      <c r="S12" s="154"/>
-      <c r="T12" s="154"/>
-      <c r="U12" s="154"/>
-      <c r="V12" s="154"/>
-      <c r="W12" s="154"/>
-      <c r="X12" s="154"/>
-      <c r="Y12" s="154"/>
-      <c r="Z12" s="154"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="152" t="s">
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="152"/>
+      <c r="T13" s="152"/>
+      <c r="U13" s="152"/>
+      <c r="V13" s="152"/>
+      <c r="W13" s="152"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="152"/>
+      <c r="Z13" s="152"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="150" t="s">
         <v>836</v>
       </c>
-      <c r="B13" s="152" t="s">
-        <v>811</v>
-      </c>
-      <c r="C13" s="153" t="s">
-        <v>808</v>
-      </c>
-      <c r="D13" s="153" t="s">
+      <c r="B14" s="150" t="s">
+        <v>809</v>
+      </c>
+      <c r="C14" s="151" t="s">
+        <v>806</v>
+      </c>
+      <c r="D14" s="151" t="s">
         <v>837</v>
       </c>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="154"/>
-      <c r="T13" s="154"/>
-      <c r="U13" s="154"/>
-      <c r="V13" s="154"/>
-      <c r="W13" s="154"/>
-      <c r="X13" s="154"/>
-      <c r="Y13" s="154"/>
-      <c r="Z13" s="154"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="152" t="s">
-        <v>838</v>
-      </c>
-      <c r="B14" s="152" t="s">
-        <v>811</v>
-      </c>
-      <c r="C14" s="153" t="s">
-        <v>808</v>
-      </c>
-      <c r="D14" s="153" t="s">
-        <v>839</v>
-      </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="154"/>
-      <c r="T14" s="154"/>
-      <c r="U14" s="154"/>
-      <c r="V14" s="154"/>
-      <c r="W14" s="154"/>
-      <c r="X14" s="154"/>
-      <c r="Y14" s="154"/>
-      <c r="Z14" s="154"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="152"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19843,52 +19871,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="153" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="134" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="136" t="s">
+      <c r="B2" s="134" t="s">
+        <v>801</v>
+      </c>
+      <c r="C2" s="134" t="s">
         <v>802</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="D2" s="134" t="s">
         <v>803</v>
       </c>
-      <c r="C2" s="136" t="s">
-        <v>804</v>
-      </c>
-      <c r="D2" s="136" t="s">
-        <v>805</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="131" t="s">
+        <v>838</v>
+      </c>
+      <c r="B3" s="131" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="131" t="s">
         <v>840</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B4" s="131" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="133" t="s">
+    <row r="5">
+      <c r="A5" s="131" t="s">
         <v>842</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B5" s="131" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="133" t="s">
+      <c r="C5" s="154" t="s">
+        <v>841</v>
+      </c>
+      <c r="D5" s="131" t="s">
         <v>844</v>
-      </c>
-      <c r="B5" s="133" t="s">
-        <v>845</v>
-      </c>
-      <c r="C5" s="156" t="s">
-        <v>843</v>
-      </c>
-      <c r="D5" s="133" t="s">
-        <v>846</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F12/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F12/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.2.0-alpha.1</t>
+    <t>2.2.0-rc.1</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F12/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F12/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.2.0-rc.1</t>
+    <t>2.2.0-rc.2</t>
   </si>
   <si>
     <r>
